--- a/data/DateofDeath.xlsx
+++ b/data/DateofDeath.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\COVID-19 Data Visualization\COVID19 - Files\Power BI resources\CSV filesPROB4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1278B3C3-636B-4FD5-9073-75707BEC4A30}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FB70D35-280A-49E7-BC60-68E51CE5EC9C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -890,13 +890,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F267"/>
+  <dimension ref="A1:F268"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B257" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B248" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L279" sqref="L279"/>
+      <selection pane="bottomRight" activeCell="B269" sqref="B269"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5340,7 +5340,7 @@
         <v>15</v>
       </c>
       <c r="C196">
-        <f t="shared" ref="C196:C267" si="9">B196+C195</f>
+        <f t="shared" ref="C196:C268" si="9">B196+C195</f>
         <v>9124</v>
       </c>
       <c r="D196">
@@ -6510,11 +6510,11 @@
         <v>44145</v>
       </c>
       <c r="B247">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C247">
         <f t="shared" si="9"/>
-        <v>10023</v>
+        <v>10024</v>
       </c>
       <c r="D247">
         <v>0</v>
@@ -6525,7 +6525,7 @@
       </c>
       <c r="F247">
         <f t="shared" si="16"/>
-        <v>22.714285714285715</v>
+        <v>22.857142857142858</v>
       </c>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.35">
@@ -6537,7 +6537,7 @@
       </c>
       <c r="C248">
         <f t="shared" si="9"/>
-        <v>10054</v>
+        <v>10055</v>
       </c>
       <c r="D248">
         <v>0</v>
@@ -6548,7 +6548,7 @@
       </c>
       <c r="F248">
         <f t="shared" si="16"/>
-        <v>23</v>
+        <v>23.142857142857142</v>
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.35">
@@ -6556,11 +6556,11 @@
         <v>44147</v>
       </c>
       <c r="B249">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C249">
         <f t="shared" si="9"/>
-        <v>10077</v>
+        <v>10079</v>
       </c>
       <c r="D249">
         <v>0</v>
@@ -6571,7 +6571,7 @@
       </c>
       <c r="F249">
         <f t="shared" si="16"/>
-        <v>22.857142857142858</v>
+        <v>23.142857142857142</v>
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.35">
@@ -6583,7 +6583,7 @@
       </c>
       <c r="C250">
         <f t="shared" si="9"/>
-        <v>10096</v>
+        <v>10098</v>
       </c>
       <c r="D250">
         <v>3</v>
@@ -6594,7 +6594,7 @@
       </c>
       <c r="F250">
         <f t="shared" si="16"/>
-        <v>23.714285714285715</v>
+        <v>24</v>
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.35">
@@ -6606,7 +6606,7 @@
       </c>
       <c r="C251">
         <f t="shared" si="9"/>
-        <v>10123</v>
+        <v>10125</v>
       </c>
       <c r="D251">
         <v>0</v>
@@ -6617,7 +6617,7 @@
       </c>
       <c r="F251">
         <f t="shared" si="16"/>
-        <v>23.857142857142858</v>
+        <v>24.142857142857142</v>
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.35">
@@ -6629,7 +6629,7 @@
       </c>
       <c r="C252">
         <f t="shared" si="9"/>
-        <v>10154</v>
+        <v>10156</v>
       </c>
       <c r="D252">
         <v>0</v>
@@ -6640,7 +6640,7 @@
       </c>
       <c r="F252">
         <f t="shared" si="16"/>
-        <v>25.428571428571427</v>
+        <v>25.714285714285715</v>
       </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.35">
@@ -6648,11 +6648,11 @@
         <v>44151</v>
       </c>
       <c r="B253">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C253">
         <f t="shared" si="9"/>
-        <v>10184</v>
+        <v>10185</v>
       </c>
       <c r="D253">
         <v>1</v>
@@ -6663,7 +6663,7 @@
       </c>
       <c r="F253">
         <f t="shared" si="16"/>
-        <v>26.285714285714285</v>
+        <v>26.428571428571427</v>
       </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.35">
@@ -6675,7 +6675,7 @@
       </c>
       <c r="C254">
         <f t="shared" si="9"/>
-        <v>10208</v>
+        <v>10209</v>
       </c>
       <c r="D254">
         <v>0</v>
@@ -6698,7 +6698,7 @@
       </c>
       <c r="C255">
         <f t="shared" si="9"/>
-        <v>10234</v>
+        <v>10235</v>
       </c>
       <c r="D255">
         <v>0</v>
@@ -6721,7 +6721,7 @@
       </c>
       <c r="C256">
         <f t="shared" si="9"/>
-        <v>10253</v>
+        <v>10254</v>
       </c>
       <c r="D256">
         <v>0</v>
@@ -6732,7 +6732,7 @@
       </c>
       <c r="F256">
         <f t="shared" si="17"/>
-        <v>25.142857142857142</v>
+        <v>25</v>
       </c>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.35">
@@ -6744,7 +6744,7 @@
       </c>
       <c r="C257">
         <f t="shared" si="9"/>
-        <v>10284</v>
+        <v>10285</v>
       </c>
       <c r="D257">
         <v>0</v>
@@ -6755,7 +6755,7 @@
       </c>
       <c r="F257">
         <f t="shared" si="17"/>
-        <v>26.857142857142858</v>
+        <v>26.714285714285715</v>
       </c>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.35">
@@ -6767,7 +6767,7 @@
       </c>
       <c r="C258">
         <f t="shared" si="9"/>
-        <v>10311</v>
+        <v>10312</v>
       </c>
       <c r="D258">
         <v>0</v>
@@ -6778,7 +6778,7 @@
       </c>
       <c r="F258">
         <f t="shared" si="17"/>
-        <v>26.857142857142858</v>
+        <v>26.714285714285715</v>
       </c>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.35">
@@ -6790,7 +6790,7 @@
       </c>
       <c r="C259">
         <f t="shared" si="9"/>
-        <v>10340</v>
+        <v>10341</v>
       </c>
       <c r="D259">
         <v>1</v>
@@ -6801,7 +6801,7 @@
       </c>
       <c r="F259">
         <f t="shared" si="17"/>
-        <v>26.571428571428573</v>
+        <v>26.428571428571427</v>
       </c>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.35">
@@ -6813,7 +6813,7 @@
       </c>
       <c r="C260">
         <f t="shared" si="9"/>
-        <v>10375</v>
+        <v>10376</v>
       </c>
       <c r="D260">
         <v>1</v>
@@ -6836,7 +6836,7 @@
       </c>
       <c r="C261">
         <f t="shared" si="9"/>
-        <v>10402</v>
+        <v>10403</v>
       </c>
       <c r="D261">
         <v>1</v>
@@ -6855,11 +6855,11 @@
         <v>44160</v>
       </c>
       <c r="B262">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C262">
         <f t="shared" si="9"/>
-        <v>10430</v>
+        <v>10432</v>
       </c>
       <c r="D262">
         <v>1</v>
@@ -6870,7 +6870,7 @@
       </c>
       <c r="F262">
         <f t="shared" ref="F262:F265" si="21">AVERAGE(B256:B262)</f>
-        <v>28</v>
+        <v>28.142857142857142</v>
       </c>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.35">
@@ -6882,7 +6882,7 @@
       </c>
       <c r="C263">
         <f t="shared" si="9"/>
-        <v>10455</v>
+        <v>10457</v>
       </c>
       <c r="D263">
         <v>0</v>
@@ -6893,7 +6893,7 @@
       </c>
       <c r="F263">
         <f t="shared" si="21"/>
-        <v>28.857142857142858</v>
+        <v>29</v>
       </c>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.35">
@@ -6901,11 +6901,11 @@
         <v>44162</v>
       </c>
       <c r="B264">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C264">
         <f t="shared" si="9"/>
-        <v>10491</v>
+        <v>10495</v>
       </c>
       <c r="D264">
         <v>0</v>
@@ -6916,7 +6916,7 @@
       </c>
       <c r="F264">
         <f t="shared" si="21"/>
-        <v>29.571428571428573</v>
+        <v>30</v>
       </c>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.35">
@@ -6924,11 +6924,11 @@
         <v>44163</v>
       </c>
       <c r="B265">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C265">
         <f t="shared" si="9"/>
-        <v>10527</v>
+        <v>10534</v>
       </c>
       <c r="D265">
         <v>1</v>
@@ -6939,7 +6939,7 @@
       </c>
       <c r="F265">
         <f t="shared" si="21"/>
-        <v>30.857142857142858</v>
+        <v>31.714285714285715</v>
       </c>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.35">
@@ -6947,11 +6947,11 @@
         <v>44164</v>
       </c>
       <c r="B266">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C266">
         <f t="shared" si="9"/>
-        <v>10553</v>
+        <v>10561</v>
       </c>
       <c r="D266">
         <v>0</v>
@@ -6962,7 +6962,7 @@
       </c>
       <c r="F266">
         <f t="shared" ref="F266" si="22">AVERAGE(B260:B266)</f>
-        <v>30.428571428571427</v>
+        <v>31.428571428571427</v>
       </c>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.35">
@@ -6970,11 +6970,11 @@
         <v>44165</v>
       </c>
       <c r="B267">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="C267">
         <f t="shared" si="9"/>
-        <v>10574</v>
+        <v>10598</v>
       </c>
       <c r="D267">
         <v>0</v>
@@ -6985,7 +6985,30 @@
       </c>
       <c r="F267">
         <f t="shared" ref="F267" si="23">AVERAGE(B261:B267)</f>
-        <v>28.428571428571427</v>
+        <v>31.714285714285715</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A268" s="1">
+        <v>44166</v>
+      </c>
+      <c r="B268">
+        <v>25</v>
+      </c>
+      <c r="C268">
+        <f t="shared" si="9"/>
+        <v>10623</v>
+      </c>
+      <c r="D268">
+        <v>0</v>
+      </c>
+      <c r="E268">
+        <f t="shared" ref="E268" si="24">D268+E267</f>
+        <v>236</v>
+      </c>
+      <c r="F268">
+        <f t="shared" ref="F268" si="25">AVERAGE(B262:B268)</f>
+        <v>31.428571428571427</v>
       </c>
     </row>
   </sheetData>
@@ -6994,21 +7017,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008004546134034441816F24C41F65E929" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c3392cbe151f976ef883c2eee1f53348">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0967b7be50301903c78f9c39c6fd9af8">
     <xsd:element name="properties">
@@ -7122,24 +7130,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74AA8ED6-45B0-4A9E-9B31-0193ECD8C05A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1A2B3F87-A9AF-4074-B361-AD2BB674E9B4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D515663D-8DD7-4DC5-AB14-871AB41C18CB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7153,4 +7159,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74AA8ED6-45B0-4A9E-9B31-0193ECD8C05A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1A2B3F87-A9AF-4074-B361-AD2BB674E9B4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/data/DateofDeath.xlsx
+++ b/data/DateofDeath.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\COVID-19 Data Visualization\COVID19 - Files\Power BI resources\CSV filesPROB4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FB70D35-280A-49E7-BC60-68E51CE5EC9C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{685A8D6C-5FD6-428F-8762-5833B3A2836F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -890,25 +890,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F268"/>
+  <dimension ref="A1:F269"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B248" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B245" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B269" sqref="B269"/>
+      <selection pane="bottomRight" activeCell="C274" sqref="C274"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.81640625" customWidth="1"/>
+    <col min="1" max="1" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -928,7 +928,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>43900</v>
       </c>
@@ -945,7 +945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>43901</v>
       </c>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>43902</v>
       </c>
@@ -983,7 +983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>43903</v>
       </c>
@@ -1002,7 +1002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>43904</v>
       </c>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>43905</v>
       </c>
@@ -1040,7 +1040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>43906</v>
       </c>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>43907</v>
       </c>
@@ -1078,7 +1078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>43908</v>
       </c>
@@ -1097,7 +1097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>43909</v>
       </c>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>43910</v>
       </c>
@@ -1135,7 +1135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>43911</v>
       </c>
@@ -1154,7 +1154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>43912</v>
       </c>
@@ -1173,7 +1173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>43913</v>
       </c>
@@ -1192,7 +1192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>43914</v>
       </c>
@@ -1215,7 +1215,7 @@
         <v>3.7142857142857144</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>43915</v>
       </c>
@@ -1238,7 +1238,7 @@
         <v>4.4285714285714288</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>43916</v>
       </c>
@@ -1261,7 +1261,7 @@
         <v>5.5714285714285712</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>43917</v>
       </c>
@@ -1284,7 +1284,7 @@
         <v>7.4285714285714288</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>43918</v>
       </c>
@@ -1307,7 +1307,7 @@
         <v>9.2857142857142865</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>43919</v>
       </c>
@@ -1330,7 +1330,7 @@
         <v>12.285714285714286</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>43920</v>
       </c>
@@ -1353,7 +1353,7 @@
         <v>15.428571428571429</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>43921</v>
       </c>
@@ -1376,7 +1376,7 @@
         <v>18.142857142857142</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>43922</v>
       </c>
@@ -1399,7 +1399,7 @@
         <v>22.285714285714285</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>43923</v>
       </c>
@@ -1422,7 +1422,7 @@
         <v>26.857142857142858</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>43924</v>
       </c>
@@ -1445,7 +1445,7 @@
         <v>30.142857142857142</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>43925</v>
       </c>
@@ -1468,7 +1468,7 @@
         <v>33.428571428571431</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>43926</v>
       </c>
@@ -1491,7 +1491,7 @@
         <v>39.571428571428569</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>43927</v>
       </c>
@@ -1514,7 +1514,7 @@
         <v>46.857142857142854</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>43928</v>
       </c>
@@ -1537,7 +1537,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>43929</v>
       </c>
@@ -1560,7 +1560,7 @@
         <v>62.142857142857146</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>43930</v>
       </c>
@@ -1583,7 +1583,7 @@
         <v>72.428571428571431</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>43931</v>
       </c>
@@ -1606,7 +1606,7 @@
         <v>82.285714285714292</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>43932</v>
       </c>
@@ -1629,7 +1629,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>43933</v>
       </c>
@@ -1652,7 +1652,7 @@
         <v>100.57142857142857</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>43934</v>
       </c>
@@ -1675,7 +1675,7 @@
         <v>112.42857142857143</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>43935</v>
       </c>
@@ -1698,7 +1698,7 @@
         <v>119.71428571428571</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>43936</v>
       </c>
@@ -1721,7 +1721,7 @@
         <v>130.85714285714286</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>43937</v>
       </c>
@@ -1744,7 +1744,7 @@
         <v>139.57142857142858</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>43938</v>
       </c>
@@ -1767,7 +1767,7 @@
         <v>148.14285714285714</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>43939</v>
       </c>
@@ -1790,7 +1790,7 @@
         <v>155.42857142857142</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>43940</v>
       </c>
@@ -1813,7 +1813,7 @@
         <v>164.57142857142858</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>43941</v>
       </c>
@@ -1836,7 +1836,7 @@
         <v>166.14285714285714</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>43942</v>
       </c>
@@ -1859,7 +1859,7 @@
         <v>171.57142857142858</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>43943</v>
       </c>
@@ -1882,7 +1882,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>43944</v>
       </c>
@@ -1905,7 +1905,7 @@
         <v>170.28571428571428</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>43945</v>
       </c>
@@ -1928,7 +1928,7 @@
         <v>174.57142857142858</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>43946</v>
       </c>
@@ -1951,7 +1951,7 @@
         <v>171.71428571428572</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>43947</v>
       </c>
@@ -1974,7 +1974,7 @@
         <v>167.85714285714286</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>43948</v>
       </c>
@@ -1997,7 +1997,7 @@
         <v>165.57142857142858</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>43949</v>
       </c>
@@ -2020,7 +2020,7 @@
         <v>162.85714285714286</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>43950</v>
       </c>
@@ -2043,7 +2043,7 @@
         <v>164.42857142857142</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>43951</v>
       </c>
@@ -2066,7 +2066,7 @@
         <v>157.71428571428572</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>43952</v>
       </c>
@@ -2089,7 +2089,7 @@
         <v>154.71428571428572</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>43953</v>
       </c>
@@ -2112,7 +2112,7 @@
         <v>153.71428571428572</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>43954</v>
       </c>
@@ -2135,7 +2135,7 @@
         <v>151.71428571428572</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>43955</v>
       </c>
@@ -2158,7 +2158,7 @@
         <v>148.57142857142858</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>43956</v>
       </c>
@@ -2181,7 +2181,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>43957</v>
       </c>
@@ -2204,7 +2204,7 @@
         <v>144.28571428571428</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>43958</v>
       </c>
@@ -2227,7 +2227,7 @@
         <v>142.42857142857142</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>43959</v>
       </c>
@@ -2250,7 +2250,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>43960</v>
       </c>
@@ -2273,7 +2273,7 @@
         <v>127.42857142857143</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>43961</v>
       </c>
@@ -2296,7 +2296,7 @@
         <v>125.85714285714286</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>43962</v>
       </c>
@@ -2319,7 +2319,7 @@
         <v>124.71428571428571</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>43963</v>
       </c>
@@ -2342,7 +2342,7 @@
         <v>121.14285714285714</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>43964</v>
       </c>
@@ -2365,7 +2365,7 @@
         <v>117.85714285714286</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>43965</v>
       </c>
@@ -2388,7 +2388,7 @@
         <v>113.57142857142857</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>43966</v>
       </c>
@@ -2411,7 +2411,7 @@
         <v>114.85714285714286</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>43967</v>
       </c>
@@ -2434,7 +2434,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>43968</v>
       </c>
@@ -2457,7 +2457,7 @@
         <v>105.85714285714286</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>43969</v>
       </c>
@@ -2480,7 +2480,7 @@
         <v>101.42857142857143</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>43970</v>
       </c>
@@ -2503,7 +2503,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>43971</v>
       </c>
@@ -2526,7 +2526,7 @@
         <v>91.571428571428569</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>43972</v>
       </c>
@@ -2549,7 +2549,7 @@
         <v>86.857142857142861</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>43973</v>
       </c>
@@ -2572,7 +2572,7 @@
         <v>81.571428571428569</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>43974</v>
       </c>
@@ -2595,7 +2595,7 @@
         <v>79.571428571428569</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>43975</v>
       </c>
@@ -2618,7 +2618,7 @@
         <v>76.285714285714292</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>43976</v>
       </c>
@@ -2641,7 +2641,7 @@
         <v>71.857142857142861</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>43977</v>
       </c>
@@ -2664,7 +2664,7 @@
         <v>71.714285714285708</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>43978</v>
       </c>
@@ -2687,7 +2687,7 @@
         <v>68.857142857142861</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>43979</v>
       </c>
@@ -2710,7 +2710,7 @@
         <v>66.857142857142861</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>43980</v>
       </c>
@@ -2733,7 +2733,7 @@
         <v>63.285714285714285</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>43981</v>
       </c>
@@ -2756,7 +2756,7 @@
         <v>61.142857142857146</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>43982</v>
       </c>
@@ -2779,7 +2779,7 @@
         <v>60.428571428571431</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>43983</v>
       </c>
@@ -2802,7 +2802,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>43984</v>
       </c>
@@ -2825,7 +2825,7 @@
         <v>52.857142857142854</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>43985</v>
       </c>
@@ -2848,7 +2848,7 @@
         <v>49.571428571428569</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>43986</v>
       </c>
@@ -2871,7 +2871,7 @@
         <v>48.285714285714285</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>43987</v>
       </c>
@@ -2894,7 +2894,7 @@
         <v>43.857142857142854</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>43988</v>
       </c>
@@ -2917,7 +2917,7 @@
         <v>42.142857142857146</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>43989</v>
       </c>
@@ -2940,7 +2940,7 @@
         <v>39.714285714285715</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>43990</v>
       </c>
@@ -2963,7 +2963,7 @@
         <v>40.285714285714285</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>43991</v>
       </c>
@@ -2986,7 +2986,7 @@
         <v>37.714285714285715</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>43992</v>
       </c>
@@ -3009,7 +3009,7 @@
         <v>36.857142857142854</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>43993</v>
       </c>
@@ -3032,7 +3032,7 @@
         <v>35.285714285714285</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>43994</v>
       </c>
@@ -3055,7 +3055,7 @@
         <v>37.142857142857146</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>43995</v>
       </c>
@@ -3078,7 +3078,7 @@
         <v>34.571428571428569</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>43996</v>
       </c>
@@ -3101,7 +3101,7 @@
         <v>33.571428571428569</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>43997</v>
       </c>
@@ -3124,7 +3124,7 @@
         <v>33.142857142857146</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>43998</v>
       </c>
@@ -3147,7 +3147,7 @@
         <v>30.714285714285715</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>43999</v>
       </c>
@@ -3170,7 +3170,7 @@
         <v>29.714285714285715</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>44000</v>
       </c>
@@ -3193,7 +3193,7 @@
         <v>28.285714285714285</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>44001</v>
       </c>
@@ -3216,7 +3216,7 @@
         <v>27.428571428571427</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>44002</v>
       </c>
@@ -3239,7 +3239,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>44003</v>
       </c>
@@ -3262,7 +3262,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>44004</v>
       </c>
@@ -3285,7 +3285,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>44005</v>
       </c>
@@ -3308,7 +3308,7 @@
         <v>25.857142857142858</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>44006</v>
       </c>
@@ -3331,7 +3331,7 @@
         <v>25.428571428571427</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>44007</v>
       </c>
@@ -3354,7 +3354,7 @@
         <v>24.714285714285715</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>44008</v>
       </c>
@@ -3377,7 +3377,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>44009</v>
       </c>
@@ -3400,7 +3400,7 @@
         <v>23.857142857142858</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>44010</v>
       </c>
@@ -3423,7 +3423,7 @@
         <v>22.285714285714285</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>44011</v>
       </c>
@@ -3446,7 +3446,7 @@
         <v>21.571428571428573</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>44012</v>
       </c>
@@ -3469,7 +3469,7 @@
         <v>19.571428571428573</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>44013</v>
       </c>
@@ -3492,7 +3492,7 @@
         <v>19.285714285714285</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>44014</v>
       </c>
@@ -3515,7 +3515,7 @@
         <v>19.571428571428573</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>44015</v>
       </c>
@@ -3538,7 +3538,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>44016</v>
       </c>
@@ -3561,7 +3561,7 @@
         <v>18.428571428571427</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>44017</v>
       </c>
@@ -3584,7 +3584,7 @@
         <v>18.142857142857142</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>44018</v>
       </c>
@@ -3607,7 +3607,7 @@
         <v>19.285714285714285</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>44019</v>
       </c>
@@ -3630,7 +3630,7 @@
         <v>19.857142857142858</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>44020</v>
       </c>
@@ -3653,7 +3653,7 @@
         <v>20.571428571428573</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>44021</v>
       </c>
@@ -3676,7 +3676,7 @@
         <v>20.142857142857142</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>44022</v>
       </c>
@@ -3699,7 +3699,7 @@
         <v>19.142857142857142</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>44023</v>
       </c>
@@ -3722,7 +3722,7 @@
         <v>18.142857142857142</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>44024</v>
       </c>
@@ -3745,7 +3745,7 @@
         <v>17.714285714285715</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>44025</v>
       </c>
@@ -3768,7 +3768,7 @@
         <v>16.571428571428573</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>44026</v>
       </c>
@@ -3791,7 +3791,7 @@
         <v>16.428571428571427</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>44027</v>
       </c>
@@ -3814,7 +3814,7 @@
         <v>14.142857142857142</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>44028</v>
       </c>
@@ -3837,7 +3837,7 @@
         <v>13.285714285714286</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>44029</v>
       </c>
@@ -3860,7 +3860,7 @@
         <v>14.142857142857142</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>44030</v>
       </c>
@@ -3883,7 +3883,7 @@
         <v>14.428571428571429</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>44031</v>
       </c>
@@ -3906,7 +3906,7 @@
         <v>14.285714285714286</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>44032</v>
       </c>
@@ -3929,7 +3929,7 @@
         <v>13.285714285714286</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>44033</v>
       </c>
@@ -3952,7 +3952,7 @@
         <v>13.142857142857142</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>44034</v>
       </c>
@@ -3975,7 +3975,7 @@
         <v>13.571428571428571</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>44035</v>
       </c>
@@ -3998,7 +3998,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>44036</v>
       </c>
@@ -4021,7 +4021,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>44037</v>
       </c>
@@ -4044,7 +4044,7 @@
         <v>15.142857142857142</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>44038</v>
       </c>
@@ -4067,7 +4067,7 @@
         <v>15.142857142857142</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>44039</v>
       </c>
@@ -4090,7 +4090,7 @@
         <v>16.142857142857142</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>44040</v>
       </c>
@@ -4113,7 +4113,7 @@
         <v>15.571428571428571</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>44041</v>
       </c>
@@ -4136,7 +4136,7 @@
         <v>15.428571428571429</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>44042</v>
       </c>
@@ -4159,7 +4159,7 @@
         <v>14.857142857142858</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>44043</v>
       </c>
@@ -4182,7 +4182,7 @@
         <v>13.714285714285714</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>44044</v>
       </c>
@@ -4205,7 +4205,7 @@
         <v>14.428571428571429</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>44045</v>
       </c>
@@ -4228,7 +4228,7 @@
         <v>13.857142857142858</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>44046</v>
       </c>
@@ -4251,7 +4251,7 @@
         <v>12.714285714285714</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>44047</v>
       </c>
@@ -4274,7 +4274,7 @@
         <v>12.857142857142858</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>44048</v>
       </c>
@@ -4297,7 +4297,7 @@
         <v>12.857142857142858</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>44049</v>
       </c>
@@ -4320,7 +4320,7 @@
         <v>13.571428571428571</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>44050</v>
       </c>
@@ -4343,7 +4343,7 @@
         <v>13.571428571428571</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>44051</v>
       </c>
@@ -4366,7 +4366,7 @@
         <v>12.714285714285714</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>44052</v>
       </c>
@@ -4389,7 +4389,7 @@
         <v>12.571428571428571</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>44053</v>
       </c>
@@ -4412,7 +4412,7 @@
         <v>13.428571428571429</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>44054</v>
       </c>
@@ -4435,7 +4435,7 @@
         <v>13.428571428571429</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>44055</v>
       </c>
@@ -4458,7 +4458,7 @@
         <v>14.285714285714286</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <v>44056</v>
       </c>
@@ -4481,7 +4481,7 @@
         <v>13.857142857142858</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <v>44057</v>
       </c>
@@ -4504,7 +4504,7 @@
         <v>13.714285714285714</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <v>44058</v>
       </c>
@@ -4527,7 +4527,7 @@
         <v>13.714285714285714</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <v>44059</v>
       </c>
@@ -4550,7 +4550,7 @@
         <v>14.285714285714286</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <v>44060</v>
       </c>
@@ -4573,7 +4573,7 @@
         <v>14.428571428571429</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <v>44061</v>
       </c>
@@ -4596,7 +4596,7 @@
         <v>14.142857142857142</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
         <v>44062</v>
       </c>
@@ -4619,7 +4619,7 @@
         <v>13.571428571428571</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <v>44063</v>
       </c>
@@ -4642,7 +4642,7 @@
         <v>14.142857142857142</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <v>44064</v>
       </c>
@@ -4665,7 +4665,7 @@
         <v>14.428571428571429</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
         <v>44065</v>
       </c>
@@ -4688,7 +4688,7 @@
         <v>14.857142857142858</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <v>44066</v>
       </c>
@@ -4711,7 +4711,7 @@
         <v>15.142857142857142</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <v>44067</v>
       </c>
@@ -4734,7 +4734,7 @@
         <v>15.285714285714286</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
         <v>44068</v>
       </c>
@@ -4757,7 +4757,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
         <v>44069</v>
       </c>
@@ -4780,7 +4780,7 @@
         <v>15.714285714285714</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <v>44070</v>
       </c>
@@ -4803,7 +4803,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <v>44071</v>
       </c>
@@ -4826,7 +4826,7 @@
         <v>14.857142857142858</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
         <v>44072</v>
       </c>
@@ -4849,7 +4849,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
         <v>44073</v>
       </c>
@@ -4872,7 +4872,7 @@
         <v>15.142857142857142</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
         <v>44074</v>
       </c>
@@ -4895,7 +4895,7 @@
         <v>14.571428571428571</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
         <v>44075</v>
       </c>
@@ -4918,7 +4918,7 @@
         <v>14.428571428571429</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
         <v>44076</v>
       </c>
@@ -4941,7 +4941,7 @@
         <v>14.857142857142858</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
         <v>44077</v>
       </c>
@@ -4964,7 +4964,7 @@
         <v>14.857142857142858</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
         <v>44078</v>
       </c>
@@ -4987,7 +4987,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
         <v>44079</v>
       </c>
@@ -5010,7 +5010,7 @@
         <v>13.285714285714286</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
         <v>44080</v>
       </c>
@@ -5033,7 +5033,7 @@
         <v>12.142857142857142</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
         <v>44081</v>
       </c>
@@ -5056,7 +5056,7 @@
         <v>11.571428571428571</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
         <v>44082</v>
       </c>
@@ -5079,7 +5079,7 @@
         <v>11.285714285714286</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
         <v>44083</v>
       </c>
@@ -5102,7 +5102,7 @@
         <v>10.571428571428571</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
         <v>44084</v>
       </c>
@@ -5125,7 +5125,7 @@
         <v>11.857142857142858</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
         <v>44085</v>
       </c>
@@ -5148,7 +5148,7 @@
         <v>12.285714285714286</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
         <v>44086</v>
       </c>
@@ -5171,7 +5171,7 @@
         <v>11.714285714285714</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
         <v>44087</v>
       </c>
@@ -5194,7 +5194,7 @@
         <v>12.142857142857142</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A190" s="1">
         <v>44088</v>
       </c>
@@ -5217,7 +5217,7 @@
         <v>13.285714285714286</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
         <v>44089</v>
       </c>
@@ -5240,7 +5240,7 @@
         <v>13.285714285714286</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
         <v>44090</v>
       </c>
@@ -5263,7 +5263,7 @@
         <v>14.571428571428571</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A193" s="1">
         <v>44091</v>
       </c>
@@ -5286,7 +5286,7 @@
         <v>13.714285714285714</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A194" s="1">
         <v>44092</v>
       </c>
@@ -5309,7 +5309,7 @@
         <v>13.714285714285714</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
         <v>44093</v>
       </c>
@@ -5332,7 +5332,7 @@
         <v>14.142857142857142</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A196" s="1">
         <v>44094</v>
       </c>
@@ -5340,7 +5340,7 @@
         <v>15</v>
       </c>
       <c r="C196">
-        <f t="shared" ref="C196:C268" si="9">B196+C195</f>
+        <f t="shared" ref="C196:C269" si="9">B196+C195</f>
         <v>9124</v>
       </c>
       <c r="D196">
@@ -5355,7 +5355,7 @@
         <v>14.714285714285714</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
         <v>44095</v>
       </c>
@@ -5378,7 +5378,7 @@
         <v>14.857142857142858</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A198" s="1">
         <v>44096</v>
       </c>
@@ -5401,7 +5401,7 @@
         <v>13.571428571428571</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A199" s="1">
         <v>44097</v>
       </c>
@@ -5424,7 +5424,7 @@
         <v>12.428571428571429</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A200" s="1">
         <v>44098</v>
       </c>
@@ -5447,7 +5447,7 @@
         <v>12.285714285714286</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A201" s="1">
         <v>44099</v>
       </c>
@@ -5470,7 +5470,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A202" s="1">
         <v>44100</v>
       </c>
@@ -5493,7 +5493,7 @@
         <v>14.428571428571429</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A203" s="1">
         <v>44101</v>
       </c>
@@ -5516,7 +5516,7 @@
         <v>14.285714285714286</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A204" s="1">
         <v>44102</v>
       </c>
@@ -5539,7 +5539,7 @@
         <v>14.571428571428571</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A205" s="1">
         <v>44103</v>
       </c>
@@ -5562,7 +5562,7 @@
         <v>15.714285714285714</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A206" s="1">
         <v>44104</v>
       </c>
@@ -5585,7 +5585,7 @@
         <v>16.285714285714285</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A207" s="1">
         <v>44105</v>
       </c>
@@ -5608,7 +5608,7 @@
         <v>16.428571428571427</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A208" s="1">
         <v>44106</v>
       </c>
@@ -5631,7 +5631,7 @@
         <v>16.142857142857142</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A209" s="1">
         <v>44107</v>
       </c>
@@ -5654,7 +5654,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A210" s="1">
         <v>44108</v>
       </c>
@@ -5677,7 +5677,7 @@
         <v>15.142857142857142</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A211" s="1">
         <v>44109</v>
       </c>
@@ -5700,7 +5700,7 @@
         <v>13.857142857142858</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A212" s="1">
         <v>44110</v>
       </c>
@@ -5723,7 +5723,7 @@
         <v>12.857142857142858</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A213" s="1">
         <v>44111</v>
       </c>
@@ -5746,7 +5746,7 @@
         <v>12.714285714285714</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A214" s="1">
         <v>44112</v>
       </c>
@@ -5769,7 +5769,7 @@
         <v>12.714285714285714</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A215" s="1">
         <v>44113</v>
       </c>
@@ -5792,7 +5792,7 @@
         <v>12.571428571428571</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A216" s="1">
         <v>44114</v>
       </c>
@@ -5815,7 +5815,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A217" s="1">
         <v>44115</v>
       </c>
@@ -5838,7 +5838,7 @@
         <v>13.285714285714286</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A218" s="1">
         <v>44116</v>
       </c>
@@ -5861,7 +5861,7 @@
         <v>15.428571428571429</v>
       </c>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A219" s="1">
         <v>44117</v>
       </c>
@@ -5884,7 +5884,7 @@
         <v>16.714285714285715</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A220" s="1">
         <v>44118</v>
       </c>
@@ -5907,7 +5907,7 @@
         <v>17.857142857142858</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A221" s="1">
         <v>44119</v>
       </c>
@@ -5930,7 +5930,7 @@
         <v>18.285714285714285</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A222" s="1">
         <v>44120</v>
       </c>
@@ -5953,7 +5953,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A223" s="1">
         <v>44121</v>
       </c>
@@ -5976,7 +5976,7 @@
         <v>19.428571428571427</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A224" s="1">
         <v>44122</v>
       </c>
@@ -5999,7 +5999,7 @@
         <v>17.857142857142858</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A225" s="1">
         <v>44123</v>
       </c>
@@ -6022,7 +6022,7 @@
         <v>17.428571428571427</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A226" s="1">
         <v>44124</v>
       </c>
@@ -6045,7 +6045,7 @@
         <v>18.571428571428573</v>
       </c>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A227" s="1">
         <v>44125</v>
       </c>
@@ -6068,7 +6068,7 @@
         <v>17.428571428571427</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A228" s="1">
         <v>44126</v>
       </c>
@@ -6091,7 +6091,7 @@
         <v>17.285714285714285</v>
       </c>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A229" s="1">
         <v>44127</v>
       </c>
@@ -6114,7 +6114,7 @@
         <v>17.571428571428573</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A230" s="1">
         <v>44128</v>
       </c>
@@ -6137,7 +6137,7 @@
         <v>18.428571428571427</v>
       </c>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A231" s="1">
         <v>44129</v>
       </c>
@@ -6160,7 +6160,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A232" s="1">
         <v>44130</v>
       </c>
@@ -6183,7 +6183,7 @@
         <v>20.571428571428573</v>
       </c>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A233" s="1">
         <v>44131</v>
       </c>
@@ -6206,7 +6206,7 @@
         <v>20.285714285714285</v>
       </c>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A234" s="1">
         <v>44132</v>
       </c>
@@ -6229,7 +6229,7 @@
         <v>20.714285714285715</v>
       </c>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A235" s="1">
         <v>44133</v>
       </c>
@@ -6252,7 +6252,7 @@
         <v>21.142857142857142</v>
       </c>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A236" s="1">
         <v>44134</v>
       </c>
@@ -6275,7 +6275,7 @@
         <v>20.857142857142858</v>
       </c>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A237" s="1">
         <v>44135</v>
       </c>
@@ -6298,7 +6298,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A238" s="1">
         <v>44136</v>
       </c>
@@ -6321,7 +6321,7 @@
         <v>19.428571428571427</v>
       </c>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A239" s="1">
         <v>44137</v>
       </c>
@@ -6344,7 +6344,7 @@
         <v>19.142857142857142</v>
       </c>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A240" s="1">
         <v>44138</v>
       </c>
@@ -6367,7 +6367,7 @@
         <v>18.428571428571427</v>
       </c>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A241" s="1">
         <v>44139</v>
       </c>
@@ -6390,7 +6390,7 @@
         <v>19.857142857142858</v>
       </c>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A242" s="1">
         <v>44140</v>
       </c>
@@ -6413,7 +6413,7 @@
         <v>20.571428571428573</v>
       </c>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A243" s="1">
         <v>44141</v>
       </c>
@@ -6436,7 +6436,7 @@
         <v>19.714285714285715</v>
       </c>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A244" s="1">
         <v>44142</v>
       </c>
@@ -6459,7 +6459,7 @@
         <v>21.714285714285715</v>
       </c>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A245" s="1">
         <v>44143</v>
       </c>
@@ -6482,7 +6482,7 @@
         <v>21.714285714285715</v>
       </c>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A246" s="1">
         <v>44144</v>
       </c>
@@ -6505,7 +6505,7 @@
         <v>21.714285714285715</v>
       </c>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A247" s="1">
         <v>44145</v>
       </c>
@@ -6528,7 +6528,7 @@
         <v>22.857142857142858</v>
       </c>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A248" s="1">
         <v>44146</v>
       </c>
@@ -6551,7 +6551,7 @@
         <v>23.142857142857142</v>
       </c>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A249" s="1">
         <v>44147</v>
       </c>
@@ -6574,7 +6574,7 @@
         <v>23.142857142857142</v>
       </c>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A250" s="1">
         <v>44148</v>
       </c>
@@ -6597,7 +6597,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A251" s="1">
         <v>44149</v>
       </c>
@@ -6620,7 +6620,7 @@
         <v>24.142857142857142</v>
       </c>
     </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A252" s="1">
         <v>44150</v>
       </c>
@@ -6643,7 +6643,7 @@
         <v>25.714285714285715</v>
       </c>
     </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A253" s="1">
         <v>44151</v>
       </c>
@@ -6666,7 +6666,7 @@
         <v>26.428571428571427</v>
       </c>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A254" s="1">
         <v>44152</v>
       </c>
@@ -6689,7 +6689,7 @@
         <v>26.428571428571427</v>
       </c>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A255" s="1">
         <v>44153</v>
       </c>
@@ -6712,7 +6712,7 @@
         <v>25.714285714285715</v>
       </c>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A256" s="1">
         <v>44154</v>
       </c>
@@ -6735,7 +6735,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A257" s="1">
         <v>44155</v>
       </c>
@@ -6758,7 +6758,7 @@
         <v>26.714285714285715</v>
       </c>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A258" s="1">
         <v>44156</v>
       </c>
@@ -6781,7 +6781,7 @@
         <v>26.714285714285715</v>
       </c>
     </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A259" s="1">
         <v>44157</v>
       </c>
@@ -6804,7 +6804,7 @@
         <v>26.428571428571427</v>
       </c>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A260" s="1">
         <v>44158</v>
       </c>
@@ -6827,7 +6827,7 @@
         <v>27.285714285714285</v>
       </c>
     </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A261" s="1">
         <v>44159</v>
       </c>
@@ -6850,7 +6850,7 @@
         <v>27.714285714285715</v>
       </c>
     </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A262" s="1">
         <v>44160</v>
       </c>
@@ -6873,7 +6873,7 @@
         <v>28.142857142857142</v>
       </c>
     </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A263" s="1">
         <v>44161</v>
       </c>
@@ -6896,7 +6896,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A264" s="1">
         <v>44162</v>
       </c>
@@ -6919,30 +6919,30 @@
         <v>30</v>
       </c>
     </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A265" s="1">
         <v>44163</v>
       </c>
       <c r="B265">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C265">
         <f t="shared" si="9"/>
-        <v>10534</v>
+        <v>10536</v>
       </c>
       <c r="D265">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E265">
         <f t="shared" si="20"/>
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F265">
         <f t="shared" si="21"/>
-        <v>31.714285714285715</v>
-      </c>
-    </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A266" s="1">
         <v>44164</v>
       </c>
@@ -6951,64 +6951,87 @@
       </c>
       <c r="C266">
         <f t="shared" si="9"/>
-        <v>10561</v>
+        <v>10563</v>
       </c>
       <c r="D266">
         <v>0</v>
       </c>
       <c r="E266">
         <f t="shared" si="20"/>
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F266">
         <f t="shared" ref="F266" si="22">AVERAGE(B260:B266)</f>
-        <v>31.428571428571427</v>
-      </c>
-    </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.35">
+        <v>31.714285714285715</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A267" s="1">
         <v>44165</v>
       </c>
       <c r="B267">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C267">
         <f t="shared" si="9"/>
-        <v>10598</v>
+        <v>10602</v>
       </c>
       <c r="D267">
         <v>0</v>
       </c>
       <c r="E267">
         <f t="shared" si="20"/>
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F267">
         <f t="shared" ref="F267" si="23">AVERAGE(B261:B267)</f>
-        <v>31.714285714285715</v>
-      </c>
-    </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.35">
+        <v>32.285714285714285</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A268" s="1">
         <v>44166</v>
       </c>
       <c r="B268">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="C268">
         <f t="shared" si="9"/>
-        <v>10623</v>
+        <v>10645</v>
       </c>
       <c r="D268">
         <v>0</v>
       </c>
       <c r="E268">
         <f t="shared" ref="E268" si="24">D268+E267</f>
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F268">
         <f t="shared" ref="F268" si="25">AVERAGE(B262:B268)</f>
-        <v>31.428571428571427</v>
+        <v>34.571428571428569</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A269" s="1">
+        <v>44167</v>
+      </c>
+      <c r="B269">
+        <v>16</v>
+      </c>
+      <c r="C269">
+        <f t="shared" si="9"/>
+        <v>10661</v>
+      </c>
+      <c r="D269">
+        <v>0</v>
+      </c>
+      <c r="E269">
+        <f t="shared" ref="E269" si="26">D269+E268</f>
+        <v>235</v>
+      </c>
+      <c r="F269">
+        <f t="shared" ref="F269" si="27">AVERAGE(B263:B269)</f>
+        <v>32.714285714285715</v>
       </c>
     </row>
   </sheetData>
@@ -7017,6 +7040,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008004546134034441816F24C41F65E929" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c3392cbe151f976ef883c2eee1f53348">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0967b7be50301903c78f9c39c6fd9af8">
     <xsd:element name="properties">
@@ -7130,7 +7159,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -7139,13 +7168,16 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1A2B3F87-A9AF-4074-B361-AD2BB674E9B4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D515663D-8DD7-4DC5-AB14-871AB41C18CB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7161,19 +7193,10 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74AA8ED6-45B0-4A9E-9B31-0193ECD8C05A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1A2B3F87-A9AF-4074-B361-AD2BB674E9B4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/data/DateofDeath.xlsx
+++ b/data/DateofDeath.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\COVID-19 Data Visualization\COVID19 - Files\Power BI resources\CSV filesPROB4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{685A8D6C-5FD6-428F-8762-5833B3A2836F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C84F8F8-05FF-4AC1-9F1C-ED97FB6BF803}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DateofDeath" sheetId="1" r:id="rId1"/>
@@ -20,10 +20,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -890,25 +887,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F269"/>
+  <dimension ref="A1:F270"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B245" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B254" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C274" sqref="C274"/>
+      <selection pane="bottomRight" activeCell="J268" sqref="J268"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.77734375" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -928,7 +925,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>43900</v>
       </c>
@@ -945,7 +942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>43901</v>
       </c>
@@ -964,7 +961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>43902</v>
       </c>
@@ -983,7 +980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>43903</v>
       </c>
@@ -1002,7 +999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>43904</v>
       </c>
@@ -1021,7 +1018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>43905</v>
       </c>
@@ -1040,7 +1037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>43906</v>
       </c>
@@ -1059,7 +1056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>43907</v>
       </c>
@@ -1078,7 +1075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>43908</v>
       </c>
@@ -1097,7 +1094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>43909</v>
       </c>
@@ -1116,7 +1113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>43910</v>
       </c>
@@ -1135,7 +1132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>43911</v>
       </c>
@@ -1154,7 +1151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>43912</v>
       </c>
@@ -1173,7 +1170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>43913</v>
       </c>
@@ -1192,7 +1189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>43914</v>
       </c>
@@ -1215,7 +1212,7 @@
         <v>3.7142857142857144</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>43915</v>
       </c>
@@ -1238,7 +1235,7 @@
         <v>4.4285714285714288</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>43916</v>
       </c>
@@ -1261,7 +1258,7 @@
         <v>5.5714285714285712</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>43917</v>
       </c>
@@ -1284,7 +1281,7 @@
         <v>7.4285714285714288</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>43918</v>
       </c>
@@ -1307,7 +1304,7 @@
         <v>9.2857142857142865</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>43919</v>
       </c>
@@ -1330,7 +1327,7 @@
         <v>12.285714285714286</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>43920</v>
       </c>
@@ -1353,7 +1350,7 @@
         <v>15.428571428571429</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>43921</v>
       </c>
@@ -1376,7 +1373,7 @@
         <v>18.142857142857142</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>43922</v>
       </c>
@@ -1399,7 +1396,7 @@
         <v>22.285714285714285</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>43923</v>
       </c>
@@ -1422,7 +1419,7 @@
         <v>26.857142857142858</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>43924</v>
       </c>
@@ -1445,7 +1442,7 @@
         <v>30.142857142857142</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>43925</v>
       </c>
@@ -1468,7 +1465,7 @@
         <v>33.428571428571431</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>43926</v>
       </c>
@@ -1491,7 +1488,7 @@
         <v>39.571428571428569</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>43927</v>
       </c>
@@ -1514,7 +1511,7 @@
         <v>46.857142857142854</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>43928</v>
       </c>
@@ -1537,7 +1534,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>43929</v>
       </c>
@@ -1560,7 +1557,7 @@
         <v>62.142857142857146</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>43930</v>
       </c>
@@ -1583,7 +1580,7 @@
         <v>72.428571428571431</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>43931</v>
       </c>
@@ -1606,7 +1603,7 @@
         <v>82.285714285714292</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>43932</v>
       </c>
@@ -1629,7 +1626,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>43933</v>
       </c>
@@ -1652,7 +1649,7 @@
         <v>100.57142857142857</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>43934</v>
       </c>
@@ -1675,7 +1672,7 @@
         <v>112.42857142857143</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>43935</v>
       </c>
@@ -1698,7 +1695,7 @@
         <v>119.71428571428571</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>43936</v>
       </c>
@@ -1721,7 +1718,7 @@
         <v>130.85714285714286</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>43937</v>
       </c>
@@ -1744,7 +1741,7 @@
         <v>139.57142857142858</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>43938</v>
       </c>
@@ -1767,7 +1764,7 @@
         <v>148.14285714285714</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>43939</v>
       </c>
@@ -1790,7 +1787,7 @@
         <v>155.42857142857142</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>43940</v>
       </c>
@@ -1813,7 +1810,7 @@
         <v>164.57142857142858</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>43941</v>
       </c>
@@ -1836,7 +1833,7 @@
         <v>166.14285714285714</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>43942</v>
       </c>
@@ -1859,7 +1856,7 @@
         <v>171.57142857142858</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43943</v>
       </c>
@@ -1882,7 +1879,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>43944</v>
       </c>
@@ -1905,7 +1902,7 @@
         <v>170.28571428571428</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>43945</v>
       </c>
@@ -1928,7 +1925,7 @@
         <v>174.57142857142858</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>43946</v>
       </c>
@@ -1951,7 +1948,7 @@
         <v>171.71428571428572</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>43947</v>
       </c>
@@ -1974,7 +1971,7 @@
         <v>167.85714285714286</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>43948</v>
       </c>
@@ -1997,7 +1994,7 @@
         <v>165.57142857142858</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>43949</v>
       </c>
@@ -2020,7 +2017,7 @@
         <v>162.85714285714286</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>43950</v>
       </c>
@@ -2043,7 +2040,7 @@
         <v>164.42857142857142</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>43951</v>
       </c>
@@ -2066,7 +2063,7 @@
         <v>157.71428571428572</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>43952</v>
       </c>
@@ -2089,7 +2086,7 @@
         <v>154.71428571428572</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>43953</v>
       </c>
@@ -2112,7 +2109,7 @@
         <v>153.71428571428572</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>43954</v>
       </c>
@@ -2135,7 +2132,7 @@
         <v>151.71428571428572</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>43955</v>
       </c>
@@ -2158,7 +2155,7 @@
         <v>148.57142857142858</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>43956</v>
       </c>
@@ -2181,7 +2178,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>43957</v>
       </c>
@@ -2204,7 +2201,7 @@
         <v>144.28571428571428</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>43958</v>
       </c>
@@ -2227,7 +2224,7 @@
         <v>142.42857142857142</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>43959</v>
       </c>
@@ -2250,7 +2247,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>43960</v>
       </c>
@@ -2273,7 +2270,7 @@
         <v>127.42857142857143</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>43961</v>
       </c>
@@ -2296,7 +2293,7 @@
         <v>125.85714285714286</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>43962</v>
       </c>
@@ -2319,7 +2316,7 @@
         <v>124.71428571428571</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>43963</v>
       </c>
@@ -2342,7 +2339,7 @@
         <v>121.14285714285714</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>43964</v>
       </c>
@@ -2365,7 +2362,7 @@
         <v>117.85714285714286</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>43965</v>
       </c>
@@ -2388,7 +2385,7 @@
         <v>113.57142857142857</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>43966</v>
       </c>
@@ -2411,7 +2408,7 @@
         <v>114.85714285714286</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>43967</v>
       </c>
@@ -2434,7 +2431,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>43968</v>
       </c>
@@ -2457,7 +2454,7 @@
         <v>105.85714285714286</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>43969</v>
       </c>
@@ -2480,7 +2477,7 @@
         <v>101.42857142857143</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>43970</v>
       </c>
@@ -2503,7 +2500,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>43971</v>
       </c>
@@ -2526,7 +2523,7 @@
         <v>91.571428571428569</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>43972</v>
       </c>
@@ -2549,7 +2546,7 @@
         <v>86.857142857142861</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>43973</v>
       </c>
@@ -2572,7 +2569,7 @@
         <v>81.571428571428569</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>43974</v>
       </c>
@@ -2595,7 +2592,7 @@
         <v>79.571428571428569</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>43975</v>
       </c>
@@ -2618,7 +2615,7 @@
         <v>76.285714285714292</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>43976</v>
       </c>
@@ -2641,7 +2638,7 @@
         <v>71.857142857142861</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>43977</v>
       </c>
@@ -2664,7 +2661,7 @@
         <v>71.714285714285708</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>43978</v>
       </c>
@@ -2687,7 +2684,7 @@
         <v>68.857142857142861</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>43979</v>
       </c>
@@ -2710,7 +2707,7 @@
         <v>66.857142857142861</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>43980</v>
       </c>
@@ -2733,7 +2730,7 @@
         <v>63.285714285714285</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>43981</v>
       </c>
@@ -2756,7 +2753,7 @@
         <v>61.142857142857146</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>43982</v>
       </c>
@@ -2779,7 +2776,7 @@
         <v>60.428571428571431</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>43983</v>
       </c>
@@ -2802,7 +2799,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>43984</v>
       </c>
@@ -2825,7 +2822,7 @@
         <v>52.857142857142854</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>43985</v>
       </c>
@@ -2848,7 +2845,7 @@
         <v>49.571428571428569</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>43986</v>
       </c>
@@ -2871,7 +2868,7 @@
         <v>48.285714285714285</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>43987</v>
       </c>
@@ -2894,7 +2891,7 @@
         <v>43.857142857142854</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>43988</v>
       </c>
@@ -2917,7 +2914,7 @@
         <v>42.142857142857146</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>43989</v>
       </c>
@@ -2940,7 +2937,7 @@
         <v>39.714285714285715</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>43990</v>
       </c>
@@ -2963,7 +2960,7 @@
         <v>40.285714285714285</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>43991</v>
       </c>
@@ -2986,7 +2983,7 @@
         <v>37.714285714285715</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>43992</v>
       </c>
@@ -3009,7 +3006,7 @@
         <v>36.857142857142854</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>43993</v>
       </c>
@@ -3032,7 +3029,7 @@
         <v>35.285714285714285</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>43994</v>
       </c>
@@ -3055,7 +3052,7 @@
         <v>37.142857142857146</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>43995</v>
       </c>
@@ -3078,7 +3075,7 @@
         <v>34.571428571428569</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>43996</v>
       </c>
@@ -3101,7 +3098,7 @@
         <v>33.571428571428569</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>43997</v>
       </c>
@@ -3124,7 +3121,7 @@
         <v>33.142857142857146</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>43998</v>
       </c>
@@ -3147,7 +3144,7 @@
         <v>30.714285714285715</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>43999</v>
       </c>
@@ -3170,7 +3167,7 @@
         <v>29.714285714285715</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>44000</v>
       </c>
@@ -3193,7 +3190,7 @@
         <v>28.285714285714285</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>44001</v>
       </c>
@@ -3216,7 +3213,7 @@
         <v>27.428571428571427</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>44002</v>
       </c>
@@ -3239,7 +3236,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>44003</v>
       </c>
@@ -3262,7 +3259,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>44004</v>
       </c>
@@ -3285,7 +3282,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>44005</v>
       </c>
@@ -3308,7 +3305,7 @@
         <v>25.857142857142858</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>44006</v>
       </c>
@@ -3331,7 +3328,7 @@
         <v>25.428571428571427</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>44007</v>
       </c>
@@ -3354,7 +3351,7 @@
         <v>24.714285714285715</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>44008</v>
       </c>
@@ -3377,7 +3374,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>44009</v>
       </c>
@@ -3400,7 +3397,7 @@
         <v>23.857142857142858</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>44010</v>
       </c>
@@ -3423,7 +3420,7 @@
         <v>22.285714285714285</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>44011</v>
       </c>
@@ -3446,7 +3443,7 @@
         <v>21.571428571428573</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>44012</v>
       </c>
@@ -3469,7 +3466,7 @@
         <v>19.571428571428573</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>44013</v>
       </c>
@@ -3492,7 +3489,7 @@
         <v>19.285714285714285</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>44014</v>
       </c>
@@ -3515,7 +3512,7 @@
         <v>19.571428571428573</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>44015</v>
       </c>
@@ -3538,7 +3535,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>44016</v>
       </c>
@@ -3561,7 +3558,7 @@
         <v>18.428571428571427</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>44017</v>
       </c>
@@ -3584,7 +3581,7 @@
         <v>18.142857142857142</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>44018</v>
       </c>
@@ -3607,7 +3604,7 @@
         <v>19.285714285714285</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>44019</v>
       </c>
@@ -3630,7 +3627,7 @@
         <v>19.857142857142858</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>44020</v>
       </c>
@@ -3653,7 +3650,7 @@
         <v>20.571428571428573</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>44021</v>
       </c>
@@ -3676,7 +3673,7 @@
         <v>20.142857142857142</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>44022</v>
       </c>
@@ -3699,7 +3696,7 @@
         <v>19.142857142857142</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>44023</v>
       </c>
@@ -3722,7 +3719,7 @@
         <v>18.142857142857142</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>44024</v>
       </c>
@@ -3745,7 +3742,7 @@
         <v>17.714285714285715</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>44025</v>
       </c>
@@ -3768,7 +3765,7 @@
         <v>16.571428571428573</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>44026</v>
       </c>
@@ -3791,7 +3788,7 @@
         <v>16.428571428571427</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>44027</v>
       </c>
@@ -3814,7 +3811,7 @@
         <v>14.142857142857142</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>44028</v>
       </c>
@@ -3837,7 +3834,7 @@
         <v>13.285714285714286</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>44029</v>
       </c>
@@ -3860,7 +3857,7 @@
         <v>14.142857142857142</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>44030</v>
       </c>
@@ -3883,7 +3880,7 @@
         <v>14.428571428571429</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>44031</v>
       </c>
@@ -3906,7 +3903,7 @@
         <v>14.285714285714286</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>44032</v>
       </c>
@@ -3929,7 +3926,7 @@
         <v>13.285714285714286</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>44033</v>
       </c>
@@ -3952,7 +3949,7 @@
         <v>13.142857142857142</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>44034</v>
       </c>
@@ -3975,7 +3972,7 @@
         <v>13.571428571428571</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>44035</v>
       </c>
@@ -3998,7 +3995,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>44036</v>
       </c>
@@ -4021,7 +4018,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>44037</v>
       </c>
@@ -4044,7 +4041,7 @@
         <v>15.142857142857142</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>44038</v>
       </c>
@@ -4067,7 +4064,7 @@
         <v>15.142857142857142</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>44039</v>
       </c>
@@ -4090,7 +4087,7 @@
         <v>16.142857142857142</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>44040</v>
       </c>
@@ -4113,7 +4110,7 @@
         <v>15.571428571428571</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>44041</v>
       </c>
@@ -4136,7 +4133,7 @@
         <v>15.428571428571429</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>44042</v>
       </c>
@@ -4159,7 +4156,7 @@
         <v>14.857142857142858</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>44043</v>
       </c>
@@ -4182,7 +4179,7 @@
         <v>13.714285714285714</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>44044</v>
       </c>
@@ -4205,7 +4202,7 @@
         <v>14.428571428571429</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>44045</v>
       </c>
@@ -4228,7 +4225,7 @@
         <v>13.857142857142858</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>44046</v>
       </c>
@@ -4251,7 +4248,7 @@
         <v>12.714285714285714</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>44047</v>
       </c>
@@ -4274,7 +4271,7 @@
         <v>12.857142857142858</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>44048</v>
       </c>
@@ -4297,7 +4294,7 @@
         <v>12.857142857142858</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>44049</v>
       </c>
@@ -4320,7 +4317,7 @@
         <v>13.571428571428571</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>44050</v>
       </c>
@@ -4343,7 +4340,7 @@
         <v>13.571428571428571</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>44051</v>
       </c>
@@ -4366,7 +4363,7 @@
         <v>12.714285714285714</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>44052</v>
       </c>
@@ -4389,7 +4386,7 @@
         <v>12.571428571428571</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>44053</v>
       </c>
@@ -4412,7 +4409,7 @@
         <v>13.428571428571429</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>44054</v>
       </c>
@@ -4435,7 +4432,7 @@
         <v>13.428571428571429</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>44055</v>
       </c>
@@ -4458,7 +4455,7 @@
         <v>14.285714285714286</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>44056</v>
       </c>
@@ -4481,7 +4478,7 @@
         <v>13.857142857142858</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>44057</v>
       </c>
@@ -4504,7 +4501,7 @@
         <v>13.714285714285714</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>44058</v>
       </c>
@@ -4527,7 +4524,7 @@
         <v>13.714285714285714</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>44059</v>
       </c>
@@ -4550,7 +4547,7 @@
         <v>14.285714285714286</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>44060</v>
       </c>
@@ -4573,7 +4570,7 @@
         <v>14.428571428571429</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>44061</v>
       </c>
@@ -4596,7 +4593,7 @@
         <v>14.142857142857142</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>44062</v>
       </c>
@@ -4619,7 +4616,7 @@
         <v>13.571428571428571</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>44063</v>
       </c>
@@ -4642,7 +4639,7 @@
         <v>14.142857142857142</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>44064</v>
       </c>
@@ -4665,7 +4662,7 @@
         <v>14.428571428571429</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>44065</v>
       </c>
@@ -4688,7 +4685,7 @@
         <v>14.857142857142858</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>44066</v>
       </c>
@@ -4711,7 +4708,7 @@
         <v>15.142857142857142</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>44067</v>
       </c>
@@ -4734,7 +4731,7 @@
         <v>15.285714285714286</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>44068</v>
       </c>
@@ -4757,7 +4754,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>44069</v>
       </c>
@@ -4780,7 +4777,7 @@
         <v>15.714285714285714</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>44070</v>
       </c>
@@ -4803,7 +4800,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>44071</v>
       </c>
@@ -4826,7 +4823,7 @@
         <v>14.857142857142858</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>44072</v>
       </c>
@@ -4849,7 +4846,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>44073</v>
       </c>
@@ -4872,7 +4869,7 @@
         <v>15.142857142857142</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>44074</v>
       </c>
@@ -4895,7 +4892,7 @@
         <v>14.571428571428571</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>44075</v>
       </c>
@@ -4918,7 +4915,7 @@
         <v>14.428571428571429</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>44076</v>
       </c>
@@ -4941,7 +4938,7 @@
         <v>14.857142857142858</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>44077</v>
       </c>
@@ -4964,7 +4961,7 @@
         <v>14.857142857142858</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>44078</v>
       </c>
@@ -4987,7 +4984,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>44079</v>
       </c>
@@ -5010,7 +5007,7 @@
         <v>13.285714285714286</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>44080</v>
       </c>
@@ -5033,7 +5030,7 @@
         <v>12.142857142857142</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>44081</v>
       </c>
@@ -5056,7 +5053,7 @@
         <v>11.571428571428571</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>44082</v>
       </c>
@@ -5079,7 +5076,7 @@
         <v>11.285714285714286</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>44083</v>
       </c>
@@ -5102,7 +5099,7 @@
         <v>10.571428571428571</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>44084</v>
       </c>
@@ -5125,7 +5122,7 @@
         <v>11.857142857142858</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>44085</v>
       </c>
@@ -5148,7 +5145,7 @@
         <v>12.285714285714286</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>44086</v>
       </c>
@@ -5171,7 +5168,7 @@
         <v>11.714285714285714</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>44087</v>
       </c>
@@ -5194,7 +5191,7 @@
         <v>12.142857142857142</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>44088</v>
       </c>
@@ -5217,7 +5214,7 @@
         <v>13.285714285714286</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>44089</v>
       </c>
@@ -5240,7 +5237,7 @@
         <v>13.285714285714286</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>44090</v>
       </c>
@@ -5263,7 +5260,7 @@
         <v>14.571428571428571</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>44091</v>
       </c>
@@ -5286,7 +5283,7 @@
         <v>13.714285714285714</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>44092</v>
       </c>
@@ -5309,7 +5306,7 @@
         <v>13.714285714285714</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <v>44093</v>
       </c>
@@ -5332,7 +5329,7 @@
         <v>14.142857142857142</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <v>44094</v>
       </c>
@@ -5340,7 +5337,7 @@
         <v>15</v>
       </c>
       <c r="C196">
-        <f t="shared" ref="C196:C269" si="9">B196+C195</f>
+        <f t="shared" ref="C196:C270" si="9">B196+C195</f>
         <v>9124</v>
       </c>
       <c r="D196">
@@ -5355,7 +5352,7 @@
         <v>14.714285714285714</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>44095</v>
       </c>
@@ -5378,7 +5375,7 @@
         <v>14.857142857142858</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <v>44096</v>
       </c>
@@ -5401,7 +5398,7 @@
         <v>13.571428571428571</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <v>44097</v>
       </c>
@@ -5424,7 +5421,7 @@
         <v>12.428571428571429</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <v>44098</v>
       </c>
@@ -5447,7 +5444,7 @@
         <v>12.285714285714286</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <v>44099</v>
       </c>
@@ -5470,7 +5467,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
         <v>44100</v>
       </c>
@@ -5493,7 +5490,7 @@
         <v>14.428571428571429</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
         <v>44101</v>
       </c>
@@ -5516,7 +5513,7 @@
         <v>14.285714285714286</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
         <v>44102</v>
       </c>
@@ -5539,7 +5536,7 @@
         <v>14.571428571428571</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
         <v>44103</v>
       </c>
@@ -5562,7 +5559,7 @@
         <v>15.714285714285714</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
         <v>44104</v>
       </c>
@@ -5585,7 +5582,7 @@
         <v>16.285714285714285</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
         <v>44105</v>
       </c>
@@ -5608,7 +5605,7 @@
         <v>16.428571428571427</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
         <v>44106</v>
       </c>
@@ -5631,7 +5628,7 @@
         <v>16.142857142857142</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
         <v>44107</v>
       </c>
@@ -5654,7 +5651,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
         <v>44108</v>
       </c>
@@ -5677,7 +5674,7 @@
         <v>15.142857142857142</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
         <v>44109</v>
       </c>
@@ -5700,7 +5697,7 @@
         <v>13.857142857142858</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
         <v>44110</v>
       </c>
@@ -5723,7 +5720,7 @@
         <v>12.857142857142858</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
         <v>44111</v>
       </c>
@@ -5746,7 +5743,7 @@
         <v>12.714285714285714</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
         <v>44112</v>
       </c>
@@ -5769,7 +5766,7 @@
         <v>12.714285714285714</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
         <v>44113</v>
       </c>
@@ -5792,7 +5789,7 @@
         <v>12.571428571428571</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
         <v>44114</v>
       </c>
@@ -5815,7 +5812,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
         <v>44115</v>
       </c>
@@ -5838,7 +5835,7 @@
         <v>13.285714285714286</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
         <v>44116</v>
       </c>
@@ -5861,7 +5858,7 @@
         <v>15.428571428571429</v>
       </c>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
         <v>44117</v>
       </c>
@@ -5884,7 +5881,7 @@
         <v>16.714285714285715</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
         <v>44118</v>
       </c>
@@ -5907,7 +5904,7 @@
         <v>17.857142857142858</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
         <v>44119</v>
       </c>
@@ -5930,7 +5927,7 @@
         <v>18.285714285714285</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
         <v>44120</v>
       </c>
@@ -5953,7 +5950,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
         <v>44121</v>
       </c>
@@ -5976,7 +5973,7 @@
         <v>19.428571428571427</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
         <v>44122</v>
       </c>
@@ -5999,7 +5996,7 @@
         <v>17.857142857142858</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
         <v>44123</v>
       </c>
@@ -6022,7 +6019,7 @@
         <v>17.428571428571427</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
         <v>44124</v>
       </c>
@@ -6045,7 +6042,7 @@
         <v>18.571428571428573</v>
       </c>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
         <v>44125</v>
       </c>
@@ -6068,7 +6065,7 @@
         <v>17.428571428571427</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
         <v>44126</v>
       </c>
@@ -6091,7 +6088,7 @@
         <v>17.285714285714285</v>
       </c>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
         <v>44127</v>
       </c>
@@ -6114,7 +6111,7 @@
         <v>17.571428571428573</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
         <v>44128</v>
       </c>
@@ -6137,7 +6134,7 @@
         <v>18.428571428571427</v>
       </c>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
         <v>44129</v>
       </c>
@@ -6160,7 +6157,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
         <v>44130</v>
       </c>
@@ -6183,7 +6180,7 @@
         <v>20.571428571428573</v>
       </c>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
         <v>44131</v>
       </c>
@@ -6206,7 +6203,7 @@
         <v>20.285714285714285</v>
       </c>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
         <v>44132</v>
       </c>
@@ -6229,7 +6226,7 @@
         <v>20.714285714285715</v>
       </c>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
         <v>44133</v>
       </c>
@@ -6252,7 +6249,7 @@
         <v>21.142857142857142</v>
       </c>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
         <v>44134</v>
       </c>
@@ -6275,7 +6272,7 @@
         <v>20.857142857142858</v>
       </c>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
         <v>44135</v>
       </c>
@@ -6298,7 +6295,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
         <v>44136</v>
       </c>
@@ -6321,7 +6318,7 @@
         <v>19.428571428571427</v>
       </c>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
         <v>44137</v>
       </c>
@@ -6344,7 +6341,7 @@
         <v>19.142857142857142</v>
       </c>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
         <v>44138</v>
       </c>
@@ -6367,7 +6364,7 @@
         <v>18.428571428571427</v>
       </c>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
         <v>44139</v>
       </c>
@@ -6390,7 +6387,7 @@
         <v>19.857142857142858</v>
       </c>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
         <v>44140</v>
       </c>
@@ -6413,7 +6410,7 @@
         <v>20.571428571428573</v>
       </c>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
         <v>44141</v>
       </c>
@@ -6436,7 +6433,7 @@
         <v>19.714285714285715</v>
       </c>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
         <v>44142</v>
       </c>
@@ -6459,7 +6456,7 @@
         <v>21.714285714285715</v>
       </c>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
         <v>44143</v>
       </c>
@@ -6482,7 +6479,7 @@
         <v>21.714285714285715</v>
       </c>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
         <v>44144</v>
       </c>
@@ -6505,7 +6502,7 @@
         <v>21.714285714285715</v>
       </c>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
         <v>44145</v>
       </c>
@@ -6528,7 +6525,7 @@
         <v>22.857142857142858</v>
       </c>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
         <v>44146</v>
       </c>
@@ -6551,7 +6548,7 @@
         <v>23.142857142857142</v>
       </c>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
         <v>44147</v>
       </c>
@@ -6574,7 +6571,7 @@
         <v>23.142857142857142</v>
       </c>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
         <v>44148</v>
       </c>
@@ -6597,7 +6594,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
         <v>44149</v>
       </c>
@@ -6620,7 +6617,7 @@
         <v>24.142857142857142</v>
       </c>
     </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
         <v>44150</v>
       </c>
@@ -6643,7 +6640,7 @@
         <v>25.714285714285715</v>
       </c>
     </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
         <v>44151</v>
       </c>
@@ -6666,7 +6663,7 @@
         <v>26.428571428571427</v>
       </c>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A254" s="1">
         <v>44152</v>
       </c>
@@ -6689,7 +6686,7 @@
         <v>26.428571428571427</v>
       </c>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A255" s="1">
         <v>44153</v>
       </c>
@@ -6712,7 +6709,7 @@
         <v>25.714285714285715</v>
       </c>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A256" s="1">
         <v>44154</v>
       </c>
@@ -6735,7 +6732,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A257" s="1">
         <v>44155</v>
       </c>
@@ -6758,7 +6755,7 @@
         <v>26.714285714285715</v>
       </c>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A258" s="1">
         <v>44156</v>
       </c>
@@ -6781,7 +6778,7 @@
         <v>26.714285714285715</v>
       </c>
     </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A259" s="1">
         <v>44157</v>
       </c>
@@ -6804,7 +6801,7 @@
         <v>26.428571428571427</v>
       </c>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A260" s="1">
         <v>44158</v>
       </c>
@@ -6827,7 +6824,7 @@
         <v>27.285714285714285</v>
       </c>
     </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A261" s="1">
         <v>44159</v>
       </c>
@@ -6850,7 +6847,7 @@
         <v>27.714285714285715</v>
       </c>
     </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A262" s="1">
         <v>44160</v>
       </c>
@@ -6873,7 +6870,7 @@
         <v>28.142857142857142</v>
       </c>
     </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A263" s="1">
         <v>44161</v>
       </c>
@@ -6896,7 +6893,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A264" s="1">
         <v>44162</v>
       </c>
@@ -6919,7 +6916,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A265" s="1">
         <v>44163</v>
       </c>
@@ -6942,7 +6939,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A266" s="1">
         <v>44164</v>
       </c>
@@ -6965,16 +6962,16 @@
         <v>31.714285714285715</v>
       </c>
     </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A267" s="1">
         <v>44165</v>
       </c>
       <c r="B267">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C267">
         <f t="shared" si="9"/>
-        <v>10602</v>
+        <v>10604</v>
       </c>
       <c r="D267">
         <v>0</v>
@@ -6985,19 +6982,19 @@
       </c>
       <c r="F267">
         <f t="shared" ref="F267" si="23">AVERAGE(B261:B267)</f>
-        <v>32.285714285714285</v>
-      </c>
-    </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.3">
+        <v>32.571428571428569</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A268" s="1">
         <v>44166</v>
       </c>
       <c r="B268">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C268">
         <f t="shared" si="9"/>
-        <v>10645</v>
+        <v>10648</v>
       </c>
       <c r="D268">
         <v>0</v>
@@ -7008,19 +7005,19 @@
       </c>
       <c r="F268">
         <f t="shared" ref="F268" si="25">AVERAGE(B262:B268)</f>
-        <v>34.571428571428569</v>
-      </c>
-    </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A269" s="1">
         <v>44167</v>
       </c>
       <c r="B269">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C269">
         <f t="shared" si="9"/>
-        <v>10661</v>
+        <v>10672</v>
       </c>
       <c r="D269">
         <v>0</v>
@@ -7031,7 +7028,30 @@
       </c>
       <c r="F269">
         <f t="shared" ref="F269" si="27">AVERAGE(B263:B269)</f>
-        <v>32.714285714285715</v>
+        <v>34.285714285714285</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A270" s="1">
+        <v>44168</v>
+      </c>
+      <c r="B270">
+        <v>29</v>
+      </c>
+      <c r="C270">
+        <f t="shared" si="9"/>
+        <v>10701</v>
+      </c>
+      <c r="D270">
+        <v>2</v>
+      </c>
+      <c r="E270">
+        <f t="shared" ref="E270" si="28">D270+E269</f>
+        <v>237</v>
+      </c>
+      <c r="F270">
+        <f t="shared" ref="F270" si="29">AVERAGE(B264:B270)</f>
+        <v>34.857142857142854</v>
       </c>
     </row>
   </sheetData>
@@ -7040,12 +7060,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008004546134034441816F24C41F65E929" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c3392cbe151f976ef883c2eee1f53348">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0967b7be50301903c78f9c39c6fd9af8">
     <xsd:element name="properties">
@@ -7159,6 +7173,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -7169,15 +7189,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1A2B3F87-A9AF-4074-B361-AD2BB674E9B4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D515663D-8DD7-4DC5-AB14-871AB41C18CB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7193,6 +7204,15 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1A2B3F87-A9AF-4074-B361-AD2BB674E9B4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74AA8ED6-45B0-4A9E-9B31-0193ECD8C05A}">
   <ds:schemaRefs>

--- a/data/DateofDeath.xlsx
+++ b/data/DateofDeath.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\COVID-19 Data Visualization\COVID19 - Files\Power BI resources\CSV filesPROB4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C84F8F8-05FF-4AC1-9F1C-ED97FB6BF803}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55909387-7112-49A1-BDF0-54A191BDFC09}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -887,13 +887,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F270"/>
+  <dimension ref="A1:F271"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B254" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B253" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J268" sqref="J268"/>
+      <selection pane="bottomRight" activeCell="L271" sqref="L271"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5337,7 +5337,7 @@
         <v>15</v>
       </c>
       <c r="C196">
-        <f t="shared" ref="C196:C270" si="9">B196+C195</f>
+        <f t="shared" ref="C196:C271" si="9">B196+C195</f>
         <v>9124</v>
       </c>
       <c r="D196">
@@ -6507,11 +6507,11 @@
         <v>44145</v>
       </c>
       <c r="B247">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C247">
         <f t="shared" si="9"/>
-        <v>10024</v>
+        <v>10025</v>
       </c>
       <c r="D247">
         <v>0</v>
@@ -6522,7 +6522,7 @@
       </c>
       <c r="F247">
         <f t="shared" si="16"/>
-        <v>22.857142857142858</v>
+        <v>23</v>
       </c>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.25">
@@ -6534,7 +6534,7 @@
       </c>
       <c r="C248">
         <f t="shared" si="9"/>
-        <v>10055</v>
+        <v>10056</v>
       </c>
       <c r="D248">
         <v>0</v>
@@ -6545,7 +6545,7 @@
       </c>
       <c r="F248">
         <f t="shared" si="16"/>
-        <v>23.142857142857142</v>
+        <v>23.285714285714285</v>
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.25">
@@ -6557,7 +6557,7 @@
       </c>
       <c r="C249">
         <f t="shared" si="9"/>
-        <v>10079</v>
+        <v>10080</v>
       </c>
       <c r="D249">
         <v>0</v>
@@ -6568,7 +6568,7 @@
       </c>
       <c r="F249">
         <f t="shared" si="16"/>
-        <v>23.142857142857142</v>
+        <v>23.285714285714285</v>
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.25">
@@ -6580,7 +6580,7 @@
       </c>
       <c r="C250">
         <f t="shared" si="9"/>
-        <v>10098</v>
+        <v>10099</v>
       </c>
       <c r="D250">
         <v>3</v>
@@ -6591,7 +6591,7 @@
       </c>
       <c r="F250">
         <f t="shared" si="16"/>
-        <v>24</v>
+        <v>24.142857142857142</v>
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.25">
@@ -6603,7 +6603,7 @@
       </c>
       <c r="C251">
         <f t="shared" si="9"/>
-        <v>10125</v>
+        <v>10126</v>
       </c>
       <c r="D251">
         <v>0</v>
@@ -6614,7 +6614,7 @@
       </c>
       <c r="F251">
         <f t="shared" si="16"/>
-        <v>24.142857142857142</v>
+        <v>24.285714285714285</v>
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.25">
@@ -6626,7 +6626,7 @@
       </c>
       <c r="C252">
         <f t="shared" si="9"/>
-        <v>10156</v>
+        <v>10157</v>
       </c>
       <c r="D252">
         <v>0</v>
@@ -6637,7 +6637,7 @@
       </c>
       <c r="F252">
         <f t="shared" si="16"/>
-        <v>25.714285714285715</v>
+        <v>25.857142857142858</v>
       </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.25">
@@ -6649,7 +6649,7 @@
       </c>
       <c r="C253">
         <f t="shared" si="9"/>
-        <v>10185</v>
+        <v>10186</v>
       </c>
       <c r="D253">
         <v>1</v>
@@ -6660,7 +6660,7 @@
       </c>
       <c r="F253">
         <f t="shared" si="16"/>
-        <v>26.428571428571427</v>
+        <v>26.571428571428573</v>
       </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.25">
@@ -6672,7 +6672,7 @@
       </c>
       <c r="C254">
         <f t="shared" si="9"/>
-        <v>10209</v>
+        <v>10210</v>
       </c>
       <c r="D254">
         <v>0</v>
@@ -6695,7 +6695,7 @@
       </c>
       <c r="C255">
         <f t="shared" si="9"/>
-        <v>10235</v>
+        <v>10236</v>
       </c>
       <c r="D255">
         <v>0</v>
@@ -6718,7 +6718,7 @@
       </c>
       <c r="C256">
         <f t="shared" si="9"/>
-        <v>10254</v>
+        <v>10255</v>
       </c>
       <c r="D256">
         <v>0</v>
@@ -6741,7 +6741,7 @@
       </c>
       <c r="C257">
         <f t="shared" si="9"/>
-        <v>10285</v>
+        <v>10286</v>
       </c>
       <c r="D257">
         <v>0</v>
@@ -6764,7 +6764,7 @@
       </c>
       <c r="C258">
         <f t="shared" si="9"/>
-        <v>10312</v>
+        <v>10313</v>
       </c>
       <c r="D258">
         <v>0</v>
@@ -6787,7 +6787,7 @@
       </c>
       <c r="C259">
         <f t="shared" si="9"/>
-        <v>10341</v>
+        <v>10342</v>
       </c>
       <c r="D259">
         <v>1</v>
@@ -6810,7 +6810,7 @@
       </c>
       <c r="C260">
         <f t="shared" si="9"/>
-        <v>10376</v>
+        <v>10377</v>
       </c>
       <c r="D260">
         <v>1</v>
@@ -6833,7 +6833,7 @@
       </c>
       <c r="C261">
         <f t="shared" si="9"/>
-        <v>10403</v>
+        <v>10404</v>
       </c>
       <c r="D261">
         <v>1</v>
@@ -6856,7 +6856,7 @@
       </c>
       <c r="C262">
         <f t="shared" si="9"/>
-        <v>10432</v>
+        <v>10433</v>
       </c>
       <c r="D262">
         <v>1</v>
@@ -6879,7 +6879,7 @@
       </c>
       <c r="C263">
         <f t="shared" si="9"/>
-        <v>10457</v>
+        <v>10458</v>
       </c>
       <c r="D263">
         <v>0</v>
@@ -6902,7 +6902,7 @@
       </c>
       <c r="C264">
         <f t="shared" si="9"/>
-        <v>10495</v>
+        <v>10496</v>
       </c>
       <c r="D264">
         <v>0</v>
@@ -6925,7 +6925,7 @@
       </c>
       <c r="C265">
         <f t="shared" si="9"/>
-        <v>10536</v>
+        <v>10537</v>
       </c>
       <c r="D265">
         <v>0</v>
@@ -6948,7 +6948,7 @@
       </c>
       <c r="C266">
         <f t="shared" si="9"/>
-        <v>10563</v>
+        <v>10564</v>
       </c>
       <c r="D266">
         <v>0</v>
@@ -6971,7 +6971,7 @@
       </c>
       <c r="C267">
         <f t="shared" si="9"/>
-        <v>10604</v>
+        <v>10605</v>
       </c>
       <c r="D267">
         <v>0</v>
@@ -6990,11 +6990,11 @@
         <v>44166</v>
       </c>
       <c r="B268">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C268">
         <f t="shared" si="9"/>
-        <v>10648</v>
+        <v>10651</v>
       </c>
       <c r="D268">
         <v>0</v>
@@ -7005,7 +7005,7 @@
       </c>
       <c r="F268">
         <f t="shared" ref="F268" si="25">AVERAGE(B262:B268)</f>
-        <v>35</v>
+        <v>35.285714285714285</v>
       </c>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.25">
@@ -7013,11 +7013,11 @@
         <v>44167</v>
       </c>
       <c r="B269">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="C269">
         <f t="shared" si="9"/>
-        <v>10672</v>
+        <v>10683</v>
       </c>
       <c r="D269">
         <v>0</v>
@@ -7028,7 +7028,7 @@
       </c>
       <c r="F269">
         <f t="shared" ref="F269" si="27">AVERAGE(B263:B269)</f>
-        <v>34.285714285714285</v>
+        <v>35.714285714285715</v>
       </c>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.25">
@@ -7036,22 +7036,45 @@
         <v>44168</v>
       </c>
       <c r="B270">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="C270">
         <f t="shared" si="9"/>
-        <v>10701</v>
+        <v>10724</v>
       </c>
       <c r="D270">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E270">
         <f t="shared" ref="E270" si="28">D270+E269</f>
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F270">
         <f t="shared" ref="F270" si="29">AVERAGE(B264:B270)</f>
-        <v>34.857142857142854</v>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A271" s="1">
+        <v>44169</v>
+      </c>
+      <c r="B271">
+        <v>24</v>
+      </c>
+      <c r="C271">
+        <f t="shared" si="9"/>
+        <v>10748</v>
+      </c>
+      <c r="D271">
+        <v>2</v>
+      </c>
+      <c r="E271">
+        <f t="shared" ref="E271" si="30">D271+E270</f>
+        <v>240</v>
+      </c>
+      <c r="F271">
+        <f t="shared" ref="F271" si="31">AVERAGE(B265:B271)</f>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -7174,18 +7197,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7205,18 +7228,18 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74AA8ED6-45B0-4A9E-9B31-0193ECD8C05A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1A2B3F87-A9AF-4074-B361-AD2BB674E9B4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74AA8ED6-45B0-4A9E-9B31-0193ECD8C05A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/data/DateofDeath.xlsx
+++ b/data/DateofDeath.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\COVID-19 Data Visualization\COVID19 - Files\Power BI resources\CSV filesPROB4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55909387-7112-49A1-BDF0-54A191BDFC09}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F24B43FA-29F6-41BE-8DC8-8DB6F0E262D7}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -887,13 +887,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F271"/>
+  <dimension ref="A1:F272"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B253" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B255" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L271" sqref="L271"/>
+      <selection pane="bottomRight" activeCell="J265" sqref="J265"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5337,7 +5337,7 @@
         <v>15</v>
       </c>
       <c r="C196">
-        <f t="shared" ref="C196:C271" si="9">B196+C195</f>
+        <f t="shared" ref="C196:C272" si="9">B196+C195</f>
         <v>9124</v>
       </c>
       <c r="D196">
@@ -7059,22 +7059,45 @@
         <v>44169</v>
       </c>
       <c r="B271">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="C271">
         <f t="shared" si="9"/>
-        <v>10748</v>
+        <v>10759</v>
       </c>
       <c r="D271">
         <v>2</v>
       </c>
       <c r="E271">
-        <f t="shared" ref="E271" si="30">D271+E270</f>
+        <f t="shared" ref="E271:E272" si="30">D271+E270</f>
         <v>240</v>
       </c>
       <c r="F271">
-        <f t="shared" ref="F271" si="31">AVERAGE(B265:B271)</f>
-        <v>36</v>
+        <f t="shared" ref="F271:F272" si="31">AVERAGE(B265:B271)</f>
+        <v>37.571428571428569</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A272" s="1">
+        <v>44170</v>
+      </c>
+      <c r="B272">
+        <v>19</v>
+      </c>
+      <c r="C272">
+        <f t="shared" si="9"/>
+        <v>10778</v>
+      </c>
+      <c r="D272">
+        <v>1</v>
+      </c>
+      <c r="E272">
+        <f t="shared" si="30"/>
+        <v>241</v>
+      </c>
+      <c r="F272">
+        <f t="shared" si="31"/>
+        <v>34.428571428571431</v>
       </c>
     </row>
   </sheetData>
@@ -7197,18 +7220,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7228,18 +7251,18 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74AA8ED6-45B0-4A9E-9B31-0193ECD8C05A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1A2B3F87-A9AF-4074-B361-AD2BB674E9B4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74AA8ED6-45B0-4A9E-9B31-0193ECD8C05A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/data/DateofDeath.xlsx
+++ b/data/DateofDeath.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\COVID-19 Data Visualization\COVID19 - Files\Power BI resources\CSV filesPROB4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F24B43FA-29F6-41BE-8DC8-8DB6F0E262D7}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{373F9349-98BA-4B4A-98EE-6730529F13D7}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -887,13 +887,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F272"/>
+  <dimension ref="A1:F273"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B255" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B261" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J265" sqref="J265"/>
+      <selection pane="bottomRight" activeCell="M275" sqref="M275"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5337,7 +5337,7 @@
         <v>15</v>
       </c>
       <c r="C196">
-        <f t="shared" ref="C196:C272" si="9">B196+C195</f>
+        <f t="shared" ref="C196:C273" si="9">B196+C195</f>
         <v>9124</v>
       </c>
       <c r="D196">
@@ -7013,11 +7013,11 @@
         <v>44167</v>
       </c>
       <c r="B269">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C269">
         <f t="shared" si="9"/>
-        <v>10683</v>
+        <v>10684</v>
       </c>
       <c r="D269">
         <v>0</v>
@@ -7028,7 +7028,7 @@
       </c>
       <c r="F269">
         <f t="shared" ref="F269" si="27">AVERAGE(B263:B269)</f>
-        <v>35.714285714285715</v>
+        <v>35.857142857142854</v>
       </c>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.25">
@@ -7040,7 +7040,7 @@
       </c>
       <c r="C270">
         <f t="shared" si="9"/>
-        <v>10724</v>
+        <v>10725</v>
       </c>
       <c r="D270">
         <v>3</v>
@@ -7051,7 +7051,7 @@
       </c>
       <c r="F270">
         <f t="shared" ref="F270" si="29">AVERAGE(B264:B270)</f>
-        <v>38</v>
+        <v>38.142857142857146</v>
       </c>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.25">
@@ -7059,22 +7059,22 @@
         <v>44169</v>
       </c>
       <c r="B271">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C271">
         <f t="shared" si="9"/>
-        <v>10759</v>
+        <v>10762</v>
       </c>
       <c r="D271">
         <v>2</v>
       </c>
       <c r="E271">
-        <f t="shared" ref="E271:E272" si="30">D271+E270</f>
+        <f t="shared" ref="E271:E273" si="30">D271+E270</f>
         <v>240</v>
       </c>
       <c r="F271">
-        <f t="shared" ref="F271:F272" si="31">AVERAGE(B265:B271)</f>
-        <v>37.571428571428569</v>
+        <f t="shared" ref="F271:F273" si="31">AVERAGE(B265:B271)</f>
+        <v>38</v>
       </c>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.25">
@@ -7082,22 +7082,45 @@
         <v>44170</v>
       </c>
       <c r="B272">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="C272">
         <f t="shared" si="9"/>
-        <v>10778</v>
+        <v>10795</v>
       </c>
       <c r="D272">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E272">
         <f t="shared" si="30"/>
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F272">
         <f t="shared" si="31"/>
-        <v>34.428571428571431</v>
+        <v>36.857142857142854</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A273" s="1">
+        <v>44171</v>
+      </c>
+      <c r="B273">
+        <v>19</v>
+      </c>
+      <c r="C273">
+        <f t="shared" si="9"/>
+        <v>10814</v>
+      </c>
+      <c r="D273">
+        <v>0</v>
+      </c>
+      <c r="E273">
+        <f t="shared" si="30"/>
+        <v>242</v>
+      </c>
+      <c r="F273">
+        <f t="shared" si="31"/>
+        <v>35.714285714285715</v>
       </c>
     </row>
   </sheetData>
@@ -7220,18 +7243,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7251,18 +7274,18 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74AA8ED6-45B0-4A9E-9B31-0193ECD8C05A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1A2B3F87-A9AF-4074-B361-AD2BB674E9B4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74AA8ED6-45B0-4A9E-9B31-0193ECD8C05A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/data/DateofDeath.xlsx
+++ b/data/DateofDeath.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\COVID-19 Data Visualization\COVID19 - Files\Power BI resources\CSV filesPROB4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{373F9349-98BA-4B4A-98EE-6730529F13D7}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55ECD9C3-1920-4C77-B850-DE97C5A678D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DateofDeath" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -887,25 +890,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F273"/>
+  <dimension ref="A1:F274"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B261" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B260" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M275" sqref="M275"/>
+      <selection pane="bottomRight" activeCell="D291" sqref="D291"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.7109375" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -925,7 +928,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>43900</v>
       </c>
@@ -942,7 +945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>43901</v>
       </c>
@@ -961,7 +964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>43902</v>
       </c>
@@ -980,7 +983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>43903</v>
       </c>
@@ -999,7 +1002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>43904</v>
       </c>
@@ -1018,7 +1021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>43905</v>
       </c>
@@ -1037,7 +1040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>43906</v>
       </c>
@@ -1056,7 +1059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>43907</v>
       </c>
@@ -1075,7 +1078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>43908</v>
       </c>
@@ -1094,7 +1097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>43909</v>
       </c>
@@ -1113,7 +1116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>43910</v>
       </c>
@@ -1132,7 +1135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>43911</v>
       </c>
@@ -1151,7 +1154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>43912</v>
       </c>
@@ -1170,7 +1173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>43913</v>
       </c>
@@ -1189,7 +1192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>43914</v>
       </c>
@@ -1212,7 +1215,7 @@
         <v>3.7142857142857144</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>43915</v>
       </c>
@@ -1235,7 +1238,7 @@
         <v>4.4285714285714288</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>43916</v>
       </c>
@@ -1258,7 +1261,7 @@
         <v>5.5714285714285712</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>43917</v>
       </c>
@@ -1281,7 +1284,7 @@
         <v>7.4285714285714288</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>43918</v>
       </c>
@@ -1304,7 +1307,7 @@
         <v>9.2857142857142865</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>43919</v>
       </c>
@@ -1327,7 +1330,7 @@
         <v>12.285714285714286</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>43920</v>
       </c>
@@ -1350,7 +1353,7 @@
         <v>15.428571428571429</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>43921</v>
       </c>
@@ -1373,7 +1376,7 @@
         <v>18.142857142857142</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>43922</v>
       </c>
@@ -1396,7 +1399,7 @@
         <v>22.285714285714285</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>43923</v>
       </c>
@@ -1419,7 +1422,7 @@
         <v>26.857142857142858</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>43924</v>
       </c>
@@ -1442,7 +1445,7 @@
         <v>30.142857142857142</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>43925</v>
       </c>
@@ -1465,7 +1468,7 @@
         <v>33.428571428571431</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>43926</v>
       </c>
@@ -1488,7 +1491,7 @@
         <v>39.571428571428569</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>43927</v>
       </c>
@@ -1511,7 +1514,7 @@
         <v>46.857142857142854</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>43928</v>
       </c>
@@ -1534,7 +1537,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>43929</v>
       </c>
@@ -1557,7 +1560,7 @@
         <v>62.142857142857146</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>43930</v>
       </c>
@@ -1580,7 +1583,7 @@
         <v>72.428571428571431</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>43931</v>
       </c>
@@ -1603,7 +1606,7 @@
         <v>82.285714285714292</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>43932</v>
       </c>
@@ -1626,7 +1629,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>43933</v>
       </c>
@@ -1649,7 +1652,7 @@
         <v>100.57142857142857</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>43934</v>
       </c>
@@ -1672,7 +1675,7 @@
         <v>112.42857142857143</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>43935</v>
       </c>
@@ -1695,7 +1698,7 @@
         <v>119.71428571428571</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>43936</v>
       </c>
@@ -1718,7 +1721,7 @@
         <v>130.85714285714286</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>43937</v>
       </c>
@@ -1741,7 +1744,7 @@
         <v>139.57142857142858</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>43938</v>
       </c>
@@ -1764,7 +1767,7 @@
         <v>148.14285714285714</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>43939</v>
       </c>
@@ -1787,7 +1790,7 @@
         <v>155.42857142857142</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>43940</v>
       </c>
@@ -1810,7 +1813,7 @@
         <v>164.57142857142858</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>43941</v>
       </c>
@@ -1833,7 +1836,7 @@
         <v>166.14285714285714</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>43942</v>
       </c>
@@ -1856,7 +1859,7 @@
         <v>171.57142857142858</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>43943</v>
       </c>
@@ -1879,7 +1882,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>43944</v>
       </c>
@@ -1902,7 +1905,7 @@
         <v>170.28571428571428</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>43945</v>
       </c>
@@ -1925,7 +1928,7 @@
         <v>174.57142857142858</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>43946</v>
       </c>
@@ -1948,7 +1951,7 @@
         <v>171.71428571428572</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>43947</v>
       </c>
@@ -1971,7 +1974,7 @@
         <v>167.85714285714286</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>43948</v>
       </c>
@@ -1994,7 +1997,7 @@
         <v>165.57142857142858</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>43949</v>
       </c>
@@ -2017,7 +2020,7 @@
         <v>162.85714285714286</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>43950</v>
       </c>
@@ -2040,7 +2043,7 @@
         <v>164.42857142857142</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>43951</v>
       </c>
@@ -2063,7 +2066,7 @@
         <v>157.71428571428572</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>43952</v>
       </c>
@@ -2086,7 +2089,7 @@
         <v>154.71428571428572</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>43953</v>
       </c>
@@ -2109,7 +2112,7 @@
         <v>153.71428571428572</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>43954</v>
       </c>
@@ -2132,7 +2135,7 @@
         <v>151.71428571428572</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>43955</v>
       </c>
@@ -2155,7 +2158,7 @@
         <v>148.57142857142858</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>43956</v>
       </c>
@@ -2178,7 +2181,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>43957</v>
       </c>
@@ -2201,7 +2204,7 @@
         <v>144.28571428571428</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>43958</v>
       </c>
@@ -2224,7 +2227,7 @@
         <v>142.42857142857142</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>43959</v>
       </c>
@@ -2247,7 +2250,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>43960</v>
       </c>
@@ -2270,7 +2273,7 @@
         <v>127.42857142857143</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>43961</v>
       </c>
@@ -2293,7 +2296,7 @@
         <v>125.85714285714286</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>43962</v>
       </c>
@@ -2316,7 +2319,7 @@
         <v>124.71428571428571</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>43963</v>
       </c>
@@ -2339,7 +2342,7 @@
         <v>121.14285714285714</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>43964</v>
       </c>
@@ -2362,7 +2365,7 @@
         <v>117.85714285714286</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>43965</v>
       </c>
@@ -2385,7 +2388,7 @@
         <v>113.57142857142857</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>43966</v>
       </c>
@@ -2408,7 +2411,7 @@
         <v>114.85714285714286</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>43967</v>
       </c>
@@ -2431,7 +2434,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>43968</v>
       </c>
@@ -2454,7 +2457,7 @@
         <v>105.85714285714286</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>43969</v>
       </c>
@@ -2477,7 +2480,7 @@
         <v>101.42857142857143</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>43970</v>
       </c>
@@ -2500,7 +2503,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>43971</v>
       </c>
@@ -2523,7 +2526,7 @@
         <v>91.571428571428569</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>43972</v>
       </c>
@@ -2546,7 +2549,7 @@
         <v>86.857142857142861</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>43973</v>
       </c>
@@ -2569,7 +2572,7 @@
         <v>81.571428571428569</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>43974</v>
       </c>
@@ -2592,7 +2595,7 @@
         <v>79.571428571428569</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>43975</v>
       </c>
@@ -2615,7 +2618,7 @@
         <v>76.285714285714292</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>43976</v>
       </c>
@@ -2638,7 +2641,7 @@
         <v>71.857142857142861</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>43977</v>
       </c>
@@ -2661,7 +2664,7 @@
         <v>71.714285714285708</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>43978</v>
       </c>
@@ -2684,7 +2687,7 @@
         <v>68.857142857142861</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>43979</v>
       </c>
@@ -2707,7 +2710,7 @@
         <v>66.857142857142861</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>43980</v>
       </c>
@@ -2730,7 +2733,7 @@
         <v>63.285714285714285</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>43981</v>
       </c>
@@ -2753,7 +2756,7 @@
         <v>61.142857142857146</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>43982</v>
       </c>
@@ -2776,7 +2779,7 @@
         <v>60.428571428571431</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>43983</v>
       </c>
@@ -2799,7 +2802,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>43984</v>
       </c>
@@ -2822,7 +2825,7 @@
         <v>52.857142857142854</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>43985</v>
       </c>
@@ -2845,7 +2848,7 @@
         <v>49.571428571428569</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>43986</v>
       </c>
@@ -2868,7 +2871,7 @@
         <v>48.285714285714285</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>43987</v>
       </c>
@@ -2891,7 +2894,7 @@
         <v>43.857142857142854</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>43988</v>
       </c>
@@ -2914,7 +2917,7 @@
         <v>42.142857142857146</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>43989</v>
       </c>
@@ -2937,7 +2940,7 @@
         <v>39.714285714285715</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>43990</v>
       </c>
@@ -2960,7 +2963,7 @@
         <v>40.285714285714285</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>43991</v>
       </c>
@@ -2983,7 +2986,7 @@
         <v>37.714285714285715</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>43992</v>
       </c>
@@ -3006,7 +3009,7 @@
         <v>36.857142857142854</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>43993</v>
       </c>
@@ -3029,7 +3032,7 @@
         <v>35.285714285714285</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>43994</v>
       </c>
@@ -3052,7 +3055,7 @@
         <v>37.142857142857146</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>43995</v>
       </c>
@@ -3075,7 +3078,7 @@
         <v>34.571428571428569</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>43996</v>
       </c>
@@ -3098,7 +3101,7 @@
         <v>33.571428571428569</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>43997</v>
       </c>
@@ -3121,7 +3124,7 @@
         <v>33.142857142857146</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>43998</v>
       </c>
@@ -3144,7 +3147,7 @@
         <v>30.714285714285715</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>43999</v>
       </c>
@@ -3167,7 +3170,7 @@
         <v>29.714285714285715</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>44000</v>
       </c>
@@ -3190,7 +3193,7 @@
         <v>28.285714285714285</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>44001</v>
       </c>
@@ -3213,7 +3216,7 @@
         <v>27.428571428571427</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>44002</v>
       </c>
@@ -3236,7 +3239,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>44003</v>
       </c>
@@ -3259,7 +3262,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>44004</v>
       </c>
@@ -3282,7 +3285,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>44005</v>
       </c>
@@ -3305,7 +3308,7 @@
         <v>25.857142857142858</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>44006</v>
       </c>
@@ -3328,7 +3331,7 @@
         <v>25.428571428571427</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>44007</v>
       </c>
@@ -3351,7 +3354,7 @@
         <v>24.714285714285715</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>44008</v>
       </c>
@@ -3374,7 +3377,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>44009</v>
       </c>
@@ -3397,7 +3400,7 @@
         <v>23.857142857142858</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>44010</v>
       </c>
@@ -3420,7 +3423,7 @@
         <v>22.285714285714285</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>44011</v>
       </c>
@@ -3443,7 +3446,7 @@
         <v>21.571428571428573</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>44012</v>
       </c>
@@ -3466,7 +3469,7 @@
         <v>19.571428571428573</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>44013</v>
       </c>
@@ -3489,7 +3492,7 @@
         <v>19.285714285714285</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>44014</v>
       </c>
@@ -3512,7 +3515,7 @@
         <v>19.571428571428573</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>44015</v>
       </c>
@@ -3535,7 +3538,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>44016</v>
       </c>
@@ -3558,7 +3561,7 @@
         <v>18.428571428571427</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>44017</v>
       </c>
@@ -3581,7 +3584,7 @@
         <v>18.142857142857142</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>44018</v>
       </c>
@@ -3604,7 +3607,7 @@
         <v>19.285714285714285</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>44019</v>
       </c>
@@ -3627,7 +3630,7 @@
         <v>19.857142857142858</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>44020</v>
       </c>
@@ -3650,7 +3653,7 @@
         <v>20.571428571428573</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>44021</v>
       </c>
@@ -3673,7 +3676,7 @@
         <v>20.142857142857142</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>44022</v>
       </c>
@@ -3696,7 +3699,7 @@
         <v>19.142857142857142</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>44023</v>
       </c>
@@ -3719,7 +3722,7 @@
         <v>18.142857142857142</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>44024</v>
       </c>
@@ -3742,7 +3745,7 @@
         <v>17.714285714285715</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>44025</v>
       </c>
@@ -3765,7 +3768,7 @@
         <v>16.571428571428573</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>44026</v>
       </c>
@@ -3788,7 +3791,7 @@
         <v>16.428571428571427</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>44027</v>
       </c>
@@ -3811,7 +3814,7 @@
         <v>14.142857142857142</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>44028</v>
       </c>
@@ -3834,7 +3837,7 @@
         <v>13.285714285714286</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>44029</v>
       </c>
@@ -3857,7 +3860,7 @@
         <v>14.142857142857142</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>44030</v>
       </c>
@@ -3880,7 +3883,7 @@
         <v>14.428571428571429</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>44031</v>
       </c>
@@ -3903,7 +3906,7 @@
         <v>14.285714285714286</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>44032</v>
       </c>
@@ -3926,7 +3929,7 @@
         <v>13.285714285714286</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>44033</v>
       </c>
@@ -3949,7 +3952,7 @@
         <v>13.142857142857142</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>44034</v>
       </c>
@@ -3972,7 +3975,7 @@
         <v>13.571428571428571</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>44035</v>
       </c>
@@ -3995,7 +3998,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>44036</v>
       </c>
@@ -4018,7 +4021,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>44037</v>
       </c>
@@ -4041,7 +4044,7 @@
         <v>15.142857142857142</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>44038</v>
       </c>
@@ -4064,7 +4067,7 @@
         <v>15.142857142857142</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>44039</v>
       </c>
@@ -4087,7 +4090,7 @@
         <v>16.142857142857142</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>44040</v>
       </c>
@@ -4110,7 +4113,7 @@
         <v>15.571428571428571</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>44041</v>
       </c>
@@ -4133,7 +4136,7 @@
         <v>15.428571428571429</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>44042</v>
       </c>
@@ -4156,7 +4159,7 @@
         <v>14.857142857142858</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>44043</v>
       </c>
@@ -4179,7 +4182,7 @@
         <v>13.714285714285714</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>44044</v>
       </c>
@@ -4202,7 +4205,7 @@
         <v>14.428571428571429</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>44045</v>
       </c>
@@ -4225,7 +4228,7 @@
         <v>13.857142857142858</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>44046</v>
       </c>
@@ -4248,7 +4251,7 @@
         <v>12.714285714285714</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>44047</v>
       </c>
@@ -4271,7 +4274,7 @@
         <v>12.857142857142858</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>44048</v>
       </c>
@@ -4294,7 +4297,7 @@
         <v>12.857142857142858</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>44049</v>
       </c>
@@ -4317,7 +4320,7 @@
         <v>13.571428571428571</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>44050</v>
       </c>
@@ -4340,7 +4343,7 @@
         <v>13.571428571428571</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>44051</v>
       </c>
@@ -4363,7 +4366,7 @@
         <v>12.714285714285714</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>44052</v>
       </c>
@@ -4386,7 +4389,7 @@
         <v>12.571428571428571</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>44053</v>
       </c>
@@ -4409,7 +4412,7 @@
         <v>13.428571428571429</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>44054</v>
       </c>
@@ -4432,7 +4435,7 @@
         <v>13.428571428571429</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>44055</v>
       </c>
@@ -4455,7 +4458,7 @@
         <v>14.285714285714286</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <v>44056</v>
       </c>
@@ -4478,7 +4481,7 @@
         <v>13.857142857142858</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <v>44057</v>
       </c>
@@ -4501,7 +4504,7 @@
         <v>13.714285714285714</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <v>44058</v>
       </c>
@@ -4524,7 +4527,7 @@
         <v>13.714285714285714</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <v>44059</v>
       </c>
@@ -4547,7 +4550,7 @@
         <v>14.285714285714286</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <v>44060</v>
       </c>
@@ -4570,7 +4573,7 @@
         <v>14.428571428571429</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <v>44061</v>
       </c>
@@ -4593,7 +4596,7 @@
         <v>14.142857142857142</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
         <v>44062</v>
       </c>
@@ -4616,7 +4619,7 @@
         <v>13.571428571428571</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <v>44063</v>
       </c>
@@ -4639,7 +4642,7 @@
         <v>14.142857142857142</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <v>44064</v>
       </c>
@@ -4662,7 +4665,7 @@
         <v>14.428571428571429</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
         <v>44065</v>
       </c>
@@ -4685,7 +4688,7 @@
         <v>14.857142857142858</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <v>44066</v>
       </c>
@@ -4708,7 +4711,7 @@
         <v>15.142857142857142</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <v>44067</v>
       </c>
@@ -4731,7 +4734,7 @@
         <v>15.285714285714286</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
         <v>44068</v>
       </c>
@@ -4754,7 +4757,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
         <v>44069</v>
       </c>
@@ -4777,7 +4780,7 @@
         <v>15.714285714285714</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <v>44070</v>
       </c>
@@ -4800,7 +4803,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <v>44071</v>
       </c>
@@ -4823,7 +4826,7 @@
         <v>14.857142857142858</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
         <v>44072</v>
       </c>
@@ -4846,7 +4849,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
         <v>44073</v>
       </c>
@@ -4869,7 +4872,7 @@
         <v>15.142857142857142</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
         <v>44074</v>
       </c>
@@ -4892,7 +4895,7 @@
         <v>14.571428571428571</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
         <v>44075</v>
       </c>
@@ -4915,7 +4918,7 @@
         <v>14.428571428571429</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
         <v>44076</v>
       </c>
@@ -4938,7 +4941,7 @@
         <v>14.857142857142858</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
         <v>44077</v>
       </c>
@@ -4961,7 +4964,7 @@
         <v>14.857142857142858</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
         <v>44078</v>
       </c>
@@ -4984,7 +4987,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
         <v>44079</v>
       </c>
@@ -5007,7 +5010,7 @@
         <v>13.285714285714286</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
         <v>44080</v>
       </c>
@@ -5030,7 +5033,7 @@
         <v>12.142857142857142</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
         <v>44081</v>
       </c>
@@ -5053,7 +5056,7 @@
         <v>11.571428571428571</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
         <v>44082</v>
       </c>
@@ -5076,7 +5079,7 @@
         <v>11.285714285714286</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
         <v>44083</v>
       </c>
@@ -5099,7 +5102,7 @@
         <v>10.571428571428571</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
         <v>44084</v>
       </c>
@@ -5122,7 +5125,7 @@
         <v>11.857142857142858</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
         <v>44085</v>
       </c>
@@ -5145,7 +5148,7 @@
         <v>12.285714285714286</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
         <v>44086</v>
       </c>
@@ -5168,7 +5171,7 @@
         <v>11.714285714285714</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
         <v>44087</v>
       </c>
@@ -5191,7 +5194,7 @@
         <v>12.142857142857142</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A190" s="1">
         <v>44088</v>
       </c>
@@ -5214,7 +5217,7 @@
         <v>13.285714285714286</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
         <v>44089</v>
       </c>
@@ -5237,7 +5240,7 @@
         <v>13.285714285714286</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
         <v>44090</v>
       </c>
@@ -5260,7 +5263,7 @@
         <v>14.571428571428571</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A193" s="1">
         <v>44091</v>
       </c>
@@ -5283,7 +5286,7 @@
         <v>13.714285714285714</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A194" s="1">
         <v>44092</v>
       </c>
@@ -5306,7 +5309,7 @@
         <v>13.714285714285714</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
         <v>44093</v>
       </c>
@@ -5329,7 +5332,7 @@
         <v>14.142857142857142</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A196" s="1">
         <v>44094</v>
       </c>
@@ -5337,7 +5340,7 @@
         <v>15</v>
       </c>
       <c r="C196">
-        <f t="shared" ref="C196:C273" si="9">B196+C195</f>
+        <f t="shared" ref="C196:C274" si="9">B196+C195</f>
         <v>9124</v>
       </c>
       <c r="D196">
@@ -5352,7 +5355,7 @@
         <v>14.714285714285714</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
         <v>44095</v>
       </c>
@@ -5375,7 +5378,7 @@
         <v>14.857142857142858</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A198" s="1">
         <v>44096</v>
       </c>
@@ -5398,7 +5401,7 @@
         <v>13.571428571428571</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A199" s="1">
         <v>44097</v>
       </c>
@@ -5421,7 +5424,7 @@
         <v>12.428571428571429</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A200" s="1">
         <v>44098</v>
       </c>
@@ -5444,7 +5447,7 @@
         <v>12.285714285714286</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A201" s="1">
         <v>44099</v>
       </c>
@@ -5467,7 +5470,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A202" s="1">
         <v>44100</v>
       </c>
@@ -5490,7 +5493,7 @@
         <v>14.428571428571429</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A203" s="1">
         <v>44101</v>
       </c>
@@ -5513,7 +5516,7 @@
         <v>14.285714285714286</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A204" s="1">
         <v>44102</v>
       </c>
@@ -5536,7 +5539,7 @@
         <v>14.571428571428571</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A205" s="1">
         <v>44103</v>
       </c>
@@ -5559,7 +5562,7 @@
         <v>15.714285714285714</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A206" s="1">
         <v>44104</v>
       </c>
@@ -5582,7 +5585,7 @@
         <v>16.285714285714285</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A207" s="1">
         <v>44105</v>
       </c>
@@ -5605,7 +5608,7 @@
         <v>16.428571428571427</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A208" s="1">
         <v>44106</v>
       </c>
@@ -5628,7 +5631,7 @@
         <v>16.142857142857142</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A209" s="1">
         <v>44107</v>
       </c>
@@ -5651,7 +5654,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A210" s="1">
         <v>44108</v>
       </c>
@@ -5674,7 +5677,7 @@
         <v>15.142857142857142</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A211" s="1">
         <v>44109</v>
       </c>
@@ -5697,7 +5700,7 @@
         <v>13.857142857142858</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A212" s="1">
         <v>44110</v>
       </c>
@@ -5720,7 +5723,7 @@
         <v>12.857142857142858</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A213" s="1">
         <v>44111</v>
       </c>
@@ -5743,7 +5746,7 @@
         <v>12.714285714285714</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A214" s="1">
         <v>44112</v>
       </c>
@@ -5766,7 +5769,7 @@
         <v>12.714285714285714</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A215" s="1">
         <v>44113</v>
       </c>
@@ -5789,7 +5792,7 @@
         <v>12.571428571428571</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A216" s="1">
         <v>44114</v>
       </c>
@@ -5812,7 +5815,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A217" s="1">
         <v>44115</v>
       </c>
@@ -5835,7 +5838,7 @@
         <v>13.285714285714286</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A218" s="1">
         <v>44116</v>
       </c>
@@ -5858,7 +5861,7 @@
         <v>15.428571428571429</v>
       </c>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A219" s="1">
         <v>44117</v>
       </c>
@@ -5881,7 +5884,7 @@
         <v>16.714285714285715</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A220" s="1">
         <v>44118</v>
       </c>
@@ -5904,7 +5907,7 @@
         <v>17.857142857142858</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A221" s="1">
         <v>44119</v>
       </c>
@@ -5927,7 +5930,7 @@
         <v>18.285714285714285</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A222" s="1">
         <v>44120</v>
       </c>
@@ -5950,7 +5953,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A223" s="1">
         <v>44121</v>
       </c>
@@ -5973,7 +5976,7 @@
         <v>19.428571428571427</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A224" s="1">
         <v>44122</v>
       </c>
@@ -5996,7 +5999,7 @@
         <v>17.857142857142858</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A225" s="1">
         <v>44123</v>
       </c>
@@ -6019,7 +6022,7 @@
         <v>17.428571428571427</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A226" s="1">
         <v>44124</v>
       </c>
@@ -6042,7 +6045,7 @@
         <v>18.571428571428573</v>
       </c>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A227" s="1">
         <v>44125</v>
       </c>
@@ -6065,7 +6068,7 @@
         <v>17.428571428571427</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A228" s="1">
         <v>44126</v>
       </c>
@@ -6088,7 +6091,7 @@
         <v>17.285714285714285</v>
       </c>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A229" s="1">
         <v>44127</v>
       </c>
@@ -6111,7 +6114,7 @@
         <v>17.571428571428573</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A230" s="1">
         <v>44128</v>
       </c>
@@ -6134,7 +6137,7 @@
         <v>18.428571428571427</v>
       </c>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A231" s="1">
         <v>44129</v>
       </c>
@@ -6157,7 +6160,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A232" s="1">
         <v>44130</v>
       </c>
@@ -6180,7 +6183,7 @@
         <v>20.571428571428573</v>
       </c>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A233" s="1">
         <v>44131</v>
       </c>
@@ -6203,7 +6206,7 @@
         <v>20.285714285714285</v>
       </c>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A234" s="1">
         <v>44132</v>
       </c>
@@ -6226,7 +6229,7 @@
         <v>20.714285714285715</v>
       </c>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A235" s="1">
         <v>44133</v>
       </c>
@@ -6249,7 +6252,7 @@
         <v>21.142857142857142</v>
       </c>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A236" s="1">
         <v>44134</v>
       </c>
@@ -6272,7 +6275,7 @@
         <v>20.857142857142858</v>
       </c>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A237" s="1">
         <v>44135</v>
       </c>
@@ -6295,7 +6298,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A238" s="1">
         <v>44136</v>
       </c>
@@ -6318,7 +6321,7 @@
         <v>19.428571428571427</v>
       </c>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A239" s="1">
         <v>44137</v>
       </c>
@@ -6341,7 +6344,7 @@
         <v>19.142857142857142</v>
       </c>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A240" s="1">
         <v>44138</v>
       </c>
@@ -6364,7 +6367,7 @@
         <v>18.428571428571427</v>
       </c>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A241" s="1">
         <v>44139</v>
       </c>
@@ -6387,7 +6390,7 @@
         <v>19.857142857142858</v>
       </c>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A242" s="1">
         <v>44140</v>
       </c>
@@ -6410,7 +6413,7 @@
         <v>20.571428571428573</v>
       </c>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A243" s="1">
         <v>44141</v>
       </c>
@@ -6433,7 +6436,7 @@
         <v>19.714285714285715</v>
       </c>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A244" s="1">
         <v>44142</v>
       </c>
@@ -6456,7 +6459,7 @@
         <v>21.714285714285715</v>
       </c>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A245" s="1">
         <v>44143</v>
       </c>
@@ -6479,7 +6482,7 @@
         <v>21.714285714285715</v>
       </c>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A246" s="1">
         <v>44144</v>
       </c>
@@ -6502,7 +6505,7 @@
         <v>21.714285714285715</v>
       </c>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A247" s="1">
         <v>44145</v>
       </c>
@@ -6525,7 +6528,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A248" s="1">
         <v>44146</v>
       </c>
@@ -6548,7 +6551,7 @@
         <v>23.285714285714285</v>
       </c>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A249" s="1">
         <v>44147</v>
       </c>
@@ -6571,7 +6574,7 @@
         <v>23.285714285714285</v>
       </c>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A250" s="1">
         <v>44148</v>
       </c>
@@ -6594,7 +6597,7 @@
         <v>24.142857142857142</v>
       </c>
     </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A251" s="1">
         <v>44149</v>
       </c>
@@ -6617,7 +6620,7 @@
         <v>24.285714285714285</v>
       </c>
     </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A252" s="1">
         <v>44150</v>
       </c>
@@ -6640,7 +6643,7 @@
         <v>25.857142857142858</v>
       </c>
     </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A253" s="1">
         <v>44151</v>
       </c>
@@ -6663,7 +6666,7 @@
         <v>26.571428571428573</v>
       </c>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A254" s="1">
         <v>44152</v>
       </c>
@@ -6686,7 +6689,7 @@
         <v>26.428571428571427</v>
       </c>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A255" s="1">
         <v>44153</v>
       </c>
@@ -6709,7 +6712,7 @@
         <v>25.714285714285715</v>
       </c>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A256" s="1">
         <v>44154</v>
       </c>
@@ -6732,7 +6735,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A257" s="1">
         <v>44155</v>
       </c>
@@ -6755,7 +6758,7 @@
         <v>26.714285714285715</v>
       </c>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A258" s="1">
         <v>44156</v>
       </c>
@@ -6778,7 +6781,7 @@
         <v>26.714285714285715</v>
       </c>
     </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A259" s="1">
         <v>44157</v>
       </c>
@@ -6801,7 +6804,7 @@
         <v>26.428571428571427</v>
       </c>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A260" s="1">
         <v>44158</v>
       </c>
@@ -6824,7 +6827,7 @@
         <v>27.285714285714285</v>
       </c>
     </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A261" s="1">
         <v>44159</v>
       </c>
@@ -6847,7 +6850,7 @@
         <v>27.714285714285715</v>
       </c>
     </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A262" s="1">
         <v>44160</v>
       </c>
@@ -6870,7 +6873,7 @@
         <v>28.142857142857142</v>
       </c>
     </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A263" s="1">
         <v>44161</v>
       </c>
@@ -6893,16 +6896,16 @@
         <v>29</v>
       </c>
     </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A264" s="1">
         <v>44162</v>
       </c>
       <c r="B264">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C264">
         <f t="shared" si="9"/>
-        <v>10496</v>
+        <v>10497</v>
       </c>
       <c r="D264">
         <v>0</v>
@@ -6913,10 +6916,10 @@
       </c>
       <c r="F264">
         <f t="shared" si="21"/>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
+        <v>30.142857142857142</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A265" s="1">
         <v>44163</v>
       </c>
@@ -6925,7 +6928,7 @@
       </c>
       <c r="C265">
         <f t="shared" si="9"/>
-        <v>10537</v>
+        <v>10538</v>
       </c>
       <c r="D265">
         <v>0</v>
@@ -6936,10 +6939,10 @@
       </c>
       <c r="F265">
         <f t="shared" si="21"/>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
+        <v>32.142857142857146</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A266" s="1">
         <v>44164</v>
       </c>
@@ -6948,7 +6951,7 @@
       </c>
       <c r="C266">
         <f t="shared" si="9"/>
-        <v>10564</v>
+        <v>10565</v>
       </c>
       <c r="D266">
         <v>0</v>
@@ -6959,10 +6962,10 @@
       </c>
       <c r="F266">
         <f t="shared" ref="F266" si="22">AVERAGE(B260:B266)</f>
-        <v>31.714285714285715</v>
-      </c>
-    </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
+        <v>31.857142857142858</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A267" s="1">
         <v>44165</v>
       </c>
@@ -6971,7 +6974,7 @@
       </c>
       <c r="C267">
         <f t="shared" si="9"/>
-        <v>10605</v>
+        <v>10606</v>
       </c>
       <c r="D267">
         <v>0</v>
@@ -6982,10 +6985,10 @@
       </c>
       <c r="F267">
         <f t="shared" ref="F267" si="23">AVERAGE(B261:B267)</f>
-        <v>32.571428571428569</v>
-      </c>
-    </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
+        <v>32.714285714285715</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A268" s="1">
         <v>44166</v>
       </c>
@@ -6994,7 +6997,7 @@
       </c>
       <c r="C268">
         <f t="shared" si="9"/>
-        <v>10651</v>
+        <v>10652</v>
       </c>
       <c r="D268">
         <v>0</v>
@@ -7005,10 +7008,10 @@
       </c>
       <c r="F268">
         <f t="shared" ref="F268" si="25">AVERAGE(B262:B268)</f>
-        <v>35.285714285714285</v>
-      </c>
-    </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
+        <v>35.428571428571431</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A269" s="1">
         <v>44167</v>
       </c>
@@ -7017,7 +7020,7 @@
       </c>
       <c r="C269">
         <f t="shared" si="9"/>
-        <v>10684</v>
+        <v>10685</v>
       </c>
       <c r="D269">
         <v>0</v>
@@ -7028,19 +7031,19 @@
       </c>
       <c r="F269">
         <f t="shared" ref="F269" si="27">AVERAGE(B263:B269)</f>
-        <v>35.857142857142854</v>
-      </c>
-    </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A270" s="1">
         <v>44168</v>
       </c>
       <c r="B270">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C270">
         <f t="shared" si="9"/>
-        <v>10725</v>
+        <v>10728</v>
       </c>
       <c r="D270">
         <v>3</v>
@@ -7051,42 +7054,42 @@
       </c>
       <c r="F270">
         <f t="shared" ref="F270" si="29">AVERAGE(B264:B270)</f>
-        <v>38.142857142857146</v>
-      </c>
-    </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
+        <v>38.571428571428569</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A271" s="1">
         <v>44169</v>
       </c>
       <c r="B271">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="C271">
         <f t="shared" si="9"/>
-        <v>10762</v>
+        <v>10775</v>
       </c>
       <c r="D271">
         <v>2</v>
       </c>
       <c r="E271">
-        <f t="shared" ref="E271:E273" si="30">D271+E270</f>
+        <f t="shared" ref="E271:E274" si="30">D271+E270</f>
         <v>240</v>
       </c>
       <c r="F271">
-        <f t="shared" ref="F271:F273" si="31">AVERAGE(B265:B271)</f>
-        <v>38</v>
-      </c>
-    </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" ref="F271:F274" si="31">AVERAGE(B265:B271)</f>
+        <v>39.714285714285715</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A272" s="1">
         <v>44170</v>
       </c>
       <c r="B272">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="C272">
         <f t="shared" si="9"/>
-        <v>10795</v>
+        <v>10816</v>
       </c>
       <c r="D272">
         <v>2</v>
@@ -7097,19 +7100,19 @@
       </c>
       <c r="F272">
         <f t="shared" si="31"/>
-        <v>36.857142857142854</v>
-      </c>
-    </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
+        <v>39.714285714285715</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A273" s="1">
         <v>44171</v>
       </c>
       <c r="B273">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="C273">
         <f t="shared" si="9"/>
-        <v>10814</v>
+        <v>10859</v>
       </c>
       <c r="D273">
         <v>0</v>
@@ -7120,7 +7123,30 @@
       </c>
       <c r="F273">
         <f t="shared" si="31"/>
-        <v>35.714285714285715</v>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A274" s="1">
+        <v>44172</v>
+      </c>
+      <c r="B274">
+        <v>45</v>
+      </c>
+      <c r="C274">
+        <f t="shared" si="9"/>
+        <v>10904</v>
+      </c>
+      <c r="D274">
+        <v>1</v>
+      </c>
+      <c r="E274">
+        <f t="shared" si="30"/>
+        <v>243</v>
+      </c>
+      <c r="F274">
+        <f t="shared" si="31"/>
+        <v>42.571428571428569</v>
       </c>
     </row>
   </sheetData>
@@ -7129,6 +7155,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008004546134034441816F24C41F65E929" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c3392cbe151f976ef883c2eee1f53348">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0967b7be50301903c78f9c39c6fd9af8">
     <xsd:element name="properties">
@@ -7242,7 +7274,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -7251,13 +7283,16 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1A2B3F87-A9AF-4074-B361-AD2BB674E9B4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D515663D-8DD7-4DC5-AB14-871AB41C18CB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7273,19 +7308,10 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74AA8ED6-45B0-4A9E-9B31-0193ECD8C05A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1A2B3F87-A9AF-4074-B361-AD2BB674E9B4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/data/DateofDeath.xlsx
+++ b/data/DateofDeath.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\COVID-19 Data Visualization\COVID19 - Files\Power BI resources\CSV filesPROB4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55ECD9C3-1920-4C77-B850-DE97C5A678D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C84BA2D6-1BCF-49EF-A1A1-4AFB5D4575A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31680" yWindow="540" windowWidth="21600" windowHeight="15660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DateofDeath" sheetId="1" r:id="rId1"/>
@@ -890,13 +890,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F274"/>
+  <dimension ref="A1:F275"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B260" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B263" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D291" sqref="D291"/>
+      <selection pane="bottomRight" activeCell="D281" sqref="D281"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5340,7 +5340,7 @@
         <v>15</v>
       </c>
       <c r="C196">
-        <f t="shared" ref="C196:C274" si="9">B196+C195</f>
+        <f t="shared" ref="C196:C275" si="9">B196+C195</f>
         <v>9124</v>
       </c>
       <c r="D196">
@@ -7062,11 +7062,11 @@
         <v>44169</v>
       </c>
       <c r="B271">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C271">
         <f t="shared" si="9"/>
-        <v>10775</v>
+        <v>10776</v>
       </c>
       <c r="D271">
         <v>2</v>
@@ -7077,7 +7077,7 @@
       </c>
       <c r="F271">
         <f t="shared" ref="F271:F274" si="31">AVERAGE(B265:B271)</f>
-        <v>39.714285714285715</v>
+        <v>39.857142857142854</v>
       </c>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.3">
@@ -7085,11 +7085,11 @@
         <v>44170</v>
       </c>
       <c r="B272">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C272">
         <f t="shared" si="9"/>
-        <v>10816</v>
+        <v>10818</v>
       </c>
       <c r="D272">
         <v>2</v>
@@ -7100,7 +7100,7 @@
       </c>
       <c r="F272">
         <f t="shared" si="31"/>
-        <v>39.714285714285715</v>
+        <v>40</v>
       </c>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.3">
@@ -7108,22 +7108,22 @@
         <v>44171</v>
       </c>
       <c r="B273">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C273">
         <f t="shared" si="9"/>
-        <v>10859</v>
+        <v>10865</v>
       </c>
       <c r="D273">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E273">
         <f t="shared" si="30"/>
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F273">
         <f t="shared" si="31"/>
-        <v>42</v>
+        <v>42.857142857142854</v>
       </c>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.3">
@@ -7131,22 +7131,45 @@
         <v>44172</v>
       </c>
       <c r="B274">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="C274">
         <f t="shared" si="9"/>
-        <v>10904</v>
+        <v>10921</v>
       </c>
       <c r="D274">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E274">
         <f t="shared" si="30"/>
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="F274">
         <f t="shared" si="31"/>
-        <v>42.571428571428569</v>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A275" s="1">
+        <v>44173</v>
+      </c>
+      <c r="B275">
+        <v>28</v>
+      </c>
+      <c r="C275">
+        <f t="shared" si="9"/>
+        <v>10949</v>
+      </c>
+      <c r="D275">
+        <v>0</v>
+      </c>
+      <c r="E275">
+        <f t="shared" ref="E275" si="32">D275+E274</f>
+        <v>245</v>
+      </c>
+      <c r="F275">
+        <f t="shared" ref="F275" si="33">AVERAGE(B269:B275)</f>
+        <v>42.428571428571431</v>
       </c>
     </row>
   </sheetData>
@@ -7155,12 +7178,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
 </p:properties>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008004546134034441816F24C41F65E929" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c3392cbe151f976ef883c2eee1f53348">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0967b7be50301903c78f9c39c6fd9af8">
     <xsd:element name="properties">
@@ -7274,16 +7306,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74AA8ED6-45B0-4A9E-9B31-0193ECD8C05A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1A2B3F87-A9AF-4074-B361-AD2BB674E9B4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -7292,7 +7323,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D515663D-8DD7-4DC5-AB14-871AB41C18CB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7306,12 +7337,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74AA8ED6-45B0-4A9E-9B31-0193ECD8C05A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/data/DateofDeath.xlsx
+++ b/data/DateofDeath.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\COVID-19 Data Visualization\COVID19 - Files\Power BI resources\CSV filesPROB4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C84BA2D6-1BCF-49EF-A1A1-4AFB5D4575A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4952AE77-04A8-48AB-BA50-8058D1EB332F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31680" yWindow="540" windowWidth="21600" windowHeight="15660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DateofDeath" sheetId="1" r:id="rId1"/>
@@ -890,13 +890,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F275"/>
+  <dimension ref="A1:F276"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B263" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B254" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D281" sqref="D281"/>
+      <selection pane="bottomRight" activeCell="D2" sqref="D2:D276"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5340,7 +5340,7 @@
         <v>15</v>
       </c>
       <c r="C196">
-        <f t="shared" ref="C196:C275" si="9">B196+C195</f>
+        <f t="shared" ref="C196:C276" si="9">B196+C195</f>
         <v>9124</v>
       </c>
       <c r="D196">
@@ -7062,11 +7062,11 @@
         <v>44169</v>
       </c>
       <c r="B271">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C271">
         <f t="shared" si="9"/>
-        <v>10776</v>
+        <v>10777</v>
       </c>
       <c r="D271">
         <v>2</v>
@@ -7077,7 +7077,7 @@
       </c>
       <c r="F271">
         <f t="shared" ref="F271:F274" si="31">AVERAGE(B265:B271)</f>
-        <v>39.857142857142854</v>
+        <v>40</v>
       </c>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.3">
@@ -7085,11 +7085,11 @@
         <v>44170</v>
       </c>
       <c r="B272">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C272">
         <f t="shared" si="9"/>
-        <v>10818</v>
+        <v>10820</v>
       </c>
       <c r="D272">
         <v>2</v>
@@ -7100,7 +7100,7 @@
       </c>
       <c r="F272">
         <f t="shared" si="31"/>
-        <v>40</v>
+        <v>40.285714285714285</v>
       </c>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.3">
@@ -7112,7 +7112,7 @@
       </c>
       <c r="C273">
         <f t="shared" si="9"/>
-        <v>10865</v>
+        <v>10867</v>
       </c>
       <c r="D273">
         <v>1</v>
@@ -7123,7 +7123,7 @@
       </c>
       <c r="F273">
         <f t="shared" si="31"/>
-        <v>42.857142857142854</v>
+        <v>43.142857142857146</v>
       </c>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.3">
@@ -7131,11 +7131,11 @@
         <v>44172</v>
       </c>
       <c r="B274">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C274">
         <f t="shared" si="9"/>
-        <v>10921</v>
+        <v>10925</v>
       </c>
       <c r="D274">
         <v>2</v>
@@ -7146,7 +7146,7 @@
       </c>
       <c r="F274">
         <f t="shared" si="31"/>
-        <v>45</v>
+        <v>45.571428571428569</v>
       </c>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.3">
@@ -7154,22 +7154,45 @@
         <v>44173</v>
       </c>
       <c r="B275">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="C275">
         <f t="shared" si="9"/>
-        <v>10949</v>
+        <v>10964</v>
       </c>
       <c r="D275">
         <v>0</v>
       </c>
       <c r="E275">
-        <f t="shared" ref="E275" si="32">D275+E274</f>
+        <f t="shared" ref="E275:E276" si="32">D275+E274</f>
         <v>245</v>
       </c>
       <c r="F275">
-        <f t="shared" ref="F275" si="33">AVERAGE(B269:B275)</f>
-        <v>42.428571428571431</v>
+        <f t="shared" ref="F275:F276" si="33">AVERAGE(B269:B275)</f>
+        <v>44.571428571428569</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A276" s="1">
+        <v>44174</v>
+      </c>
+      <c r="B276">
+        <v>33</v>
+      </c>
+      <c r="C276">
+        <f t="shared" si="9"/>
+        <v>10997</v>
+      </c>
+      <c r="D276">
+        <v>1</v>
+      </c>
+      <c r="E276">
+        <f t="shared" si="32"/>
+        <v>246</v>
+      </c>
+      <c r="F276">
+        <f t="shared" si="33"/>
+        <v>44.571428571428569</v>
       </c>
     </row>
   </sheetData>
@@ -7178,21 +7201,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008004546134034441816F24C41F65E929" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c3392cbe151f976ef883c2eee1f53348">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0967b7be50301903c78f9c39c6fd9af8">
     <xsd:element name="properties">
@@ -7306,15 +7320,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74AA8ED6-45B0-4A9E-9B31-0193ECD8C05A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1A2B3F87-A9AF-4074-B361-AD2BB674E9B4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -7323,7 +7338,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D515663D-8DD7-4DC5-AB14-871AB41C18CB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7337,4 +7352,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74AA8ED6-45B0-4A9E-9B31-0193ECD8C05A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/data/DateofDeath.xlsx
+++ b/data/DateofDeath.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\COVID-19 Data Visualization\COVID19 - Files\Power BI resources\CSV filesPROB4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4952AE77-04A8-48AB-BA50-8058D1EB332F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66BE0861-CBDB-45F6-AE56-B96AF8AA5DCF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -890,13 +890,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F276"/>
+  <dimension ref="A1:F278"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B254" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B269" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D2" sqref="D2:D276"/>
+      <selection pane="bottomRight" activeCell="D2" sqref="D2:D278"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5340,7 +5340,7 @@
         <v>15</v>
       </c>
       <c r="C196">
-        <f t="shared" ref="C196:C276" si="9">B196+C195</f>
+        <f t="shared" ref="C196:C278" si="9">B196+C195</f>
         <v>9124</v>
       </c>
       <c r="D196">
@@ -6977,11 +6977,11 @@
         <v>10606</v>
       </c>
       <c r="D267">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E267">
         <f t="shared" si="20"/>
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F267">
         <f t="shared" ref="F267" si="23">AVERAGE(B261:B267)</f>
@@ -7004,7 +7004,7 @@
       </c>
       <c r="E268">
         <f t="shared" ref="E268" si="24">D268+E267</f>
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F268">
         <f t="shared" ref="F268" si="25">AVERAGE(B262:B268)</f>
@@ -7027,7 +7027,7 @@
       </c>
       <c r="E269">
         <f t="shared" ref="E269" si="26">D269+E268</f>
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F269">
         <f t="shared" ref="F269" si="27">AVERAGE(B263:B269)</f>
@@ -7039,22 +7039,22 @@
         <v>44168</v>
       </c>
       <c r="B270">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C270">
         <f t="shared" si="9"/>
-        <v>10728</v>
+        <v>10729</v>
       </c>
       <c r="D270">
         <v>3</v>
       </c>
       <c r="E270">
         <f t="shared" ref="E270" si="28">D270+E269</f>
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F270">
         <f t="shared" ref="F270" si="29">AVERAGE(B264:B270)</f>
-        <v>38.571428571428569</v>
+        <v>38.714285714285715</v>
       </c>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.3">
@@ -7066,18 +7066,18 @@
       </c>
       <c r="C271">
         <f t="shared" si="9"/>
-        <v>10777</v>
+        <v>10778</v>
       </c>
       <c r="D271">
         <v>2</v>
       </c>
       <c r="E271">
         <f t="shared" ref="E271:E274" si="30">D271+E270</f>
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F271">
         <f t="shared" ref="F271:F274" si="31">AVERAGE(B265:B271)</f>
-        <v>40</v>
+        <v>40.142857142857146</v>
       </c>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.3">
@@ -7085,22 +7085,22 @@
         <v>44170</v>
       </c>
       <c r="B272">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C272">
         <f t="shared" si="9"/>
-        <v>10820</v>
+        <v>10822</v>
       </c>
       <c r="D272">
         <v>2</v>
       </c>
       <c r="E272">
         <f t="shared" si="30"/>
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F272">
         <f t="shared" si="31"/>
-        <v>40.285714285714285</v>
+        <v>40.571428571428569</v>
       </c>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.3">
@@ -7112,18 +7112,18 @@
       </c>
       <c r="C273">
         <f t="shared" si="9"/>
-        <v>10867</v>
+        <v>10869</v>
       </c>
       <c r="D273">
         <v>1</v>
       </c>
       <c r="E273">
         <f t="shared" si="30"/>
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="F273">
         <f t="shared" si="31"/>
-        <v>43.142857142857146</v>
+        <v>43.428571428571431</v>
       </c>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.3">
@@ -7135,18 +7135,18 @@
       </c>
       <c r="C274">
         <f t="shared" si="9"/>
-        <v>10925</v>
+        <v>10927</v>
       </c>
       <c r="D274">
         <v>2</v>
       </c>
       <c r="E274">
         <f t="shared" si="30"/>
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F274">
         <f t="shared" si="31"/>
-        <v>45.571428571428569</v>
+        <v>45.857142857142854</v>
       </c>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.3">
@@ -7154,22 +7154,22 @@
         <v>44173</v>
       </c>
       <c r="B275">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C275">
         <f t="shared" si="9"/>
-        <v>10964</v>
+        <v>10967</v>
       </c>
       <c r="D275">
         <v>0</v>
       </c>
       <c r="E275">
         <f t="shared" ref="E275:E276" si="32">D275+E274</f>
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F275">
         <f t="shared" ref="F275:F276" si="33">AVERAGE(B269:B275)</f>
-        <v>44.571428571428569</v>
+        <v>45</v>
       </c>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.3">
@@ -7177,22 +7177,68 @@
         <v>44174</v>
       </c>
       <c r="B276">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="C276">
         <f t="shared" si="9"/>
-        <v>10997</v>
+        <v>11015</v>
       </c>
       <c r="D276">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E276">
         <f t="shared" si="32"/>
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="F276">
         <f t="shared" si="33"/>
-        <v>44.571428571428569</v>
+        <v>47.142857142857146</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A277" s="1">
+        <v>44175</v>
+      </c>
+      <c r="B277">
+        <v>46</v>
+      </c>
+      <c r="C277">
+        <f t="shared" si="9"/>
+        <v>11061</v>
+      </c>
+      <c r="D277">
+        <v>1</v>
+      </c>
+      <c r="E277">
+        <f t="shared" ref="E277" si="34">D277+E276</f>
+        <v>249</v>
+      </c>
+      <c r="F277">
+        <f t="shared" ref="F277" si="35">AVERAGE(B271:B277)</f>
+        <v>47.428571428571431</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A278" s="1">
+        <v>44176</v>
+      </c>
+      <c r="B278">
+        <v>24</v>
+      </c>
+      <c r="C278">
+        <f t="shared" si="9"/>
+        <v>11085</v>
+      </c>
+      <c r="D278">
+        <v>0</v>
+      </c>
+      <c r="E278">
+        <f t="shared" ref="E278" si="36">D278+E277</f>
+        <v>249</v>
+      </c>
+      <c r="F278">
+        <f t="shared" ref="F278" si="37">AVERAGE(B272:B278)</f>
+        <v>43.857142857142854</v>
       </c>
     </row>
   </sheetData>
@@ -7201,12 +7247,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008004546134034441816F24C41F65E929" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c3392cbe151f976ef883c2eee1f53348">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0967b7be50301903c78f9c39c6fd9af8">
     <xsd:element name="properties">
@@ -7320,7 +7360,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -7329,16 +7369,13 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1A2B3F87-A9AF-4074-B361-AD2BB674E9B4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D515663D-8DD7-4DC5-AB14-871AB41C18CB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7354,10 +7391,19 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74AA8ED6-45B0-4A9E-9B31-0193ECD8C05A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1A2B3F87-A9AF-4074-B361-AD2BB674E9B4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/data/DateofDeath.xlsx
+++ b/data/DateofDeath.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\COVID-19 Data Visualization\COVID19 - Files\Power BI resources\CSV filesPROB4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66BE0861-CBDB-45F6-AE56-B96AF8AA5DCF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{910C47D3-DFC5-456C-BA66-0007CAD4D69D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -890,13 +890,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F278"/>
+  <dimension ref="A1:F280"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B269" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B266" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D2" sqref="D2:D278"/>
+      <selection pane="bottomRight" activeCell="D2" sqref="D2:D280"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5340,7 +5340,7 @@
         <v>15</v>
       </c>
       <c r="C196">
-        <f t="shared" ref="C196:C278" si="9">B196+C195</f>
+        <f t="shared" ref="C196:C280" si="9">B196+C195</f>
         <v>9124</v>
       </c>
       <c r="D196">
@@ -7062,11 +7062,11 @@
         <v>44169</v>
       </c>
       <c r="B271">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C271">
         <f t="shared" si="9"/>
-        <v>10778</v>
+        <v>10779</v>
       </c>
       <c r="D271">
         <v>2</v>
@@ -7077,7 +7077,7 @@
       </c>
       <c r="F271">
         <f t="shared" ref="F271:F274" si="31">AVERAGE(B265:B271)</f>
-        <v>40.142857142857146</v>
+        <v>40.285714285714285</v>
       </c>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.3">
@@ -7089,7 +7089,7 @@
       </c>
       <c r="C272">
         <f t="shared" si="9"/>
-        <v>10822</v>
+        <v>10823</v>
       </c>
       <c r="D272">
         <v>2</v>
@@ -7100,7 +7100,7 @@
       </c>
       <c r="F272">
         <f t="shared" si="31"/>
-        <v>40.571428571428569</v>
+        <v>40.714285714285715</v>
       </c>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.3">
@@ -7112,7 +7112,7 @@
       </c>
       <c r="C273">
         <f t="shared" si="9"/>
-        <v>10869</v>
+        <v>10870</v>
       </c>
       <c r="D273">
         <v>1</v>
@@ -7123,7 +7123,7 @@
       </c>
       <c r="F273">
         <f t="shared" si="31"/>
-        <v>43.428571428571431</v>
+        <v>43.571428571428569</v>
       </c>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.3">
@@ -7135,7 +7135,7 @@
       </c>
       <c r="C274">
         <f t="shared" si="9"/>
-        <v>10927</v>
+        <v>10928</v>
       </c>
       <c r="D274">
         <v>2</v>
@@ -7146,7 +7146,7 @@
       </c>
       <c r="F274">
         <f t="shared" si="31"/>
-        <v>45.857142857142854</v>
+        <v>46</v>
       </c>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.3">
@@ -7158,7 +7158,7 @@
       </c>
       <c r="C275">
         <f t="shared" si="9"/>
-        <v>10967</v>
+        <v>10968</v>
       </c>
       <c r="D275">
         <v>0</v>
@@ -7169,7 +7169,7 @@
       </c>
       <c r="F275">
         <f t="shared" ref="F275:F276" si="33">AVERAGE(B269:B275)</f>
-        <v>45</v>
+        <v>45.142857142857146</v>
       </c>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.3">
@@ -7177,11 +7177,11 @@
         <v>44174</v>
       </c>
       <c r="B276">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C276">
         <f t="shared" si="9"/>
-        <v>11015</v>
+        <v>11017</v>
       </c>
       <c r="D276">
         <v>2</v>
@@ -7192,7 +7192,7 @@
       </c>
       <c r="F276">
         <f t="shared" si="33"/>
-        <v>47.142857142857146</v>
+        <v>47.428571428571431</v>
       </c>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.3">
@@ -7200,22 +7200,22 @@
         <v>44175</v>
       </c>
       <c r="B277">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C277">
         <f t="shared" si="9"/>
-        <v>11061</v>
+        <v>11068</v>
       </c>
       <c r="D277">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E277">
         <f t="shared" ref="E277" si="34">D277+E276</f>
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="F277">
         <f t="shared" ref="F277" si="35">AVERAGE(B271:B277)</f>
-        <v>47.428571428571431</v>
+        <v>48.428571428571431</v>
       </c>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.3">
@@ -7223,22 +7223,68 @@
         <v>44176</v>
       </c>
       <c r="B278">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="C278">
         <f t="shared" si="9"/>
-        <v>11085</v>
+        <v>11107</v>
       </c>
       <c r="D278">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E278">
         <f t="shared" ref="E278" si="36">D278+E277</f>
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="F278">
         <f t="shared" ref="F278" si="37">AVERAGE(B272:B278)</f>
-        <v>43.857142857142854</v>
+        <v>46.857142857142854</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A279" s="1">
+        <v>44177</v>
+      </c>
+      <c r="B279">
+        <v>35</v>
+      </c>
+      <c r="C279">
+        <f t="shared" si="9"/>
+        <v>11142</v>
+      </c>
+      <c r="D279">
+        <v>0</v>
+      </c>
+      <c r="E279">
+        <f>D279+E278</f>
+        <v>251</v>
+      </c>
+      <c r="F279">
+        <f>AVERAGE(B273:B279)</f>
+        <v>45.571428571428569</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A280" s="1">
+        <v>44178</v>
+      </c>
+      <c r="B280">
+        <v>32</v>
+      </c>
+      <c r="C280">
+        <f t="shared" si="9"/>
+        <v>11174</v>
+      </c>
+      <c r="D280">
+        <v>0</v>
+      </c>
+      <c r="E280">
+        <f>D280+E279</f>
+        <v>251</v>
+      </c>
+      <c r="F280">
+        <f>AVERAGE(B274:B280)</f>
+        <v>43.428571428571431</v>
       </c>
     </row>
   </sheetData>
@@ -7247,6 +7293,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008004546134034441816F24C41F65E929" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c3392cbe151f976ef883c2eee1f53348">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0967b7be50301903c78f9c39c6fd9af8">
     <xsd:element name="properties">
@@ -7360,7 +7412,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -7369,13 +7421,16 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1A2B3F87-A9AF-4074-B361-AD2BB674E9B4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D515663D-8DD7-4DC5-AB14-871AB41C18CB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7391,19 +7446,10 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74AA8ED6-45B0-4A9E-9B31-0193ECD8C05A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1A2B3F87-A9AF-4074-B361-AD2BB674E9B4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/data/DateofDeath.xlsx
+++ b/data/DateofDeath.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\COVID-19 Data Visualization\COVID19 - Files\Power BI resources\CSV filesPROB4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{910C47D3-DFC5-456C-BA66-0007CAD4D69D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CCC35A1-701F-4000-9004-ECD98A258437}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -890,13 +890,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F280"/>
+  <dimension ref="A1:F281"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B266" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D2" sqref="D2:D280"/>
+      <selection pane="bottomRight" activeCell="E296" sqref="E296"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5340,7 +5340,7 @@
         <v>15</v>
       </c>
       <c r="C196">
-        <f t="shared" ref="C196:C280" si="9">B196+C195</f>
+        <f t="shared" ref="C196:C281" si="9">B196+C195</f>
         <v>9124</v>
       </c>
       <c r="D196">
@@ -6786,11 +6786,11 @@
         <v>44157</v>
       </c>
       <c r="B259">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C259">
         <f t="shared" si="9"/>
-        <v>10342</v>
+        <v>10343</v>
       </c>
       <c r="D259">
         <v>1</v>
@@ -6801,7 +6801,7 @@
       </c>
       <c r="F259">
         <f t="shared" si="17"/>
-        <v>26.428571428571427</v>
+        <v>26.571428571428573</v>
       </c>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.3">
@@ -6813,7 +6813,7 @@
       </c>
       <c r="C260">
         <f t="shared" si="9"/>
-        <v>10377</v>
+        <v>10378</v>
       </c>
       <c r="D260">
         <v>1</v>
@@ -6824,7 +6824,7 @@
       </c>
       <c r="F260">
         <f t="shared" si="17"/>
-        <v>27.285714285714285</v>
+        <v>27.428571428571427</v>
       </c>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.3">
@@ -6836,7 +6836,7 @@
       </c>
       <c r="C261">
         <f t="shared" si="9"/>
-        <v>10404</v>
+        <v>10405</v>
       </c>
       <c r="D261">
         <v>1</v>
@@ -6847,7 +6847,7 @@
       </c>
       <c r="F261">
         <f t="shared" ref="F261" si="19">AVERAGE(B255:B261)</f>
-        <v>27.714285714285715</v>
+        <v>27.857142857142858</v>
       </c>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.3">
@@ -6859,7 +6859,7 @@
       </c>
       <c r="C262">
         <f t="shared" si="9"/>
-        <v>10433</v>
+        <v>10434</v>
       </c>
       <c r="D262">
         <v>1</v>
@@ -6870,7 +6870,7 @@
       </c>
       <c r="F262">
         <f t="shared" ref="F262:F265" si="21">AVERAGE(B256:B262)</f>
-        <v>28.142857142857142</v>
+        <v>28.285714285714285</v>
       </c>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.3">
@@ -6882,7 +6882,7 @@
       </c>
       <c r="C263">
         <f t="shared" si="9"/>
-        <v>10458</v>
+        <v>10459</v>
       </c>
       <c r="D263">
         <v>0</v>
@@ -6893,7 +6893,7 @@
       </c>
       <c r="F263">
         <f t="shared" si="21"/>
-        <v>29</v>
+        <v>29.142857142857142</v>
       </c>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.3">
@@ -6905,7 +6905,7 @@
       </c>
       <c r="C264">
         <f t="shared" si="9"/>
-        <v>10497</v>
+        <v>10498</v>
       </c>
       <c r="D264">
         <v>0</v>
@@ -6916,7 +6916,7 @@
       </c>
       <c r="F264">
         <f t="shared" si="21"/>
-        <v>30.142857142857142</v>
+        <v>30.285714285714285</v>
       </c>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.3">
@@ -6928,7 +6928,7 @@
       </c>
       <c r="C265">
         <f t="shared" si="9"/>
-        <v>10538</v>
+        <v>10539</v>
       </c>
       <c r="D265">
         <v>0</v>
@@ -6939,7 +6939,7 @@
       </c>
       <c r="F265">
         <f t="shared" si="21"/>
-        <v>32.142857142857146</v>
+        <v>32.285714285714285</v>
       </c>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.3">
@@ -6951,7 +6951,7 @@
       </c>
       <c r="C266">
         <f t="shared" si="9"/>
-        <v>10565</v>
+        <v>10566</v>
       </c>
       <c r="D266">
         <v>0</v>
@@ -6974,7 +6974,7 @@
       </c>
       <c r="C267">
         <f t="shared" si="9"/>
-        <v>10606</v>
+        <v>10607</v>
       </c>
       <c r="D267">
         <v>1</v>
@@ -6997,7 +6997,7 @@
       </c>
       <c r="C268">
         <f t="shared" si="9"/>
-        <v>10652</v>
+        <v>10653</v>
       </c>
       <c r="D268">
         <v>0</v>
@@ -7020,7 +7020,7 @@
       </c>
       <c r="C269">
         <f t="shared" si="9"/>
-        <v>10685</v>
+        <v>10686</v>
       </c>
       <c r="D269">
         <v>0</v>
@@ -7043,7 +7043,7 @@
       </c>
       <c r="C270">
         <f t="shared" si="9"/>
-        <v>10729</v>
+        <v>10730</v>
       </c>
       <c r="D270">
         <v>3</v>
@@ -7066,7 +7066,7 @@
       </c>
       <c r="C271">
         <f t="shared" si="9"/>
-        <v>10779</v>
+        <v>10780</v>
       </c>
       <c r="D271">
         <v>2</v>
@@ -7089,7 +7089,7 @@
       </c>
       <c r="C272">
         <f t="shared" si="9"/>
-        <v>10823</v>
+        <v>10824</v>
       </c>
       <c r="D272">
         <v>2</v>
@@ -7112,7 +7112,7 @@
       </c>
       <c r="C273">
         <f t="shared" si="9"/>
-        <v>10870</v>
+        <v>10871</v>
       </c>
       <c r="D273">
         <v>1</v>
@@ -7131,11 +7131,11 @@
         <v>44172</v>
       </c>
       <c r="B274">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C274">
         <f t="shared" si="9"/>
-        <v>10928</v>
+        <v>10931</v>
       </c>
       <c r="D274">
         <v>2</v>
@@ -7146,7 +7146,7 @@
       </c>
       <c r="F274">
         <f t="shared" si="31"/>
-        <v>46</v>
+        <v>46.285714285714285</v>
       </c>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.3">
@@ -7158,7 +7158,7 @@
       </c>
       <c r="C275">
         <f t="shared" si="9"/>
-        <v>10968</v>
+        <v>10971</v>
       </c>
       <c r="D275">
         <v>0</v>
@@ -7169,7 +7169,7 @@
       </c>
       <c r="F275">
         <f t="shared" ref="F275:F276" si="33">AVERAGE(B269:B275)</f>
-        <v>45.142857142857146</v>
+        <v>45.428571428571431</v>
       </c>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.3">
@@ -7177,11 +7177,11 @@
         <v>44174</v>
       </c>
       <c r="B276">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C276">
         <f t="shared" si="9"/>
-        <v>11017</v>
+        <v>11021</v>
       </c>
       <c r="D276">
         <v>2</v>
@@ -7192,7 +7192,7 @@
       </c>
       <c r="F276">
         <f t="shared" si="33"/>
-        <v>47.428571428571431</v>
+        <v>47.857142857142854</v>
       </c>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.3">
@@ -7200,11 +7200,11 @@
         <v>44175</v>
       </c>
       <c r="B277">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C277">
         <f t="shared" si="9"/>
-        <v>11068</v>
+        <v>11074</v>
       </c>
       <c r="D277">
         <v>2</v>
@@ -7215,7 +7215,7 @@
       </c>
       <c r="F277">
         <f t="shared" ref="F277" si="35">AVERAGE(B271:B277)</f>
-        <v>48.428571428571431</v>
+        <v>49.142857142857146</v>
       </c>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.3">
@@ -7223,11 +7223,11 @@
         <v>44176</v>
       </c>
       <c r="B278">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C278">
         <f t="shared" si="9"/>
-        <v>11107</v>
+        <v>11119</v>
       </c>
       <c r="D278">
         <v>1</v>
@@ -7238,7 +7238,7 @@
       </c>
       <c r="F278">
         <f t="shared" ref="F278" si="37">AVERAGE(B272:B278)</f>
-        <v>46.857142857142854</v>
+        <v>48.428571428571431</v>
       </c>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.3">
@@ -7246,11 +7246,11 @@
         <v>44177</v>
       </c>
       <c r="B279">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="C279">
         <f t="shared" si="9"/>
-        <v>11142</v>
+        <v>11164</v>
       </c>
       <c r="D279">
         <v>0</v>
@@ -7261,7 +7261,7 @@
       </c>
       <c r="F279">
         <f>AVERAGE(B273:B279)</f>
-        <v>45.571428571428569</v>
+        <v>48.571428571428569</v>
       </c>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.3">
@@ -7269,11 +7269,11 @@
         <v>44178</v>
       </c>
       <c r="B280">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="C280">
         <f t="shared" si="9"/>
-        <v>11174</v>
+        <v>11212</v>
       </c>
       <c r="D280">
         <v>0</v>
@@ -7284,7 +7284,30 @@
       </c>
       <c r="F280">
         <f>AVERAGE(B274:B280)</f>
-        <v>43.428571428571431</v>
+        <v>48.714285714285715</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A281" s="1">
+        <v>44179</v>
+      </c>
+      <c r="B281">
+        <v>33</v>
+      </c>
+      <c r="C281">
+        <f t="shared" si="9"/>
+        <v>11245</v>
+      </c>
+      <c r="D281">
+        <v>0</v>
+      </c>
+      <c r="E281">
+        <f>D281+E280</f>
+        <v>251</v>
+      </c>
+      <c r="F281">
+        <f>AVERAGE(B275:B281)</f>
+        <v>44.857142857142854</v>
       </c>
     </row>
   </sheetData>
@@ -7293,12 +7316,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008004546134034441816F24C41F65E929" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c3392cbe151f976ef883c2eee1f53348">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0967b7be50301903c78f9c39c6fd9af8">
     <xsd:element name="properties">
@@ -7412,7 +7429,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -7421,16 +7438,13 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1A2B3F87-A9AF-4074-B361-AD2BB674E9B4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D515663D-8DD7-4DC5-AB14-871AB41C18CB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7446,10 +7460,19 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74AA8ED6-45B0-4A9E-9B31-0193ECD8C05A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1A2B3F87-A9AF-4074-B361-AD2BB674E9B4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/data/DateofDeath.xlsx
+++ b/data/DateofDeath.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\COVID-19 Data Visualization\COVID19 - Files\Power BI resources\CSV filesPROB4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CCC35A1-701F-4000-9004-ECD98A258437}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6A6644B-C43D-4B0F-8C80-A1E071A8B729}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -890,13 +890,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F281"/>
+  <dimension ref="A1:F283"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B266" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B257" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E296" sqref="E296"/>
+      <selection pane="bottomRight" activeCell="D292" sqref="D292"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5340,7 +5340,7 @@
         <v>15</v>
       </c>
       <c r="C196">
-        <f t="shared" ref="C196:C281" si="9">B196+C195</f>
+        <f t="shared" ref="C196:C283" si="9">B196+C195</f>
         <v>9124</v>
       </c>
       <c r="D196">
@@ -6763,11 +6763,11 @@
         <v>44156</v>
       </c>
       <c r="B258">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C258">
         <f t="shared" si="9"/>
-        <v>10313</v>
+        <v>10314</v>
       </c>
       <c r="D258">
         <v>0</v>
@@ -6778,7 +6778,7 @@
       </c>
       <c r="F258">
         <f t="shared" si="17"/>
-        <v>26.714285714285715</v>
+        <v>26.857142857142858</v>
       </c>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.3">
@@ -6790,7 +6790,7 @@
       </c>
       <c r="C259">
         <f t="shared" si="9"/>
-        <v>10343</v>
+        <v>10344</v>
       </c>
       <c r="D259">
         <v>1</v>
@@ -6801,7 +6801,7 @@
       </c>
       <c r="F259">
         <f t="shared" si="17"/>
-        <v>26.571428571428573</v>
+        <v>26.714285714285715</v>
       </c>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.3">
@@ -6813,7 +6813,7 @@
       </c>
       <c r="C260">
         <f t="shared" si="9"/>
-        <v>10378</v>
+        <v>10379</v>
       </c>
       <c r="D260">
         <v>1</v>
@@ -6824,7 +6824,7 @@
       </c>
       <c r="F260">
         <f t="shared" si="17"/>
-        <v>27.428571428571427</v>
+        <v>27.571428571428573</v>
       </c>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.3">
@@ -6836,7 +6836,7 @@
       </c>
       <c r="C261">
         <f t="shared" si="9"/>
-        <v>10405</v>
+        <v>10406</v>
       </c>
       <c r="D261">
         <v>1</v>
@@ -6847,7 +6847,7 @@
       </c>
       <c r="F261">
         <f t="shared" ref="F261" si="19">AVERAGE(B255:B261)</f>
-        <v>27.857142857142858</v>
+        <v>28</v>
       </c>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.3">
@@ -6859,7 +6859,7 @@
       </c>
       <c r="C262">
         <f t="shared" si="9"/>
-        <v>10434</v>
+        <v>10435</v>
       </c>
       <c r="D262">
         <v>1</v>
@@ -6870,7 +6870,7 @@
       </c>
       <c r="F262">
         <f t="shared" ref="F262:F265" si="21">AVERAGE(B256:B262)</f>
-        <v>28.285714285714285</v>
+        <v>28.428571428571427</v>
       </c>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.3">
@@ -6882,7 +6882,7 @@
       </c>
       <c r="C263">
         <f t="shared" si="9"/>
-        <v>10459</v>
+        <v>10460</v>
       </c>
       <c r="D263">
         <v>0</v>
@@ -6893,7 +6893,7 @@
       </c>
       <c r="F263">
         <f t="shared" si="21"/>
-        <v>29.142857142857142</v>
+        <v>29.285714285714285</v>
       </c>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.3">
@@ -6905,7 +6905,7 @@
       </c>
       <c r="C264">
         <f t="shared" si="9"/>
-        <v>10498</v>
+        <v>10499</v>
       </c>
       <c r="D264">
         <v>0</v>
@@ -6916,7 +6916,7 @@
       </c>
       <c r="F264">
         <f t="shared" si="21"/>
-        <v>30.285714285714285</v>
+        <v>30.428571428571427</v>
       </c>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.3">
@@ -6928,7 +6928,7 @@
       </c>
       <c r="C265">
         <f t="shared" si="9"/>
-        <v>10539</v>
+        <v>10540</v>
       </c>
       <c r="D265">
         <v>0</v>
@@ -6951,7 +6951,7 @@
       </c>
       <c r="C266">
         <f t="shared" si="9"/>
-        <v>10566</v>
+        <v>10567</v>
       </c>
       <c r="D266">
         <v>0</v>
@@ -6974,7 +6974,7 @@
       </c>
       <c r="C267">
         <f t="shared" si="9"/>
-        <v>10607</v>
+        <v>10608</v>
       </c>
       <c r="D267">
         <v>1</v>
@@ -6997,7 +6997,7 @@
       </c>
       <c r="C268">
         <f t="shared" si="9"/>
-        <v>10653</v>
+        <v>10654</v>
       </c>
       <c r="D268">
         <v>0</v>
@@ -7020,14 +7020,14 @@
       </c>
       <c r="C269">
         <f t="shared" si="9"/>
-        <v>10686</v>
+        <v>10687</v>
       </c>
       <c r="D269">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E269">
         <f t="shared" ref="E269" si="26">D269+E268</f>
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F269">
         <f t="shared" ref="F269" si="27">AVERAGE(B263:B269)</f>
@@ -7043,14 +7043,14 @@
       </c>
       <c r="C270">
         <f t="shared" si="9"/>
-        <v>10730</v>
+        <v>10731</v>
       </c>
       <c r="D270">
         <v>3</v>
       </c>
       <c r="E270">
         <f t="shared" ref="E270" si="28">D270+E269</f>
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F270">
         <f t="shared" ref="F270" si="29">AVERAGE(B264:B270)</f>
@@ -7066,14 +7066,14 @@
       </c>
       <c r="C271">
         <f t="shared" si="9"/>
-        <v>10780</v>
+        <v>10781</v>
       </c>
       <c r="D271">
         <v>2</v>
       </c>
       <c r="E271">
         <f t="shared" ref="E271:E274" si="30">D271+E270</f>
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F271">
         <f t="shared" ref="F271:F274" si="31">AVERAGE(B265:B271)</f>
@@ -7089,14 +7089,14 @@
       </c>
       <c r="C272">
         <f t="shared" si="9"/>
-        <v>10824</v>
+        <v>10825</v>
       </c>
       <c r="D272">
         <v>2</v>
       </c>
       <c r="E272">
         <f t="shared" si="30"/>
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="F272">
         <f t="shared" si="31"/>
@@ -7112,14 +7112,14 @@
       </c>
       <c r="C273">
         <f t="shared" si="9"/>
-        <v>10871</v>
+        <v>10872</v>
       </c>
       <c r="D273">
         <v>1</v>
       </c>
       <c r="E273">
         <f t="shared" si="30"/>
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F273">
         <f t="shared" si="31"/>
@@ -7135,14 +7135,14 @@
       </c>
       <c r="C274">
         <f t="shared" si="9"/>
-        <v>10931</v>
+        <v>10932</v>
       </c>
       <c r="D274">
         <v>2</v>
       </c>
       <c r="E274">
         <f t="shared" si="30"/>
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F274">
         <f t="shared" si="31"/>
@@ -7158,14 +7158,14 @@
       </c>
       <c r="C275">
         <f t="shared" si="9"/>
-        <v>10971</v>
+        <v>10972</v>
       </c>
       <c r="D275">
         <v>0</v>
       </c>
       <c r="E275">
         <f t="shared" ref="E275:E276" si="32">D275+E274</f>
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F275">
         <f t="shared" ref="F275:F276" si="33">AVERAGE(B269:B275)</f>
@@ -7181,14 +7181,14 @@
       </c>
       <c r="C276">
         <f t="shared" si="9"/>
-        <v>11021</v>
+        <v>11022</v>
       </c>
       <c r="D276">
         <v>2</v>
       </c>
       <c r="E276">
         <f t="shared" si="32"/>
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F276">
         <f t="shared" si="33"/>
@@ -7204,14 +7204,14 @@
       </c>
       <c r="C277">
         <f t="shared" si="9"/>
-        <v>11074</v>
+        <v>11075</v>
       </c>
       <c r="D277">
         <v>2</v>
       </c>
       <c r="E277">
         <f t="shared" ref="E277" si="34">D277+E276</f>
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F277">
         <f t="shared" ref="F277" si="35">AVERAGE(B271:B277)</f>
@@ -7223,22 +7223,22 @@
         <v>44176</v>
       </c>
       <c r="B278">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C278">
         <f t="shared" si="9"/>
-        <v>11119</v>
+        <v>11121</v>
       </c>
       <c r="D278">
         <v>1</v>
       </c>
       <c r="E278">
         <f t="shared" ref="E278" si="36">D278+E277</f>
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F278">
         <f t="shared" ref="F278" si="37">AVERAGE(B272:B278)</f>
-        <v>48.428571428571431</v>
+        <v>48.571428571428569</v>
       </c>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.3">
@@ -7246,22 +7246,22 @@
         <v>44177</v>
       </c>
       <c r="B279">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C279">
         <f t="shared" si="9"/>
-        <v>11164</v>
+        <v>11168</v>
       </c>
       <c r="D279">
         <v>0</v>
       </c>
       <c r="E279">
         <f>D279+E278</f>
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F279">
         <f>AVERAGE(B273:B279)</f>
-        <v>48.571428571428569</v>
+        <v>49</v>
       </c>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.3">
@@ -7269,22 +7269,22 @@
         <v>44178</v>
       </c>
       <c r="B280">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C280">
         <f t="shared" si="9"/>
-        <v>11212</v>
+        <v>11221</v>
       </c>
       <c r="D280">
         <v>0</v>
       </c>
       <c r="E280">
         <f>D280+E279</f>
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F280">
         <f>AVERAGE(B274:B280)</f>
-        <v>48.714285714285715</v>
+        <v>49.857142857142854</v>
       </c>
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.3">
@@ -7292,22 +7292,68 @@
         <v>44179</v>
       </c>
       <c r="B281">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="C281">
         <f t="shared" si="9"/>
-        <v>11245</v>
+        <v>11270</v>
       </c>
       <c r="D281">
         <v>0</v>
       </c>
       <c r="E281">
         <f>D281+E280</f>
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F281">
         <f>AVERAGE(B275:B281)</f>
-        <v>44.857142857142854</v>
+        <v>48.285714285714285</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A282" s="1">
+        <v>44180</v>
+      </c>
+      <c r="B282">
+        <v>42</v>
+      </c>
+      <c r="C282">
+        <f t="shared" si="9"/>
+        <v>11312</v>
+      </c>
+      <c r="D282">
+        <v>0</v>
+      </c>
+      <c r="E282">
+        <f>D282+E281</f>
+        <v>252</v>
+      </c>
+      <c r="F282">
+        <f>AVERAGE(B276:B282)</f>
+        <v>48.571428571428569</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A283" s="1">
+        <v>44181</v>
+      </c>
+      <c r="B283">
+        <v>29</v>
+      </c>
+      <c r="C283">
+        <f t="shared" si="9"/>
+        <v>11341</v>
+      </c>
+      <c r="D283">
+        <v>0</v>
+      </c>
+      <c r="E283">
+        <f>D283+E282</f>
+        <v>252</v>
+      </c>
+      <c r="F283">
+        <f>AVERAGE(B277:B283)</f>
+        <v>45.571428571428569</v>
       </c>
     </row>
   </sheetData>
@@ -7316,6 +7362,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008004546134034441816F24C41F65E929" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c3392cbe151f976ef883c2eee1f53348">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0967b7be50301903c78f9c39c6fd9af8">
     <xsd:element name="properties">
@@ -7429,22 +7490,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74AA8ED6-45B0-4A9E-9B31-0193ECD8C05A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1A2B3F87-A9AF-4074-B361-AD2BB674E9B4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D515663D-8DD7-4DC5-AB14-871AB41C18CB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7458,21 +7521,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74AA8ED6-45B0-4A9E-9B31-0193ECD8C05A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1A2B3F87-A9AF-4074-B361-AD2BB674E9B4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/data/DateofDeath.xlsx
+++ b/data/DateofDeath.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\COVID-19 Data Visualization\COVID19 - Files\Power BI resources\CSV filesPROB4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6A6644B-C43D-4B0F-8C80-A1E071A8B729}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13FC74B6-60AF-4C24-8013-CD3449CC3F6F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -890,13 +890,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F283"/>
+  <dimension ref="A1:F284"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B257" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B272" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D292" sqref="D292"/>
+      <selection pane="bottomRight" activeCell="C292" sqref="C292"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5340,7 +5340,7 @@
         <v>15</v>
       </c>
       <c r="C196">
-        <f t="shared" ref="C196:C283" si="9">B196+C195</f>
+        <f t="shared" ref="C196:C284" si="9">B196+C195</f>
         <v>9124</v>
       </c>
       <c r="D196">
@@ -6901,11 +6901,11 @@
         <v>44162</v>
       </c>
       <c r="B264">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C264">
         <f t="shared" si="9"/>
-        <v>10499</v>
+        <v>10500</v>
       </c>
       <c r="D264">
         <v>0</v>
@@ -6916,7 +6916,7 @@
       </c>
       <c r="F264">
         <f t="shared" si="21"/>
-        <v>30.428571428571427</v>
+        <v>30.571428571428573</v>
       </c>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.3">
@@ -6928,7 +6928,7 @@
       </c>
       <c r="C265">
         <f t="shared" si="9"/>
-        <v>10540</v>
+        <v>10541</v>
       </c>
       <c r="D265">
         <v>0</v>
@@ -6939,7 +6939,7 @@
       </c>
       <c r="F265">
         <f t="shared" si="21"/>
-        <v>32.285714285714285</v>
+        <v>32.428571428571431</v>
       </c>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.3">
@@ -6947,11 +6947,11 @@
         <v>44164</v>
       </c>
       <c r="B266">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C266">
         <f t="shared" si="9"/>
-        <v>10567</v>
+        <v>10569</v>
       </c>
       <c r="D266">
         <v>0</v>
@@ -6962,7 +6962,7 @@
       </c>
       <c r="F266">
         <f t="shared" ref="F266" si="22">AVERAGE(B260:B266)</f>
-        <v>31.857142857142858</v>
+        <v>32.142857142857146</v>
       </c>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.3">
@@ -6974,7 +6974,7 @@
       </c>
       <c r="C267">
         <f t="shared" si="9"/>
-        <v>10608</v>
+        <v>10610</v>
       </c>
       <c r="D267">
         <v>1</v>
@@ -6985,7 +6985,7 @@
       </c>
       <c r="F267">
         <f t="shared" ref="F267" si="23">AVERAGE(B261:B267)</f>
-        <v>32.714285714285715</v>
+        <v>33</v>
       </c>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.3">
@@ -6997,7 +6997,7 @@
       </c>
       <c r="C268">
         <f t="shared" si="9"/>
-        <v>10654</v>
+        <v>10656</v>
       </c>
       <c r="D268">
         <v>0</v>
@@ -7008,7 +7008,7 @@
       </c>
       <c r="F268">
         <f t="shared" ref="F268" si="25">AVERAGE(B262:B268)</f>
-        <v>35.428571428571431</v>
+        <v>35.714285714285715</v>
       </c>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.3">
@@ -7020,7 +7020,7 @@
       </c>
       <c r="C269">
         <f t="shared" si="9"/>
-        <v>10687</v>
+        <v>10689</v>
       </c>
       <c r="D269">
         <v>1</v>
@@ -7031,7 +7031,7 @@
       </c>
       <c r="F269">
         <f t="shared" ref="F269" si="27">AVERAGE(B263:B269)</f>
-        <v>36</v>
+        <v>36.285714285714285</v>
       </c>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.3">
@@ -7043,7 +7043,7 @@
       </c>
       <c r="C270">
         <f t="shared" si="9"/>
-        <v>10731</v>
+        <v>10733</v>
       </c>
       <c r="D270">
         <v>3</v>
@@ -7054,7 +7054,7 @@
       </c>
       <c r="F270">
         <f t="shared" ref="F270" si="29">AVERAGE(B264:B270)</f>
-        <v>38.714285714285715</v>
+        <v>39</v>
       </c>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.3">
@@ -7066,7 +7066,7 @@
       </c>
       <c r="C271">
         <f t="shared" si="9"/>
-        <v>10781</v>
+        <v>10783</v>
       </c>
       <c r="D271">
         <v>2</v>
@@ -7077,7 +7077,7 @@
       </c>
       <c r="F271">
         <f t="shared" ref="F271:F274" si="31">AVERAGE(B265:B271)</f>
-        <v>40.285714285714285</v>
+        <v>40.428571428571431</v>
       </c>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.3">
@@ -7089,7 +7089,7 @@
       </c>
       <c r="C272">
         <f t="shared" si="9"/>
-        <v>10825</v>
+        <v>10827</v>
       </c>
       <c r="D272">
         <v>2</v>
@@ -7100,7 +7100,7 @@
       </c>
       <c r="F272">
         <f t="shared" si="31"/>
-        <v>40.714285714285715</v>
+        <v>40.857142857142854</v>
       </c>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.3">
@@ -7112,7 +7112,7 @@
       </c>
       <c r="C273">
         <f t="shared" si="9"/>
-        <v>10872</v>
+        <v>10874</v>
       </c>
       <c r="D273">
         <v>1</v>
@@ -7135,7 +7135,7 @@
       </c>
       <c r="C274">
         <f t="shared" si="9"/>
-        <v>10932</v>
+        <v>10934</v>
       </c>
       <c r="D274">
         <v>2</v>
@@ -7158,7 +7158,7 @@
       </c>
       <c r="C275">
         <f t="shared" si="9"/>
-        <v>10972</v>
+        <v>10974</v>
       </c>
       <c r="D275">
         <v>0</v>
@@ -7181,7 +7181,7 @@
       </c>
       <c r="C276">
         <f t="shared" si="9"/>
-        <v>11022</v>
+        <v>11024</v>
       </c>
       <c r="D276">
         <v>2</v>
@@ -7204,7 +7204,7 @@
       </c>
       <c r="C277">
         <f t="shared" si="9"/>
-        <v>11075</v>
+        <v>11077</v>
       </c>
       <c r="D277">
         <v>2</v>
@@ -7227,7 +7227,7 @@
       </c>
       <c r="C278">
         <f t="shared" si="9"/>
-        <v>11121</v>
+        <v>11123</v>
       </c>
       <c r="D278">
         <v>1</v>
@@ -7250,17 +7250,17 @@
       </c>
       <c r="C279">
         <f t="shared" si="9"/>
-        <v>11168</v>
+        <v>11170</v>
       </c>
       <c r="D279">
         <v>0</v>
       </c>
       <c r="E279">
-        <f>D279+E278</f>
+        <f t="shared" ref="E279:E284" si="38">D279+E278</f>
         <v>252</v>
       </c>
       <c r="F279">
-        <f>AVERAGE(B273:B279)</f>
+        <f t="shared" ref="F279:F284" si="39">AVERAGE(B273:B279)</f>
         <v>49</v>
       </c>
     </row>
@@ -7269,22 +7269,22 @@
         <v>44178</v>
       </c>
       <c r="B280">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C280">
         <f t="shared" si="9"/>
-        <v>11221</v>
+        <v>11224</v>
       </c>
       <c r="D280">
         <v>0</v>
       </c>
       <c r="E280">
-        <f>D280+E279</f>
+        <f t="shared" si="38"/>
         <v>252</v>
       </c>
       <c r="F280">
-        <f>AVERAGE(B274:B280)</f>
-        <v>49.857142857142854</v>
+        <f t="shared" si="39"/>
+        <v>50</v>
       </c>
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.3">
@@ -7292,22 +7292,22 @@
         <v>44179</v>
       </c>
       <c r="B281">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C281">
         <f t="shared" si="9"/>
-        <v>11270</v>
+        <v>11274</v>
       </c>
       <c r="D281">
         <v>0</v>
       </c>
       <c r="E281">
-        <f>D281+E280</f>
+        <f t="shared" si="38"/>
         <v>252</v>
       </c>
       <c r="F281">
-        <f>AVERAGE(B275:B281)</f>
-        <v>48.285714285714285</v>
+        <f t="shared" si="39"/>
+        <v>48.571428571428569</v>
       </c>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.3">
@@ -7315,22 +7315,22 @@
         <v>44180</v>
       </c>
       <c r="B282">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C282">
         <f t="shared" si="9"/>
-        <v>11312</v>
+        <v>11317</v>
       </c>
       <c r="D282">
         <v>0</v>
       </c>
       <c r="E282">
-        <f>D282+E281</f>
+        <f t="shared" si="38"/>
         <v>252</v>
       </c>
       <c r="F282">
-        <f>AVERAGE(B276:B282)</f>
-        <v>48.571428571428569</v>
+        <f t="shared" si="39"/>
+        <v>49</v>
       </c>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.3">
@@ -7338,22 +7338,45 @@
         <v>44181</v>
       </c>
       <c r="B283">
+        <v>42</v>
+      </c>
+      <c r="C283">
+        <f t="shared" si="9"/>
+        <v>11359</v>
+      </c>
+      <c r="D283">
+        <v>0</v>
+      </c>
+      <c r="E283">
+        <f t="shared" si="38"/>
+        <v>252</v>
+      </c>
+      <c r="F283">
+        <f t="shared" si="39"/>
+        <v>47.857142857142854</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A284" s="1">
+        <v>44182</v>
+      </c>
+      <c r="B284">
         <v>29</v>
       </c>
-      <c r="C283">
-        <f t="shared" si="9"/>
-        <v>11341</v>
-      </c>
-      <c r="D283">
-        <v>0</v>
-      </c>
-      <c r="E283">
-        <f>D283+E282</f>
+      <c r="C284">
+        <f t="shared" si="9"/>
+        <v>11388</v>
+      </c>
+      <c r="D284">
+        <v>0</v>
+      </c>
+      <c r="E284">
+        <f t="shared" si="38"/>
         <v>252</v>
       </c>
-      <c r="F283">
-        <f>AVERAGE(B277:B283)</f>
-        <v>45.571428571428569</v>
+      <c r="F284">
+        <f t="shared" si="39"/>
+        <v>44.428571428571431</v>
       </c>
     </row>
   </sheetData>
@@ -7362,21 +7385,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008004546134034441816F24C41F65E929" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c3392cbe151f976ef883c2eee1f53348">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0967b7be50301903c78f9c39c6fd9af8">
     <xsd:element name="properties">
@@ -7490,24 +7498,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74AA8ED6-45B0-4A9E-9B31-0193ECD8C05A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1A2B3F87-A9AF-4074-B361-AD2BB674E9B4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D515663D-8DD7-4DC5-AB14-871AB41C18CB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7521,4 +7527,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74AA8ED6-45B0-4A9E-9B31-0193ECD8C05A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1A2B3F87-A9AF-4074-B361-AD2BB674E9B4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/data/DateofDeath.xlsx
+++ b/data/DateofDeath.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\COVID-19 Data Visualization\COVID19 - Files\Power BI resources\CSV filesPROB4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13FC74B6-60AF-4C24-8013-CD3449CC3F6F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2C66742-D19D-4132-A207-21B6B1EE982F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DateofDeath" sheetId="1" r:id="rId1"/>
@@ -890,13 +890,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F284"/>
+  <dimension ref="A1:F286"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B272" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B263" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C292" sqref="C292"/>
+      <selection pane="bottomRight" activeCell="K284" sqref="K284"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5340,7 +5340,7 @@
         <v>15</v>
       </c>
       <c r="C196">
-        <f t="shared" ref="C196:C284" si="9">B196+C195</f>
+        <f t="shared" ref="C196:C286" si="9">B196+C195</f>
         <v>9124</v>
       </c>
       <c r="D196">
@@ -7154,11 +7154,11 @@
         <v>44173</v>
       </c>
       <c r="B275">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C275">
         <f t="shared" si="9"/>
-        <v>10974</v>
+        <v>10975</v>
       </c>
       <c r="D275">
         <v>0</v>
@@ -7169,7 +7169,7 @@
       </c>
       <c r="F275">
         <f t="shared" ref="F275:F276" si="33">AVERAGE(B269:B275)</f>
-        <v>45.428571428571431</v>
+        <v>45.571428571428569</v>
       </c>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.3">
@@ -7181,7 +7181,7 @@
       </c>
       <c r="C276">
         <f t="shared" si="9"/>
-        <v>11024</v>
+        <v>11025</v>
       </c>
       <c r="D276">
         <v>2</v>
@@ -7192,7 +7192,7 @@
       </c>
       <c r="F276">
         <f t="shared" si="33"/>
-        <v>47.857142857142854</v>
+        <v>48</v>
       </c>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.3">
@@ -7204,7 +7204,7 @@
       </c>
       <c r="C277">
         <f t="shared" si="9"/>
-        <v>11077</v>
+        <v>11078</v>
       </c>
       <c r="D277">
         <v>2</v>
@@ -7215,7 +7215,7 @@
       </c>
       <c r="F277">
         <f t="shared" ref="F277" si="35">AVERAGE(B271:B277)</f>
-        <v>49.142857142857146</v>
+        <v>49.285714285714285</v>
       </c>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.3">
@@ -7227,7 +7227,7 @@
       </c>
       <c r="C278">
         <f t="shared" si="9"/>
-        <v>11123</v>
+        <v>11124</v>
       </c>
       <c r="D278">
         <v>1</v>
@@ -7238,7 +7238,7 @@
       </c>
       <c r="F278">
         <f t="shared" ref="F278" si="37">AVERAGE(B272:B278)</f>
-        <v>48.571428571428569</v>
+        <v>48.714285714285715</v>
       </c>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.3">
@@ -7250,7 +7250,7 @@
       </c>
       <c r="C279">
         <f t="shared" si="9"/>
-        <v>11170</v>
+        <v>11171</v>
       </c>
       <c r="D279">
         <v>0</v>
@@ -7261,7 +7261,7 @@
       </c>
       <c r="F279">
         <f t="shared" ref="F279:F284" si="39">AVERAGE(B273:B279)</f>
-        <v>49</v>
+        <v>49.142857142857146</v>
       </c>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.3">
@@ -7269,7 +7269,7 @@
         <v>44178</v>
       </c>
       <c r="B280">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C280">
         <f t="shared" si="9"/>
@@ -7292,11 +7292,11 @@
         <v>44179</v>
       </c>
       <c r="B281">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C281">
         <f t="shared" si="9"/>
-        <v>11274</v>
+        <v>11275</v>
       </c>
       <c r="D281">
         <v>0</v>
@@ -7307,7 +7307,7 @@
       </c>
       <c r="F281">
         <f t="shared" si="39"/>
-        <v>48.571428571428569</v>
+        <v>48.714285714285715</v>
       </c>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.3">
@@ -7319,7 +7319,7 @@
       </c>
       <c r="C282">
         <f t="shared" si="9"/>
-        <v>11317</v>
+        <v>11318</v>
       </c>
       <c r="D282">
         <v>0</v>
@@ -7338,11 +7338,11 @@
         <v>44181</v>
       </c>
       <c r="B283">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="C283">
         <f t="shared" si="9"/>
-        <v>11359</v>
+        <v>11367</v>
       </c>
       <c r="D283">
         <v>0</v>
@@ -7353,7 +7353,7 @@
       </c>
       <c r="F283">
         <f t="shared" si="39"/>
-        <v>47.857142857142854</v>
+        <v>48.857142857142854</v>
       </c>
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.3">
@@ -7361,11 +7361,11 @@
         <v>44182</v>
       </c>
       <c r="B284">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="C284">
         <f t="shared" si="9"/>
-        <v>11388</v>
+        <v>11419</v>
       </c>
       <c r="D284">
         <v>0</v>
@@ -7376,7 +7376,53 @@
       </c>
       <c r="F284">
         <f t="shared" si="39"/>
-        <v>44.428571428571431</v>
+        <v>48.714285714285715</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A285" s="1">
+        <v>44183</v>
+      </c>
+      <c r="B285">
+        <v>42</v>
+      </c>
+      <c r="C285">
+        <f t="shared" si="9"/>
+        <v>11461</v>
+      </c>
+      <c r="D285">
+        <v>1</v>
+      </c>
+      <c r="E285">
+        <f t="shared" ref="E285" si="40">D285+E284</f>
+        <v>253</v>
+      </c>
+      <c r="F285">
+        <f t="shared" ref="F285" si="41">AVERAGE(B279:B285)</f>
+        <v>48.142857142857146</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A286" s="1">
+        <v>44184</v>
+      </c>
+      <c r="B286">
+        <v>26</v>
+      </c>
+      <c r="C286">
+        <f t="shared" si="9"/>
+        <v>11487</v>
+      </c>
+      <c r="D286">
+        <v>0</v>
+      </c>
+      <c r="E286">
+        <f t="shared" ref="E286" si="42">D286+E285</f>
+        <v>253</v>
+      </c>
+      <c r="F286">
+        <f t="shared" ref="F286" si="43">AVERAGE(B280:B286)</f>
+        <v>45.142857142857146</v>
       </c>
     </row>
   </sheetData>
@@ -7385,6 +7431,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008004546134034441816F24C41F65E929" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c3392cbe151f976ef883c2eee1f53348">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0967b7be50301903c78f9c39c6fd9af8">
     <xsd:element name="properties">
@@ -7498,7 +7550,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -7507,13 +7559,16 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1A2B3F87-A9AF-4074-B361-AD2BB674E9B4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D515663D-8DD7-4DC5-AB14-871AB41C18CB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7529,19 +7584,10 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74AA8ED6-45B0-4A9E-9B31-0193ECD8C05A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1A2B3F87-A9AF-4074-B361-AD2BB674E9B4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/data/DateofDeath.xlsx
+++ b/data/DateofDeath.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\COVID-19 Data Visualization\COVID19 - Files\Power BI resources\CSV filesPROB4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2C66742-D19D-4132-A207-21B6B1EE982F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CBAA6DF-B0CD-4EC6-A53A-BC6568110C93}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -890,13 +890,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F286"/>
+  <dimension ref="A1:F287"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B263" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B275" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K284" sqref="K284"/>
+      <selection pane="bottomRight" activeCell="C293" sqref="C293"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5340,7 +5340,7 @@
         <v>15</v>
       </c>
       <c r="C196">
-        <f t="shared" ref="C196:C286" si="9">B196+C195</f>
+        <f t="shared" ref="C196:C287" si="9">B196+C195</f>
         <v>9124</v>
       </c>
       <c r="D196">
@@ -7361,11 +7361,11 @@
         <v>44182</v>
       </c>
       <c r="B284">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C284">
         <f t="shared" si="9"/>
-        <v>11419</v>
+        <v>11420</v>
       </c>
       <c r="D284">
         <v>0</v>
@@ -7376,7 +7376,7 @@
       </c>
       <c r="F284">
         <f t="shared" si="39"/>
-        <v>48.714285714285715</v>
+        <v>48.857142857142854</v>
       </c>
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.3">
@@ -7384,11 +7384,11 @@
         <v>44183</v>
       </c>
       <c r="B285">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C285">
         <f t="shared" si="9"/>
-        <v>11461</v>
+        <v>11465</v>
       </c>
       <c r="D285">
         <v>1</v>
@@ -7399,7 +7399,7 @@
       </c>
       <c r="F285">
         <f t="shared" ref="F285" si="41">AVERAGE(B279:B285)</f>
-        <v>48.142857142857146</v>
+        <v>48.714285714285715</v>
       </c>
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.3">
@@ -7407,11 +7407,11 @@
         <v>44184</v>
       </c>
       <c r="B286">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="C286">
         <f t="shared" si="9"/>
-        <v>11487</v>
+        <v>11505</v>
       </c>
       <c r="D286">
         <v>0</v>
@@ -7422,7 +7422,30 @@
       </c>
       <c r="F286">
         <f t="shared" ref="F286" si="43">AVERAGE(B280:B286)</f>
-        <v>45.142857142857146</v>
+        <v>47.714285714285715</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A287" s="1">
+        <v>44185</v>
+      </c>
+      <c r="B287">
+        <v>26</v>
+      </c>
+      <c r="C287">
+        <f t="shared" si="9"/>
+        <v>11531</v>
+      </c>
+      <c r="D287">
+        <v>1</v>
+      </c>
+      <c r="E287">
+        <f t="shared" ref="E287" si="44">D287+E286</f>
+        <v>254</v>
+      </c>
+      <c r="F287">
+        <f t="shared" ref="F287" si="45">AVERAGE(B281:B287)</f>
+        <v>43.857142857142854</v>
       </c>
     </row>
   </sheetData>
@@ -7431,12 +7454,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008004546134034441816F24C41F65E929" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c3392cbe151f976ef883c2eee1f53348">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0967b7be50301903c78f9c39c6fd9af8">
     <xsd:element name="properties">
@@ -7550,7 +7567,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -7559,16 +7576,13 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1A2B3F87-A9AF-4074-B361-AD2BB674E9B4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D515663D-8DD7-4DC5-AB14-871AB41C18CB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7584,10 +7598,19 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74AA8ED6-45B0-4A9E-9B31-0193ECD8C05A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1A2B3F87-A9AF-4074-B361-AD2BB674E9B4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/data/DateofDeath.xlsx
+++ b/data/DateofDeath.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\COVID-19 Data Visualization\COVID19 - Files\Power BI resources\CSV filesPROB4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CBAA6DF-B0CD-4EC6-A53A-BC6568110C93}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B3723EB-4D21-4F3D-B23C-F5C1848DD1EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -890,13 +890,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F287"/>
+  <dimension ref="A1:F289"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B275" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B284" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C293" sqref="C293"/>
+      <selection pane="bottomRight" activeCell="B290" sqref="B290:D290"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5340,7 +5340,7 @@
         <v>15</v>
       </c>
       <c r="C196">
-        <f t="shared" ref="C196:C287" si="9">B196+C195</f>
+        <f t="shared" ref="C196:C289" si="9">B196+C195</f>
         <v>9124</v>
       </c>
       <c r="D196">
@@ -7154,11 +7154,11 @@
         <v>44173</v>
       </c>
       <c r="B275">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C275">
         <f t="shared" si="9"/>
-        <v>10975</v>
+        <v>10976</v>
       </c>
       <c r="D275">
         <v>0</v>
@@ -7169,7 +7169,7 @@
       </c>
       <c r="F275">
         <f t="shared" ref="F275:F276" si="33">AVERAGE(B269:B275)</f>
-        <v>45.571428571428569</v>
+        <v>45.714285714285715</v>
       </c>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.3">
@@ -7181,7 +7181,7 @@
       </c>
       <c r="C276">
         <f t="shared" si="9"/>
-        <v>11025</v>
+        <v>11026</v>
       </c>
       <c r="D276">
         <v>2</v>
@@ -7192,7 +7192,7 @@
       </c>
       <c r="F276">
         <f t="shared" si="33"/>
-        <v>48</v>
+        <v>48.142857142857146</v>
       </c>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.3">
@@ -7204,7 +7204,7 @@
       </c>
       <c r="C277">
         <f t="shared" si="9"/>
-        <v>11078</v>
+        <v>11079</v>
       </c>
       <c r="D277">
         <v>2</v>
@@ -7215,7 +7215,7 @@
       </c>
       <c r="F277">
         <f t="shared" ref="F277" si="35">AVERAGE(B271:B277)</f>
-        <v>49.285714285714285</v>
+        <v>49.428571428571431</v>
       </c>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.3">
@@ -7223,11 +7223,11 @@
         <v>44176</v>
       </c>
       <c r="B278">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C278">
         <f t="shared" si="9"/>
-        <v>11124</v>
+        <v>11126</v>
       </c>
       <c r="D278">
         <v>1</v>
@@ -7238,7 +7238,7 @@
       </c>
       <c r="F278">
         <f t="shared" ref="F278" si="37">AVERAGE(B272:B278)</f>
-        <v>48.714285714285715</v>
+        <v>49</v>
       </c>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.3">
@@ -7250,7 +7250,7 @@
       </c>
       <c r="C279">
         <f t="shared" si="9"/>
-        <v>11171</v>
+        <v>11173</v>
       </c>
       <c r="D279">
         <v>0</v>
@@ -7261,7 +7261,7 @@
       </c>
       <c r="F279">
         <f t="shared" ref="F279:F284" si="39">AVERAGE(B273:B279)</f>
-        <v>49.142857142857146</v>
+        <v>49.428571428571431</v>
       </c>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.3">
@@ -7273,7 +7273,7 @@
       </c>
       <c r="C280">
         <f t="shared" si="9"/>
-        <v>11224</v>
+        <v>11226</v>
       </c>
       <c r="D280">
         <v>0</v>
@@ -7284,7 +7284,7 @@
       </c>
       <c r="F280">
         <f t="shared" si="39"/>
-        <v>50</v>
+        <v>50.285714285714285</v>
       </c>
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.3">
@@ -7292,11 +7292,11 @@
         <v>44179</v>
       </c>
       <c r="B281">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C281">
         <f t="shared" si="9"/>
-        <v>11275</v>
+        <v>11279</v>
       </c>
       <c r="D281">
         <v>0</v>
@@ -7307,7 +7307,7 @@
       </c>
       <c r="F281">
         <f t="shared" si="39"/>
-        <v>48.714285714285715</v>
+        <v>49.285714285714285</v>
       </c>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.3">
@@ -7315,11 +7315,11 @@
         <v>44180</v>
       </c>
       <c r="B282">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C282">
         <f t="shared" si="9"/>
-        <v>11318</v>
+        <v>11324</v>
       </c>
       <c r="D282">
         <v>0</v>
@@ -7330,7 +7330,7 @@
       </c>
       <c r="F282">
         <f t="shared" si="39"/>
-        <v>49</v>
+        <v>49.714285714285715</v>
       </c>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.3">
@@ -7338,11 +7338,11 @@
         <v>44181</v>
       </c>
       <c r="B283">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C283">
         <f t="shared" si="9"/>
-        <v>11367</v>
+        <v>11374</v>
       </c>
       <c r="D283">
         <v>0</v>
@@ -7353,7 +7353,7 @@
       </c>
       <c r="F283">
         <f t="shared" si="39"/>
-        <v>48.857142857142854</v>
+        <v>49.714285714285715</v>
       </c>
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.3">
@@ -7361,11 +7361,11 @@
         <v>44182</v>
       </c>
       <c r="B284">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C284">
         <f t="shared" si="9"/>
-        <v>11420</v>
+        <v>11429</v>
       </c>
       <c r="D284">
         <v>0</v>
@@ -7376,7 +7376,7 @@
       </c>
       <c r="F284">
         <f t="shared" si="39"/>
-        <v>48.857142857142854</v>
+        <v>50</v>
       </c>
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.3">
@@ -7384,11 +7384,11 @@
         <v>44183</v>
       </c>
       <c r="B285">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="C285">
         <f t="shared" si="9"/>
-        <v>11465</v>
+        <v>11483</v>
       </c>
       <c r="D285">
         <v>1</v>
@@ -7399,7 +7399,7 @@
       </c>
       <c r="F285">
         <f t="shared" ref="F285" si="41">AVERAGE(B279:B285)</f>
-        <v>48.714285714285715</v>
+        <v>51</v>
       </c>
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.3">
@@ -7407,11 +7407,11 @@
         <v>44184</v>
       </c>
       <c r="B286">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="C286">
         <f t="shared" si="9"/>
-        <v>11505</v>
+        <v>11542</v>
       </c>
       <c r="D286">
         <v>0</v>
@@ -7422,7 +7422,7 @@
       </c>
       <c r="F286">
         <f t="shared" ref="F286" si="43">AVERAGE(B280:B286)</f>
-        <v>47.714285714285715</v>
+        <v>52.714285714285715</v>
       </c>
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.3">
@@ -7430,11 +7430,11 @@
         <v>44185</v>
       </c>
       <c r="B287">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="C287">
         <f t="shared" si="9"/>
-        <v>11531</v>
+        <v>11595</v>
       </c>
       <c r="D287">
         <v>1</v>
@@ -7445,7 +7445,53 @@
       </c>
       <c r="F287">
         <f t="shared" ref="F287" si="45">AVERAGE(B281:B287)</f>
-        <v>43.857142857142854</v>
+        <v>52.714285714285715</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A288" s="1">
+        <v>44186</v>
+      </c>
+      <c r="B288">
+        <v>46</v>
+      </c>
+      <c r="C288">
+        <f t="shared" si="9"/>
+        <v>11641</v>
+      </c>
+      <c r="D288">
+        <v>3</v>
+      </c>
+      <c r="E288">
+        <f t="shared" ref="E288" si="46">D288+E287</f>
+        <v>257</v>
+      </c>
+      <c r="F288">
+        <f t="shared" ref="F288" si="47">AVERAGE(B282:B288)</f>
+        <v>51.714285714285715</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A289" s="1">
+        <v>44187</v>
+      </c>
+      <c r="B289">
+        <v>47</v>
+      </c>
+      <c r="C289">
+        <f t="shared" si="9"/>
+        <v>11688</v>
+      </c>
+      <c r="D289">
+        <v>0</v>
+      </c>
+      <c r="E289">
+        <f t="shared" ref="E289" si="48">D289+E288</f>
+        <v>257</v>
+      </c>
+      <c r="F289">
+        <f t="shared" ref="F289" si="49">AVERAGE(B283:B289)</f>
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/data/DateofDeath.xlsx
+++ b/data/DateofDeath.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\COVID-19 Data Visualization\COVID19 - Files\Power BI resources\CSV filesPROB4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B3723EB-4D21-4F3D-B23C-F5C1848DD1EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CC0B8D1-4CD1-437C-A3BD-F4F213AB59B7}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DateofDeath" sheetId="1" r:id="rId1"/>
@@ -20,10 +20,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -890,25 +887,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F289"/>
+  <dimension ref="A1:F292"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B284" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B279" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B290" sqref="B290:D290"/>
+      <selection pane="bottomRight" activeCell="D299" sqref="D299"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.6640625" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -928,7 +925,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>43900</v>
       </c>
@@ -945,7 +942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>43901</v>
       </c>
@@ -964,7 +961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>43902</v>
       </c>
@@ -983,7 +980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>43903</v>
       </c>
@@ -1002,7 +999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>43904</v>
       </c>
@@ -1021,7 +1018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>43905</v>
       </c>
@@ -1040,7 +1037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>43906</v>
       </c>
@@ -1059,7 +1056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>43907</v>
       </c>
@@ -1078,7 +1075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>43908</v>
       </c>
@@ -1097,7 +1094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>43909</v>
       </c>
@@ -1116,7 +1113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>43910</v>
       </c>
@@ -1135,7 +1132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>43911</v>
       </c>
@@ -1154,7 +1151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>43912</v>
       </c>
@@ -1173,7 +1170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>43913</v>
       </c>
@@ -1192,7 +1189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>43914</v>
       </c>
@@ -1215,7 +1212,7 @@
         <v>3.7142857142857144</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>43915</v>
       </c>
@@ -1238,7 +1235,7 @@
         <v>4.4285714285714288</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>43916</v>
       </c>
@@ -1261,7 +1258,7 @@
         <v>5.5714285714285712</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>43917</v>
       </c>
@@ -1284,7 +1281,7 @@
         <v>7.4285714285714288</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>43918</v>
       </c>
@@ -1307,7 +1304,7 @@
         <v>9.2857142857142865</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>43919</v>
       </c>
@@ -1330,7 +1327,7 @@
         <v>12.285714285714286</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>43920</v>
       </c>
@@ -1353,7 +1350,7 @@
         <v>15.428571428571429</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>43921</v>
       </c>
@@ -1376,7 +1373,7 @@
         <v>18.142857142857142</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>43922</v>
       </c>
@@ -1399,7 +1396,7 @@
         <v>22.285714285714285</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>43923</v>
       </c>
@@ -1422,7 +1419,7 @@
         <v>26.857142857142858</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>43924</v>
       </c>
@@ -1445,7 +1442,7 @@
         <v>30.142857142857142</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>43925</v>
       </c>
@@ -1468,7 +1465,7 @@
         <v>33.428571428571431</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>43926</v>
       </c>
@@ -1491,7 +1488,7 @@
         <v>39.571428571428569</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>43927</v>
       </c>
@@ -1514,7 +1511,7 @@
         <v>46.857142857142854</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>43928</v>
       </c>
@@ -1537,7 +1534,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>43929</v>
       </c>
@@ -1560,7 +1557,7 @@
         <v>62.142857142857146</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>43930</v>
       </c>
@@ -1583,7 +1580,7 @@
         <v>72.428571428571431</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>43931</v>
       </c>
@@ -1606,7 +1603,7 @@
         <v>82.285714285714292</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>43932</v>
       </c>
@@ -1629,7 +1626,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>43933</v>
       </c>
@@ -1652,7 +1649,7 @@
         <v>100.57142857142857</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>43934</v>
       </c>
@@ -1675,7 +1672,7 @@
         <v>112.42857142857143</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>43935</v>
       </c>
@@ -1698,7 +1695,7 @@
         <v>119.71428571428571</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>43936</v>
       </c>
@@ -1721,7 +1718,7 @@
         <v>130.85714285714286</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>43937</v>
       </c>
@@ -1744,7 +1741,7 @@
         <v>139.57142857142858</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>43938</v>
       </c>
@@ -1767,7 +1764,7 @@
         <v>148.14285714285714</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>43939</v>
       </c>
@@ -1790,7 +1787,7 @@
         <v>155.42857142857142</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>43940</v>
       </c>
@@ -1813,7 +1810,7 @@
         <v>164.57142857142858</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>43941</v>
       </c>
@@ -1836,7 +1833,7 @@
         <v>166.14285714285714</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>43942</v>
       </c>
@@ -1859,7 +1856,7 @@
         <v>171.57142857142858</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43943</v>
       </c>
@@ -1882,7 +1879,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>43944</v>
       </c>
@@ -1905,7 +1902,7 @@
         <v>170.28571428571428</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>43945</v>
       </c>
@@ -1928,7 +1925,7 @@
         <v>174.57142857142858</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>43946</v>
       </c>
@@ -1951,7 +1948,7 @@
         <v>171.71428571428572</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>43947</v>
       </c>
@@ -1974,7 +1971,7 @@
         <v>167.85714285714286</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>43948</v>
       </c>
@@ -1997,7 +1994,7 @@
         <v>165.57142857142858</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>43949</v>
       </c>
@@ -2020,7 +2017,7 @@
         <v>162.85714285714286</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>43950</v>
       </c>
@@ -2043,7 +2040,7 @@
         <v>164.42857142857142</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>43951</v>
       </c>
@@ -2066,7 +2063,7 @@
         <v>157.71428571428572</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>43952</v>
       </c>
@@ -2089,7 +2086,7 @@
         <v>154.71428571428572</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>43953</v>
       </c>
@@ -2112,7 +2109,7 @@
         <v>153.71428571428572</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>43954</v>
       </c>
@@ -2135,7 +2132,7 @@
         <v>151.71428571428572</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>43955</v>
       </c>
@@ -2158,7 +2155,7 @@
         <v>148.57142857142858</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>43956</v>
       </c>
@@ -2181,7 +2178,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>43957</v>
       </c>
@@ -2204,7 +2201,7 @@
         <v>144.28571428571428</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>43958</v>
       </c>
@@ -2227,7 +2224,7 @@
         <v>142.42857142857142</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>43959</v>
       </c>
@@ -2250,7 +2247,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>43960</v>
       </c>
@@ -2273,7 +2270,7 @@
         <v>127.42857142857143</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>43961</v>
       </c>
@@ -2296,7 +2293,7 @@
         <v>125.85714285714286</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>43962</v>
       </c>
@@ -2319,7 +2316,7 @@
         <v>124.71428571428571</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>43963</v>
       </c>
@@ -2342,7 +2339,7 @@
         <v>121.14285714285714</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>43964</v>
       </c>
@@ -2365,7 +2362,7 @@
         <v>117.85714285714286</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>43965</v>
       </c>
@@ -2388,7 +2385,7 @@
         <v>113.57142857142857</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>43966</v>
       </c>
@@ -2411,7 +2408,7 @@
         <v>114.85714285714286</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>43967</v>
       </c>
@@ -2434,7 +2431,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>43968</v>
       </c>
@@ -2457,7 +2454,7 @@
         <v>105.85714285714286</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>43969</v>
       </c>
@@ -2480,7 +2477,7 @@
         <v>101.42857142857143</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>43970</v>
       </c>
@@ -2503,7 +2500,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>43971</v>
       </c>
@@ -2526,7 +2523,7 @@
         <v>91.571428571428569</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>43972</v>
       </c>
@@ -2549,7 +2546,7 @@
         <v>86.857142857142861</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>43973</v>
       </c>
@@ -2572,7 +2569,7 @@
         <v>81.571428571428569</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>43974</v>
       </c>
@@ -2595,7 +2592,7 @@
         <v>79.571428571428569</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>43975</v>
       </c>
@@ -2618,7 +2615,7 @@
         <v>76.285714285714292</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>43976</v>
       </c>
@@ -2641,7 +2638,7 @@
         <v>71.857142857142861</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>43977</v>
       </c>
@@ -2664,7 +2661,7 @@
         <v>71.714285714285708</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>43978</v>
       </c>
@@ -2687,7 +2684,7 @@
         <v>68.857142857142861</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>43979</v>
       </c>
@@ -2710,7 +2707,7 @@
         <v>66.857142857142861</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>43980</v>
       </c>
@@ -2733,7 +2730,7 @@
         <v>63.285714285714285</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>43981</v>
       </c>
@@ -2756,7 +2753,7 @@
         <v>61.142857142857146</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>43982</v>
       </c>
@@ -2779,7 +2776,7 @@
         <v>60.428571428571431</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>43983</v>
       </c>
@@ -2802,7 +2799,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>43984</v>
       </c>
@@ -2825,7 +2822,7 @@
         <v>52.857142857142854</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>43985</v>
       </c>
@@ -2848,7 +2845,7 @@
         <v>49.571428571428569</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>43986</v>
       </c>
@@ -2871,7 +2868,7 @@
         <v>48.285714285714285</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>43987</v>
       </c>
@@ -2894,7 +2891,7 @@
         <v>43.857142857142854</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>43988</v>
       </c>
@@ -2917,7 +2914,7 @@
         <v>42.142857142857146</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>43989</v>
       </c>
@@ -2940,7 +2937,7 @@
         <v>39.714285714285715</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>43990</v>
       </c>
@@ -2963,7 +2960,7 @@
         <v>40.285714285714285</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>43991</v>
       </c>
@@ -2986,7 +2983,7 @@
         <v>37.714285714285715</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>43992</v>
       </c>
@@ -3009,7 +3006,7 @@
         <v>36.857142857142854</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>43993</v>
       </c>
@@ -3032,7 +3029,7 @@
         <v>35.285714285714285</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>43994</v>
       </c>
@@ -3055,7 +3052,7 @@
         <v>37.142857142857146</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>43995</v>
       </c>
@@ -3078,7 +3075,7 @@
         <v>34.571428571428569</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>43996</v>
       </c>
@@ -3101,7 +3098,7 @@
         <v>33.571428571428569</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>43997</v>
       </c>
@@ -3124,7 +3121,7 @@
         <v>33.142857142857146</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>43998</v>
       </c>
@@ -3147,7 +3144,7 @@
         <v>30.714285714285715</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>43999</v>
       </c>
@@ -3170,7 +3167,7 @@
         <v>29.714285714285715</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>44000</v>
       </c>
@@ -3193,7 +3190,7 @@
         <v>28.285714285714285</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>44001</v>
       </c>
@@ -3216,7 +3213,7 @@
         <v>27.428571428571427</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>44002</v>
       </c>
@@ -3239,7 +3236,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>44003</v>
       </c>
@@ -3262,7 +3259,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>44004</v>
       </c>
@@ -3285,7 +3282,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>44005</v>
       </c>
@@ -3308,7 +3305,7 @@
         <v>25.857142857142858</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>44006</v>
       </c>
@@ -3331,7 +3328,7 @@
         <v>25.428571428571427</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>44007</v>
       </c>
@@ -3354,7 +3351,7 @@
         <v>24.714285714285715</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>44008</v>
       </c>
@@ -3377,7 +3374,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>44009</v>
       </c>
@@ -3400,7 +3397,7 @@
         <v>23.857142857142858</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>44010</v>
       </c>
@@ -3423,7 +3420,7 @@
         <v>22.285714285714285</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>44011</v>
       </c>
@@ -3446,7 +3443,7 @@
         <v>21.571428571428573</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>44012</v>
       </c>
@@ -3469,7 +3466,7 @@
         <v>19.571428571428573</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>44013</v>
       </c>
@@ -3492,7 +3489,7 @@
         <v>19.285714285714285</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>44014</v>
       </c>
@@ -3515,7 +3512,7 @@
         <v>19.571428571428573</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>44015</v>
       </c>
@@ -3538,7 +3535,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>44016</v>
       </c>
@@ -3561,7 +3558,7 @@
         <v>18.428571428571427</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>44017</v>
       </c>
@@ -3584,7 +3581,7 @@
         <v>18.142857142857142</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>44018</v>
       </c>
@@ -3607,7 +3604,7 @@
         <v>19.285714285714285</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>44019</v>
       </c>
@@ -3630,7 +3627,7 @@
         <v>19.857142857142858</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>44020</v>
       </c>
@@ -3653,7 +3650,7 @@
         <v>20.571428571428573</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>44021</v>
       </c>
@@ -3676,7 +3673,7 @@
         <v>20.142857142857142</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>44022</v>
       </c>
@@ -3699,7 +3696,7 @@
         <v>19.142857142857142</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>44023</v>
       </c>
@@ -3722,7 +3719,7 @@
         <v>18.142857142857142</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>44024</v>
       </c>
@@ -3745,7 +3742,7 @@
         <v>17.714285714285715</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>44025</v>
       </c>
@@ -3768,7 +3765,7 @@
         <v>16.571428571428573</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>44026</v>
       </c>
@@ -3791,7 +3788,7 @@
         <v>16.428571428571427</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>44027</v>
       </c>
@@ -3814,7 +3811,7 @@
         <v>14.142857142857142</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>44028</v>
       </c>
@@ -3837,7 +3834,7 @@
         <v>13.285714285714286</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>44029</v>
       </c>
@@ -3860,7 +3857,7 @@
         <v>14.142857142857142</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>44030</v>
       </c>
@@ -3883,7 +3880,7 @@
         <v>14.428571428571429</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>44031</v>
       </c>
@@ -3906,7 +3903,7 @@
         <v>14.285714285714286</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>44032</v>
       </c>
@@ -3929,7 +3926,7 @@
         <v>13.285714285714286</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>44033</v>
       </c>
@@ -3952,7 +3949,7 @@
         <v>13.142857142857142</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>44034</v>
       </c>
@@ -3975,7 +3972,7 @@
         <v>13.571428571428571</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>44035</v>
       </c>
@@ -3998,7 +3995,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>44036</v>
       </c>
@@ -4021,7 +4018,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>44037</v>
       </c>
@@ -4044,7 +4041,7 @@
         <v>15.142857142857142</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>44038</v>
       </c>
@@ -4067,7 +4064,7 @@
         <v>15.142857142857142</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>44039</v>
       </c>
@@ -4090,7 +4087,7 @@
         <v>16.142857142857142</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>44040</v>
       </c>
@@ -4113,7 +4110,7 @@
         <v>15.571428571428571</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>44041</v>
       </c>
@@ -4136,7 +4133,7 @@
         <v>15.428571428571429</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>44042</v>
       </c>
@@ -4159,7 +4156,7 @@
         <v>14.857142857142858</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>44043</v>
       </c>
@@ -4182,7 +4179,7 @@
         <v>13.714285714285714</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>44044</v>
       </c>
@@ -4205,7 +4202,7 @@
         <v>14.428571428571429</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>44045</v>
       </c>
@@ -4228,7 +4225,7 @@
         <v>13.857142857142858</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>44046</v>
       </c>
@@ -4251,7 +4248,7 @@
         <v>12.714285714285714</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>44047</v>
       </c>
@@ -4274,7 +4271,7 @@
         <v>12.857142857142858</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>44048</v>
       </c>
@@ -4297,7 +4294,7 @@
         <v>12.857142857142858</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>44049</v>
       </c>
@@ -4320,7 +4317,7 @@
         <v>13.571428571428571</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>44050</v>
       </c>
@@ -4343,7 +4340,7 @@
         <v>13.571428571428571</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>44051</v>
       </c>
@@ -4366,7 +4363,7 @@
         <v>12.714285714285714</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>44052</v>
       </c>
@@ -4389,7 +4386,7 @@
         <v>12.571428571428571</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>44053</v>
       </c>
@@ -4412,7 +4409,7 @@
         <v>13.428571428571429</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>44054</v>
       </c>
@@ -4435,7 +4432,7 @@
         <v>13.428571428571429</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>44055</v>
       </c>
@@ -4458,7 +4455,7 @@
         <v>14.285714285714286</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>44056</v>
       </c>
@@ -4481,7 +4478,7 @@
         <v>13.857142857142858</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>44057</v>
       </c>
@@ -4504,7 +4501,7 @@
         <v>13.714285714285714</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>44058</v>
       </c>
@@ -4527,7 +4524,7 @@
         <v>13.714285714285714</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>44059</v>
       </c>
@@ -4550,7 +4547,7 @@
         <v>14.285714285714286</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>44060</v>
       </c>
@@ -4573,7 +4570,7 @@
         <v>14.428571428571429</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>44061</v>
       </c>
@@ -4596,7 +4593,7 @@
         <v>14.142857142857142</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>44062</v>
       </c>
@@ -4619,7 +4616,7 @@
         <v>13.571428571428571</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>44063</v>
       </c>
@@ -4642,7 +4639,7 @@
         <v>14.142857142857142</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>44064</v>
       </c>
@@ -4665,7 +4662,7 @@
         <v>14.428571428571429</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>44065</v>
       </c>
@@ -4688,7 +4685,7 @@
         <v>14.857142857142858</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>44066</v>
       </c>
@@ -4711,7 +4708,7 @@
         <v>15.142857142857142</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>44067</v>
       </c>
@@ -4734,7 +4731,7 @@
         <v>15.285714285714286</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>44068</v>
       </c>
@@ -4757,7 +4754,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>44069</v>
       </c>
@@ -4780,7 +4777,7 @@
         <v>15.714285714285714</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>44070</v>
       </c>
@@ -4803,7 +4800,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>44071</v>
       </c>
@@ -4826,7 +4823,7 @@
         <v>14.857142857142858</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>44072</v>
       </c>
@@ -4849,7 +4846,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>44073</v>
       </c>
@@ -4872,7 +4869,7 @@
         <v>15.142857142857142</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>44074</v>
       </c>
@@ -4895,7 +4892,7 @@
         <v>14.571428571428571</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>44075</v>
       </c>
@@ -4918,7 +4915,7 @@
         <v>14.428571428571429</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>44076</v>
       </c>
@@ -4941,7 +4938,7 @@
         <v>14.857142857142858</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>44077</v>
       </c>
@@ -4964,7 +4961,7 @@
         <v>14.857142857142858</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>44078</v>
       </c>
@@ -4987,7 +4984,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>44079</v>
       </c>
@@ -5010,7 +5007,7 @@
         <v>13.285714285714286</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>44080</v>
       </c>
@@ -5033,7 +5030,7 @@
         <v>12.142857142857142</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>44081</v>
       </c>
@@ -5056,7 +5053,7 @@
         <v>11.571428571428571</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>44082</v>
       </c>
@@ -5079,7 +5076,7 @@
         <v>11.285714285714286</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>44083</v>
       </c>
@@ -5102,7 +5099,7 @@
         <v>10.571428571428571</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>44084</v>
       </c>
@@ -5125,7 +5122,7 @@
         <v>11.857142857142858</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>44085</v>
       </c>
@@ -5148,7 +5145,7 @@
         <v>12.285714285714286</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>44086</v>
       </c>
@@ -5171,7 +5168,7 @@
         <v>11.714285714285714</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>44087</v>
       </c>
@@ -5194,7 +5191,7 @@
         <v>12.142857142857142</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>44088</v>
       </c>
@@ -5217,7 +5214,7 @@
         <v>13.285714285714286</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>44089</v>
       </c>
@@ -5240,7 +5237,7 @@
         <v>13.285714285714286</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>44090</v>
       </c>
@@ -5263,7 +5260,7 @@
         <v>14.571428571428571</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>44091</v>
       </c>
@@ -5286,7 +5283,7 @@
         <v>13.714285714285714</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>44092</v>
       </c>
@@ -5309,7 +5306,7 @@
         <v>13.714285714285714</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <v>44093</v>
       </c>
@@ -5332,7 +5329,7 @@
         <v>14.142857142857142</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <v>44094</v>
       </c>
@@ -5340,7 +5337,7 @@
         <v>15</v>
       </c>
       <c r="C196">
-        <f t="shared" ref="C196:C289" si="9">B196+C195</f>
+        <f t="shared" ref="C196:C290" si="9">B196+C195</f>
         <v>9124</v>
       </c>
       <c r="D196">
@@ -5355,7 +5352,7 @@
         <v>14.714285714285714</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>44095</v>
       </c>
@@ -5378,7 +5375,7 @@
         <v>14.857142857142858</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <v>44096</v>
       </c>
@@ -5401,7 +5398,7 @@
         <v>13.571428571428571</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <v>44097</v>
       </c>
@@ -5424,7 +5421,7 @@
         <v>12.428571428571429</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <v>44098</v>
       </c>
@@ -5447,7 +5444,7 @@
         <v>12.285714285714286</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <v>44099</v>
       </c>
@@ -5470,7 +5467,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
         <v>44100</v>
       </c>
@@ -5493,7 +5490,7 @@
         <v>14.428571428571429</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
         <v>44101</v>
       </c>
@@ -5516,7 +5513,7 @@
         <v>14.285714285714286</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
         <v>44102</v>
       </c>
@@ -5539,7 +5536,7 @@
         <v>14.571428571428571</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
         <v>44103</v>
       </c>
@@ -5562,7 +5559,7 @@
         <v>15.714285714285714</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
         <v>44104</v>
       </c>
@@ -5585,7 +5582,7 @@
         <v>16.285714285714285</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
         <v>44105</v>
       </c>
@@ -5608,7 +5605,7 @@
         <v>16.428571428571427</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
         <v>44106</v>
       </c>
@@ -5631,7 +5628,7 @@
         <v>16.142857142857142</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
         <v>44107</v>
       </c>
@@ -5654,7 +5651,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
         <v>44108</v>
       </c>
@@ -5677,7 +5674,7 @@
         <v>15.142857142857142</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
         <v>44109</v>
       </c>
@@ -5700,7 +5697,7 @@
         <v>13.857142857142858</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
         <v>44110</v>
       </c>
@@ -5723,7 +5720,7 @@
         <v>12.857142857142858</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
         <v>44111</v>
       </c>
@@ -5746,7 +5743,7 @@
         <v>12.714285714285714</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
         <v>44112</v>
       </c>
@@ -5769,7 +5766,7 @@
         <v>12.714285714285714</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
         <v>44113</v>
       </c>
@@ -5792,7 +5789,7 @@
         <v>12.571428571428571</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
         <v>44114</v>
       </c>
@@ -5815,7 +5812,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
         <v>44115</v>
       </c>
@@ -5838,7 +5835,7 @@
         <v>13.285714285714286</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
         <v>44116</v>
       </c>
@@ -5861,7 +5858,7 @@
         <v>15.428571428571429</v>
       </c>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
         <v>44117</v>
       </c>
@@ -5884,7 +5881,7 @@
         <v>16.714285714285715</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
         <v>44118</v>
       </c>
@@ -5907,7 +5904,7 @@
         <v>17.857142857142858</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
         <v>44119</v>
       </c>
@@ -5930,7 +5927,7 @@
         <v>18.285714285714285</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
         <v>44120</v>
       </c>
@@ -5953,7 +5950,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
         <v>44121</v>
       </c>
@@ -5976,7 +5973,7 @@
         <v>19.428571428571427</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
         <v>44122</v>
       </c>
@@ -5999,7 +5996,7 @@
         <v>17.857142857142858</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
         <v>44123</v>
       </c>
@@ -6022,7 +6019,7 @@
         <v>17.428571428571427</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
         <v>44124</v>
       </c>
@@ -6045,7 +6042,7 @@
         <v>18.571428571428573</v>
       </c>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
         <v>44125</v>
       </c>
@@ -6068,7 +6065,7 @@
         <v>17.428571428571427</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
         <v>44126</v>
       </c>
@@ -6091,7 +6088,7 @@
         <v>17.285714285714285</v>
       </c>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
         <v>44127</v>
       </c>
@@ -6114,7 +6111,7 @@
         <v>17.571428571428573</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
         <v>44128</v>
       </c>
@@ -6137,7 +6134,7 @@
         <v>18.428571428571427</v>
       </c>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
         <v>44129</v>
       </c>
@@ -6160,7 +6157,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
         <v>44130</v>
       </c>
@@ -6183,7 +6180,7 @@
         <v>20.571428571428573</v>
       </c>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
         <v>44131</v>
       </c>
@@ -6206,7 +6203,7 @@
         <v>20.285714285714285</v>
       </c>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
         <v>44132</v>
       </c>
@@ -6229,7 +6226,7 @@
         <v>20.714285714285715</v>
       </c>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
         <v>44133</v>
       </c>
@@ -6252,7 +6249,7 @@
         <v>21.142857142857142</v>
       </c>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
         <v>44134</v>
       </c>
@@ -6275,7 +6272,7 @@
         <v>20.857142857142858</v>
       </c>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
         <v>44135</v>
       </c>
@@ -6298,7 +6295,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
         <v>44136</v>
       </c>
@@ -6321,7 +6318,7 @@
         <v>19.428571428571427</v>
       </c>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
         <v>44137</v>
       </c>
@@ -6344,7 +6341,7 @@
         <v>19.142857142857142</v>
       </c>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
         <v>44138</v>
       </c>
@@ -6367,7 +6364,7 @@
         <v>18.428571428571427</v>
       </c>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
         <v>44139</v>
       </c>
@@ -6390,7 +6387,7 @@
         <v>19.857142857142858</v>
       </c>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
         <v>44140</v>
       </c>
@@ -6413,7 +6410,7 @@
         <v>20.571428571428573</v>
       </c>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
         <v>44141</v>
       </c>
@@ -6436,7 +6433,7 @@
         <v>19.714285714285715</v>
       </c>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
         <v>44142</v>
       </c>
@@ -6459,7 +6456,7 @@
         <v>21.714285714285715</v>
       </c>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
         <v>44143</v>
       </c>
@@ -6482,7 +6479,7 @@
         <v>21.714285714285715</v>
       </c>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
         <v>44144</v>
       </c>
@@ -6505,7 +6502,7 @@
         <v>21.714285714285715</v>
       </c>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
         <v>44145</v>
       </c>
@@ -6528,7 +6525,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
         <v>44146</v>
       </c>
@@ -6551,7 +6548,7 @@
         <v>23.285714285714285</v>
       </c>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
         <v>44147</v>
       </c>
@@ -6574,7 +6571,7 @@
         <v>23.285714285714285</v>
       </c>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
         <v>44148</v>
       </c>
@@ -6597,7 +6594,7 @@
         <v>24.142857142857142</v>
       </c>
     </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
         <v>44149</v>
       </c>
@@ -6620,7 +6617,7 @@
         <v>24.285714285714285</v>
       </c>
     </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
         <v>44150</v>
       </c>
@@ -6643,7 +6640,7 @@
         <v>25.857142857142858</v>
       </c>
     </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
         <v>44151</v>
       </c>
@@ -6666,7 +6663,7 @@
         <v>26.571428571428573</v>
       </c>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A254" s="1">
         <v>44152</v>
       </c>
@@ -6689,7 +6686,7 @@
         <v>26.428571428571427</v>
       </c>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A255" s="1">
         <v>44153</v>
       </c>
@@ -6712,7 +6709,7 @@
         <v>25.714285714285715</v>
       </c>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A256" s="1">
         <v>44154</v>
       </c>
@@ -6735,7 +6732,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A257" s="1">
         <v>44155</v>
       </c>
@@ -6758,7 +6755,7 @@
         <v>26.714285714285715</v>
       </c>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A258" s="1">
         <v>44156</v>
       </c>
@@ -6781,7 +6778,7 @@
         <v>26.857142857142858</v>
       </c>
     </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A259" s="1">
         <v>44157</v>
       </c>
@@ -6804,7 +6801,7 @@
         <v>26.714285714285715</v>
       </c>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A260" s="1">
         <v>44158</v>
       </c>
@@ -6827,7 +6824,7 @@
         <v>27.571428571428573</v>
       </c>
     </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A261" s="1">
         <v>44159</v>
       </c>
@@ -6850,7 +6847,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A262" s="1">
         <v>44160</v>
       </c>
@@ -6873,7 +6870,7 @@
         <v>28.428571428571427</v>
       </c>
     </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A263" s="1">
         <v>44161</v>
       </c>
@@ -6896,7 +6893,7 @@
         <v>29.285714285714285</v>
       </c>
     </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A264" s="1">
         <v>44162</v>
       </c>
@@ -6919,7 +6916,7 @@
         <v>30.571428571428573</v>
       </c>
     </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A265" s="1">
         <v>44163</v>
       </c>
@@ -6942,7 +6939,7 @@
         <v>32.428571428571431</v>
       </c>
     </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A266" s="1">
         <v>44164</v>
       </c>
@@ -6965,7 +6962,7 @@
         <v>32.142857142857146</v>
       </c>
     </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A267" s="1">
         <v>44165</v>
       </c>
@@ -6988,7 +6985,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A268" s="1">
         <v>44166</v>
       </c>
@@ -7011,7 +7008,7 @@
         <v>35.714285714285715</v>
       </c>
     </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A269" s="1">
         <v>44167</v>
       </c>
@@ -7034,7 +7031,7 @@
         <v>36.285714285714285</v>
       </c>
     </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A270" s="1">
         <v>44168</v>
       </c>
@@ -7057,7 +7054,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A271" s="1">
         <v>44169</v>
       </c>
@@ -7080,7 +7077,7 @@
         <v>40.428571428571431</v>
       </c>
     </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A272" s="1">
         <v>44170</v>
       </c>
@@ -7103,7 +7100,7 @@
         <v>40.857142857142854</v>
       </c>
     </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A273" s="1">
         <v>44171</v>
       </c>
@@ -7126,7 +7123,7 @@
         <v>43.571428571428569</v>
       </c>
     </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A274" s="1">
         <v>44172</v>
       </c>
@@ -7149,7 +7146,7 @@
         <v>46.285714285714285</v>
       </c>
     </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A275" s="1">
         <v>44173</v>
       </c>
@@ -7172,7 +7169,7 @@
         <v>45.714285714285715</v>
       </c>
     </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A276" s="1">
         <v>44174</v>
       </c>
@@ -7195,7 +7192,7 @@
         <v>48.142857142857146</v>
       </c>
     </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A277" s="1">
         <v>44175</v>
       </c>
@@ -7218,7 +7215,7 @@
         <v>49.428571428571431</v>
       </c>
     </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A278" s="1">
         <v>44176</v>
       </c>
@@ -7241,7 +7238,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A279" s="1">
         <v>44177</v>
       </c>
@@ -7264,7 +7261,7 @@
         <v>49.428571428571431</v>
       </c>
     </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A280" s="1">
         <v>44178</v>
       </c>
@@ -7287,7 +7284,7 @@
         <v>50.285714285714285</v>
       </c>
     </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A281" s="1">
         <v>44179</v>
       </c>
@@ -7310,7 +7307,7 @@
         <v>49.285714285714285</v>
       </c>
     </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A282" s="1">
         <v>44180</v>
       </c>
@@ -7333,7 +7330,7 @@
         <v>49.714285714285715</v>
       </c>
     </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A283" s="1">
         <v>44181</v>
       </c>
@@ -7356,7 +7353,7 @@
         <v>49.714285714285715</v>
       </c>
     </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A284" s="1">
         <v>44182</v>
       </c>
@@ -7379,7 +7376,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A285" s="1">
         <v>44183</v>
       </c>
@@ -7402,16 +7399,16 @@
         <v>51</v>
       </c>
     </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A286" s="1">
         <v>44184</v>
       </c>
       <c r="B286">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C286">
         <f t="shared" si="9"/>
-        <v>11542</v>
+        <v>11543</v>
       </c>
       <c r="D286">
         <v>0</v>
@@ -7422,19 +7419,19 @@
       </c>
       <c r="F286">
         <f t="shared" ref="F286" si="43">AVERAGE(B280:B286)</f>
-        <v>52.714285714285715</v>
-      </c>
-    </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.3">
+        <v>52.857142857142854</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A287" s="1">
         <v>44185</v>
       </c>
       <c r="B287">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C287">
         <f t="shared" si="9"/>
-        <v>11595</v>
+        <v>11600</v>
       </c>
       <c r="D287">
         <v>1</v>
@@ -7445,19 +7442,19 @@
       </c>
       <c r="F287">
         <f t="shared" ref="F287" si="45">AVERAGE(B281:B287)</f>
-        <v>52.714285714285715</v>
-      </c>
-    </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.3">
+        <v>53.428571428571431</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A288" s="1">
         <v>44186</v>
       </c>
       <c r="B288">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C288">
         <f t="shared" si="9"/>
-        <v>11641</v>
+        <v>11649</v>
       </c>
       <c r="D288">
         <v>3</v>
@@ -7468,19 +7465,19 @@
       </c>
       <c r="F288">
         <f t="shared" ref="F288" si="47">AVERAGE(B282:B288)</f>
-        <v>51.714285714285715</v>
-      </c>
-    </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.3">
+        <v>52.857142857142854</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A289" s="1">
         <v>44187</v>
       </c>
       <c r="B289">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="C289">
         <f t="shared" si="9"/>
-        <v>11688</v>
+        <v>11716</v>
       </c>
       <c r="D289">
         <v>0</v>
@@ -7491,7 +7488,76 @@
       </c>
       <c r="F289">
         <f t="shared" ref="F289" si="49">AVERAGE(B283:B289)</f>
-        <v>52</v>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A290" s="1">
+        <v>44188</v>
+      </c>
+      <c r="B290">
+        <v>40</v>
+      </c>
+      <c r="C290">
+        <f t="shared" si="9"/>
+        <v>11756</v>
+      </c>
+      <c r="D290">
+        <v>1</v>
+      </c>
+      <c r="E290">
+        <f t="shared" ref="E290:E291" si="50">D290+E289</f>
+        <v>258</v>
+      </c>
+      <c r="F290">
+        <f t="shared" ref="F290:F291" si="51">AVERAGE(B284:B290)</f>
+        <v>54.571428571428569</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A291" s="1">
+        <v>44189</v>
+      </c>
+      <c r="B291">
+        <v>56</v>
+      </c>
+      <c r="C291">
+        <f t="shared" ref="C291:C292" si="52">B291+C290</f>
+        <v>11812</v>
+      </c>
+      <c r="D291">
+        <v>0</v>
+      </c>
+      <c r="E291">
+        <f t="shared" si="50"/>
+        <v>258</v>
+      </c>
+      <c r="F291">
+        <f t="shared" si="51"/>
+        <v>54.714285714285715</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A292" s="1">
+        <v>44190</v>
+      </c>
+      <c r="B292">
+        <v>24</v>
+      </c>
+      <c r="C292">
+        <f t="shared" si="52"/>
+        <v>11836</v>
+      </c>
+      <c r="D292">
+        <v>0</v>
+      </c>
+      <c r="E292">
+        <f t="shared" ref="E292" si="53">D292+E291</f>
+        <v>258</v>
+      </c>
+      <c r="F292">
+        <f>AVERAGE(B286:B292)</f>
+        <v>50.428571428571431</v>
       </c>
     </row>
   </sheetData>
@@ -7500,6 +7566,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008004546134034441816F24C41F65E929" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c3392cbe151f976ef883c2eee1f53348">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0967b7be50301903c78f9c39c6fd9af8">
     <xsd:element name="properties">
@@ -7613,22 +7694,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74AA8ED6-45B0-4A9E-9B31-0193ECD8C05A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1A2B3F87-A9AF-4074-B361-AD2BB674E9B4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D515663D-8DD7-4DC5-AB14-871AB41C18CB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7642,21 +7725,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74AA8ED6-45B0-4A9E-9B31-0193ECD8C05A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1A2B3F87-A9AF-4074-B361-AD2BB674E9B4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/data/DateofDeath.xlsx
+++ b/data/DateofDeath.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\COVID-19 Data Visualization\COVID19 - Files\Power BI resources\CSV filesPROB4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CC0B8D1-4CD1-437C-A3BD-F4F213AB59B7}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADCCEDD9-EF42-40F7-819B-4CE4BE3856EE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -887,13 +887,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F292"/>
+  <dimension ref="A1:F298"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B279" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B281" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D299" sqref="D299"/>
+      <selection pane="bottomRight" activeCell="I299" sqref="I299"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6530,11 +6530,11 @@
         <v>44146</v>
       </c>
       <c r="B248">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C248">
         <f t="shared" si="9"/>
-        <v>10056</v>
+        <v>10057</v>
       </c>
       <c r="D248">
         <v>0</v>
@@ -6545,7 +6545,7 @@
       </c>
       <c r="F248">
         <f t="shared" si="16"/>
-        <v>23.285714285714285</v>
+        <v>23.428571428571427</v>
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.25">
@@ -6557,7 +6557,7 @@
       </c>
       <c r="C249">
         <f t="shared" si="9"/>
-        <v>10080</v>
+        <v>10081</v>
       </c>
       <c r="D249">
         <v>0</v>
@@ -6568,7 +6568,7 @@
       </c>
       <c r="F249">
         <f t="shared" si="16"/>
-        <v>23.285714285714285</v>
+        <v>23.428571428571427</v>
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.25">
@@ -6580,7 +6580,7 @@
       </c>
       <c r="C250">
         <f t="shared" si="9"/>
-        <v>10099</v>
+        <v>10100</v>
       </c>
       <c r="D250">
         <v>3</v>
@@ -6591,7 +6591,7 @@
       </c>
       <c r="F250">
         <f t="shared" si="16"/>
-        <v>24.142857142857142</v>
+        <v>24.285714285714285</v>
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.25">
@@ -6603,7 +6603,7 @@
       </c>
       <c r="C251">
         <f t="shared" si="9"/>
-        <v>10126</v>
+        <v>10127</v>
       </c>
       <c r="D251">
         <v>0</v>
@@ -6614,7 +6614,7 @@
       </c>
       <c r="F251">
         <f t="shared" si="16"/>
-        <v>24.285714285714285</v>
+        <v>24.428571428571427</v>
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.25">
@@ -6626,7 +6626,7 @@
       </c>
       <c r="C252">
         <f t="shared" si="9"/>
-        <v>10157</v>
+        <v>10158</v>
       </c>
       <c r="D252">
         <v>0</v>
@@ -6637,7 +6637,7 @@
       </c>
       <c r="F252">
         <f t="shared" si="16"/>
-        <v>25.857142857142858</v>
+        <v>26</v>
       </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.25">
@@ -6649,7 +6649,7 @@
       </c>
       <c r="C253">
         <f t="shared" si="9"/>
-        <v>10186</v>
+        <v>10187</v>
       </c>
       <c r="D253">
         <v>1</v>
@@ -6660,7 +6660,7 @@
       </c>
       <c r="F253">
         <f t="shared" si="16"/>
-        <v>26.571428571428573</v>
+        <v>26.714285714285715</v>
       </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.25">
@@ -6672,7 +6672,7 @@
       </c>
       <c r="C254">
         <f t="shared" si="9"/>
-        <v>10210</v>
+        <v>10211</v>
       </c>
       <c r="D254">
         <v>0</v>
@@ -6683,7 +6683,7 @@
       </c>
       <c r="F254">
         <f t="shared" si="16"/>
-        <v>26.428571428571427</v>
+        <v>26.571428571428573</v>
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.25">
@@ -6695,7 +6695,7 @@
       </c>
       <c r="C255">
         <f t="shared" si="9"/>
-        <v>10236</v>
+        <v>10237</v>
       </c>
       <c r="D255">
         <v>0</v>
@@ -6718,7 +6718,7 @@
       </c>
       <c r="C256">
         <f t="shared" si="9"/>
-        <v>10255</v>
+        <v>10256</v>
       </c>
       <c r="D256">
         <v>0</v>
@@ -6741,7 +6741,7 @@
       </c>
       <c r="C257">
         <f t="shared" si="9"/>
-        <v>10286</v>
+        <v>10287</v>
       </c>
       <c r="D257">
         <v>0</v>
@@ -6764,7 +6764,7 @@
       </c>
       <c r="C258">
         <f t="shared" si="9"/>
-        <v>10314</v>
+        <v>10315</v>
       </c>
       <c r="D258">
         <v>0</v>
@@ -6787,7 +6787,7 @@
       </c>
       <c r="C259">
         <f t="shared" si="9"/>
-        <v>10344</v>
+        <v>10345</v>
       </c>
       <c r="D259">
         <v>1</v>
@@ -6810,7 +6810,7 @@
       </c>
       <c r="C260">
         <f t="shared" si="9"/>
-        <v>10379</v>
+        <v>10380</v>
       </c>
       <c r="D260">
         <v>1</v>
@@ -6833,7 +6833,7 @@
       </c>
       <c r="C261">
         <f t="shared" si="9"/>
-        <v>10406</v>
+        <v>10407</v>
       </c>
       <c r="D261">
         <v>1</v>
@@ -6856,7 +6856,7 @@
       </c>
       <c r="C262">
         <f t="shared" si="9"/>
-        <v>10435</v>
+        <v>10436</v>
       </c>
       <c r="D262">
         <v>1</v>
@@ -6879,7 +6879,7 @@
       </c>
       <c r="C263">
         <f t="shared" si="9"/>
-        <v>10460</v>
+        <v>10461</v>
       </c>
       <c r="D263">
         <v>0</v>
@@ -6902,7 +6902,7 @@
       </c>
       <c r="C264">
         <f t="shared" si="9"/>
-        <v>10500</v>
+        <v>10501</v>
       </c>
       <c r="D264">
         <v>0</v>
@@ -6925,7 +6925,7 @@
       </c>
       <c r="C265">
         <f t="shared" si="9"/>
-        <v>10541</v>
+        <v>10542</v>
       </c>
       <c r="D265">
         <v>0</v>
@@ -6948,7 +6948,7 @@
       </c>
       <c r="C266">
         <f t="shared" si="9"/>
-        <v>10569</v>
+        <v>10570</v>
       </c>
       <c r="D266">
         <v>0</v>
@@ -6971,7 +6971,7 @@
       </c>
       <c r="C267">
         <f t="shared" si="9"/>
-        <v>10610</v>
+        <v>10611</v>
       </c>
       <c r="D267">
         <v>1</v>
@@ -6994,7 +6994,7 @@
       </c>
       <c r="C268">
         <f t="shared" si="9"/>
-        <v>10656</v>
+        <v>10657</v>
       </c>
       <c r="D268">
         <v>0</v>
@@ -7017,7 +7017,7 @@
       </c>
       <c r="C269">
         <f t="shared" si="9"/>
-        <v>10689</v>
+        <v>10690</v>
       </c>
       <c r="D269">
         <v>1</v>
@@ -7040,7 +7040,7 @@
       </c>
       <c r="C270">
         <f t="shared" si="9"/>
-        <v>10733</v>
+        <v>10734</v>
       </c>
       <c r="D270">
         <v>3</v>
@@ -7063,7 +7063,7 @@
       </c>
       <c r="C271">
         <f t="shared" si="9"/>
-        <v>10783</v>
+        <v>10784</v>
       </c>
       <c r="D271">
         <v>2</v>
@@ -7086,7 +7086,7 @@
       </c>
       <c r="C272">
         <f t="shared" si="9"/>
-        <v>10827</v>
+        <v>10828</v>
       </c>
       <c r="D272">
         <v>2</v>
@@ -7109,7 +7109,7 @@
       </c>
       <c r="C273">
         <f t="shared" si="9"/>
-        <v>10874</v>
+        <v>10875</v>
       </c>
       <c r="D273">
         <v>1</v>
@@ -7132,7 +7132,7 @@
       </c>
       <c r="C274">
         <f t="shared" si="9"/>
-        <v>10934</v>
+        <v>10935</v>
       </c>
       <c r="D274">
         <v>2</v>
@@ -7155,7 +7155,7 @@
       </c>
       <c r="C275">
         <f t="shared" si="9"/>
-        <v>10976</v>
+        <v>10977</v>
       </c>
       <c r="D275">
         <v>0</v>
@@ -7178,7 +7178,7 @@
       </c>
       <c r="C276">
         <f t="shared" si="9"/>
-        <v>11026</v>
+        <v>11027</v>
       </c>
       <c r="D276">
         <v>2</v>
@@ -7201,14 +7201,14 @@
       </c>
       <c r="C277">
         <f t="shared" si="9"/>
-        <v>11079</v>
+        <v>11080</v>
       </c>
       <c r="D277">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E277">
         <f t="shared" ref="E277" si="34">D277+E276</f>
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F277">
         <f t="shared" ref="F277" si="35">AVERAGE(B271:B277)</f>
@@ -7224,14 +7224,14 @@
       </c>
       <c r="C278">
         <f t="shared" si="9"/>
-        <v>11126</v>
+        <v>11127</v>
       </c>
       <c r="D278">
         <v>1</v>
       </c>
       <c r="E278">
         <f t="shared" ref="E278" si="36">D278+E277</f>
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="F278">
         <f t="shared" ref="F278" si="37">AVERAGE(B272:B278)</f>
@@ -7243,22 +7243,22 @@
         <v>44177</v>
       </c>
       <c r="B279">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C279">
         <f t="shared" si="9"/>
-        <v>11173</v>
+        <v>11175</v>
       </c>
       <c r="D279">
         <v>0</v>
       </c>
       <c r="E279">
         <f t="shared" ref="E279:E284" si="38">D279+E278</f>
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="F279">
         <f t="shared" ref="F279:F284" si="39">AVERAGE(B273:B279)</f>
-        <v>49.428571428571431</v>
+        <v>49.571428571428569</v>
       </c>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.25">
@@ -7270,18 +7270,18 @@
       </c>
       <c r="C280">
         <f t="shared" si="9"/>
-        <v>11226</v>
+        <v>11228</v>
       </c>
       <c r="D280">
         <v>0</v>
       </c>
       <c r="E280">
         <f t="shared" si="38"/>
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="F280">
         <f t="shared" si="39"/>
-        <v>50.285714285714285</v>
+        <v>50.428571428571431</v>
       </c>
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.25">
@@ -7293,18 +7293,18 @@
       </c>
       <c r="C281">
         <f t="shared" si="9"/>
-        <v>11279</v>
+        <v>11281</v>
       </c>
       <c r="D281">
         <v>0</v>
       </c>
       <c r="E281">
         <f t="shared" si="38"/>
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="F281">
         <f t="shared" si="39"/>
-        <v>49.285714285714285</v>
+        <v>49.428571428571431</v>
       </c>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.25">
@@ -7316,18 +7316,18 @@
       </c>
       <c r="C282">
         <f t="shared" si="9"/>
-        <v>11324</v>
+        <v>11326</v>
       </c>
       <c r="D282">
         <v>0</v>
       </c>
       <c r="E282">
         <f t="shared" si="38"/>
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="F282">
         <f t="shared" si="39"/>
-        <v>49.714285714285715</v>
+        <v>49.857142857142854</v>
       </c>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.25">
@@ -7339,18 +7339,18 @@
       </c>
       <c r="C283">
         <f t="shared" si="9"/>
-        <v>11374</v>
+        <v>11376</v>
       </c>
       <c r="D283">
         <v>0</v>
       </c>
       <c r="E283">
         <f t="shared" si="38"/>
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="F283">
         <f t="shared" si="39"/>
-        <v>49.714285714285715</v>
+        <v>49.857142857142854</v>
       </c>
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.25">
@@ -7358,22 +7358,22 @@
         <v>44182</v>
       </c>
       <c r="B284">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C284">
         <f t="shared" si="9"/>
-        <v>11429</v>
+        <v>11432</v>
       </c>
       <c r="D284">
         <v>0</v>
       </c>
       <c r="E284">
         <f t="shared" si="38"/>
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="F284">
         <f t="shared" si="39"/>
-        <v>50</v>
+        <v>50.285714285714285</v>
       </c>
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.25">
@@ -7381,22 +7381,22 @@
         <v>44183</v>
       </c>
       <c r="B285">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C285">
         <f t="shared" si="9"/>
-        <v>11483</v>
+        <v>11488</v>
       </c>
       <c r="D285">
         <v>1</v>
       </c>
       <c r="E285">
         <f t="shared" ref="E285" si="40">D285+E284</f>
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F285">
         <f t="shared" ref="F285" si="41">AVERAGE(B279:B285)</f>
-        <v>51</v>
+        <v>51.571428571428569</v>
       </c>
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.25">
@@ -7408,18 +7408,18 @@
       </c>
       <c r="C286">
         <f t="shared" si="9"/>
-        <v>11543</v>
+        <v>11548</v>
       </c>
       <c r="D286">
         <v>0</v>
       </c>
       <c r="E286">
         <f t="shared" ref="E286" si="42">D286+E285</f>
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F286">
         <f t="shared" ref="F286" si="43">AVERAGE(B280:B286)</f>
-        <v>52.857142857142854</v>
+        <v>53.285714285714285</v>
       </c>
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.25">
@@ -7427,22 +7427,22 @@
         <v>44185</v>
       </c>
       <c r="B287">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C287">
         <f t="shared" si="9"/>
-        <v>11600</v>
+        <v>11606</v>
       </c>
       <c r="D287">
         <v>1</v>
       </c>
       <c r="E287">
         <f t="shared" ref="E287" si="44">D287+E286</f>
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F287">
         <f t="shared" ref="F287" si="45">AVERAGE(B281:B287)</f>
-        <v>53.428571428571431</v>
+        <v>54</v>
       </c>
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.25">
@@ -7454,18 +7454,18 @@
       </c>
       <c r="C288">
         <f t="shared" si="9"/>
-        <v>11649</v>
+        <v>11655</v>
       </c>
       <c r="D288">
         <v>3</v>
       </c>
       <c r="E288">
         <f t="shared" ref="E288" si="46">D288+E287</f>
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F288">
         <f t="shared" ref="F288" si="47">AVERAGE(B282:B288)</f>
-        <v>52.857142857142854</v>
+        <v>53.428571428571431</v>
       </c>
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.25">
@@ -7473,22 +7473,22 @@
         <v>44187</v>
       </c>
       <c r="B289">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C289">
         <f t="shared" si="9"/>
-        <v>11716</v>
+        <v>11724</v>
       </c>
       <c r="D289">
         <v>0</v>
       </c>
       <c r="E289">
         <f t="shared" ref="E289" si="48">D289+E288</f>
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F289">
         <f t="shared" ref="F289" si="49">AVERAGE(B283:B289)</f>
-        <v>56</v>
+        <v>56.857142857142854</v>
       </c>
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.25">
@@ -7496,22 +7496,22 @@
         <v>44188</v>
       </c>
       <c r="B290">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="C290">
         <f t="shared" si="9"/>
-        <v>11756</v>
+        <v>11772</v>
       </c>
       <c r="D290">
         <v>1</v>
       </c>
       <c r="E290">
         <f t="shared" ref="E290:E291" si="50">D290+E289</f>
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="F290">
         <f t="shared" ref="F290:F291" si="51">AVERAGE(B284:B290)</f>
-        <v>54.571428571428569</v>
+        <v>56.571428571428569</v>
       </c>
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.25">
@@ -7519,22 +7519,22 @@
         <v>44189</v>
       </c>
       <c r="B291">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="C291">
-        <f t="shared" ref="C291:C292" si="52">B291+C290</f>
-        <v>11812</v>
+        <f t="shared" ref="C291:C298" si="52">B291+C290</f>
+        <v>11851</v>
       </c>
       <c r="D291">
         <v>0</v>
       </c>
       <c r="E291">
         <f t="shared" si="50"/>
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="F291">
         <f t="shared" si="51"/>
-        <v>54.714285714285715</v>
+        <v>59.857142857142854</v>
       </c>
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.25">
@@ -7542,22 +7542,160 @@
         <v>44190</v>
       </c>
       <c r="B292">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="C292">
         <f t="shared" si="52"/>
-        <v>11836</v>
+        <v>11915</v>
       </c>
       <c r="D292">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E292">
         <f t="shared" ref="E292" si="53">D292+E291</f>
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="F292">
         <f>AVERAGE(B286:B292)</f>
-        <v>50.428571428571431</v>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A293" s="1">
+        <v>44191</v>
+      </c>
+      <c r="B293">
+        <v>58</v>
+      </c>
+      <c r="C293">
+        <f t="shared" si="52"/>
+        <v>11973</v>
+      </c>
+      <c r="D293">
+        <v>1</v>
+      </c>
+      <c r="E293">
+        <f t="shared" ref="E293" si="54">D293+E292</f>
+        <v>261</v>
+      </c>
+      <c r="F293">
+        <f>AVERAGE(B287:B293)</f>
+        <v>60.714285714285715</v>
+      </c>
+    </row>
+    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A294" s="1">
+        <v>44192</v>
+      </c>
+      <c r="B294">
+        <v>58</v>
+      </c>
+      <c r="C294">
+        <f t="shared" si="52"/>
+        <v>12031</v>
+      </c>
+      <c r="D294">
+        <v>2</v>
+      </c>
+      <c r="E294">
+        <f t="shared" ref="E294" si="55">D294+E293</f>
+        <v>263</v>
+      </c>
+      <c r="F294">
+        <f>AVERAGE(B288:B294)</f>
+        <v>60.714285714285715</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A295" s="1">
+        <v>44193</v>
+      </c>
+      <c r="B295">
+        <v>72</v>
+      </c>
+      <c r="C295">
+        <f t="shared" si="52"/>
+        <v>12103</v>
+      </c>
+      <c r="D295">
+        <v>0</v>
+      </c>
+      <c r="E295">
+        <f t="shared" ref="E295" si="56">D295+E294</f>
+        <v>263</v>
+      </c>
+      <c r="F295">
+        <f>AVERAGE(B289:B295)</f>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A296" s="1">
+        <v>44194</v>
+      </c>
+      <c r="B296">
+        <v>70</v>
+      </c>
+      <c r="C296">
+        <f t="shared" si="52"/>
+        <v>12173</v>
+      </c>
+      <c r="D296">
+        <v>3</v>
+      </c>
+      <c r="E296">
+        <f t="shared" ref="E296" si="57">D296+E295</f>
+        <v>266</v>
+      </c>
+      <c r="F296">
+        <f>AVERAGE(B290:B296)</f>
+        <v>64.142857142857139</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A297" s="1">
+        <v>44195</v>
+      </c>
+      <c r="B297">
+        <v>41</v>
+      </c>
+      <c r="C297">
+        <f t="shared" si="52"/>
+        <v>12214</v>
+      </c>
+      <c r="D297">
+        <v>0</v>
+      </c>
+      <c r="E297">
+        <f t="shared" ref="E297:E298" si="58">D297+E296</f>
+        <v>266</v>
+      </c>
+      <c r="F297">
+        <f t="shared" ref="F297:F298" si="59">AVERAGE(B291:B297)</f>
+        <v>63.142857142857146</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A298" s="1">
+        <v>44196</v>
+      </c>
+      <c r="B298">
+        <v>3</v>
+      </c>
+      <c r="C298">
+        <f>B298+C297</f>
+        <v>12217</v>
+      </c>
+      <c r="D298">
+        <v>0</v>
+      </c>
+      <c r="E298">
+        <f>D298+E297</f>
+        <v>266</v>
+      </c>
+      <c r="F298">
+        <f>AVERAGE(B292:B298)</f>
+        <v>52.285714285714285</v>
       </c>
     </row>
   </sheetData>
@@ -7566,21 +7704,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008004546134034441816F24C41F65E929" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c3392cbe151f976ef883c2eee1f53348">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0967b7be50301903c78f9c39c6fd9af8">
     <xsd:element name="properties">
@@ -7694,10 +7817,33 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74AA8ED6-45B0-4A9E-9B31-0193ECD8C05A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D515663D-8DD7-4DC5-AB14-871AB41C18CB}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -7712,17 +7858,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D515663D-8DD7-4DC5-AB14-871AB41C18CB}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74AA8ED6-45B0-4A9E-9B31-0193ECD8C05A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>